--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Trillia\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1774A0-6E56-49E3-B3B4-82491BA93DBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806860E-8FFA-4E67-B932-E021C7598DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1221">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3424,72 +3424,6 @@
     <t>SellerLocation</t>
   </si>
   <si>
-    <t>Seller001</t>
-  </si>
-  <si>
-    <t>Seller002</t>
-  </si>
-  <si>
-    <t>Seller003</t>
-  </si>
-  <si>
-    <t>Seller004</t>
-  </si>
-  <si>
-    <t>Seller005</t>
-  </si>
-  <si>
-    <t>Seller006</t>
-  </si>
-  <si>
-    <t>Seller007</t>
-  </si>
-  <si>
-    <t>Seller008</t>
-  </si>
-  <si>
-    <t>Seller009</t>
-  </si>
-  <si>
-    <t>Seller010</t>
-  </si>
-  <si>
-    <t>Seller011</t>
-  </si>
-  <si>
-    <t>Seller012</t>
-  </si>
-  <si>
-    <t>Seller013</t>
-  </si>
-  <si>
-    <t>Seller014</t>
-  </si>
-  <si>
-    <t>Seller015</t>
-  </si>
-  <si>
-    <t>Seller016</t>
-  </si>
-  <si>
-    <t>Seller017</t>
-  </si>
-  <si>
-    <t>Seller018</t>
-  </si>
-  <si>
-    <t>Seller019</t>
-  </si>
-  <si>
-    <t>Seller020</t>
-  </si>
-  <si>
-    <t>Seller021</t>
-  </si>
-  <si>
-    <t>Seller022</t>
-  </si>
-  <si>
     <t>seller_goldwyn1@yopmail.com</t>
   </si>
   <si>
@@ -3632,6 +3566,141 @@
   </si>
   <si>
     <t>buyer_rtbukater1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Seller0001</t>
+  </si>
+  <si>
+    <t>Seller0002</t>
+  </si>
+  <si>
+    <t>Seller0003</t>
+  </si>
+  <si>
+    <t>Seller0004</t>
+  </si>
+  <si>
+    <t>Seller0005</t>
+  </si>
+  <si>
+    <t>Seller0006</t>
+  </si>
+  <si>
+    <t>Seller0007</t>
+  </si>
+  <si>
+    <t>Seller0008</t>
+  </si>
+  <si>
+    <t>Seller0009</t>
+  </si>
+  <si>
+    <t>Seller0010</t>
+  </si>
+  <si>
+    <t>Seller0011</t>
+  </si>
+  <si>
+    <t>Seller0012</t>
+  </si>
+  <si>
+    <t>Seller0013</t>
+  </si>
+  <si>
+    <t>Seller0014</t>
+  </si>
+  <si>
+    <t>Seller0015</t>
+  </si>
+  <si>
+    <t>Seller0016</t>
+  </si>
+  <si>
+    <t>Seller0017</t>
+  </si>
+  <si>
+    <t>Seller0018</t>
+  </si>
+  <si>
+    <t>Seller0019</t>
+  </si>
+  <si>
+    <t>Seller0020</t>
+  </si>
+  <si>
+    <t>Seller0021</t>
+  </si>
+  <si>
+    <t>Seller0022</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\1.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\2.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\3.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\4.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\5.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\6.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\7.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\8.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\9.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\10.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\11.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\12.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\13.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\14.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\15.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\16.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\17.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\18.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\19.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\20.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\21.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\22.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\23.png</t>
   </si>
 </sst>
 </file>
@@ -6485,13 +6554,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0C2BDA-D892-4B24-9F47-C0E0D73BE072}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A2:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="62.140625" style="34" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
@@ -6505,7 +6574,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>1152</v>
+        <v>1130</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>149</v>
@@ -6552,10 +6621,10 @@
     </row>
     <row r="2" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>1153</v>
+        <v>1198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1128</v>
+        <v>1176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>160</v>
@@ -6599,10 +6668,10 @@
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>1154</v>
+        <v>1199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1129</v>
+        <v>1177</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>167</v>
@@ -6646,10 +6715,10 @@
     </row>
     <row r="4" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>1155</v>
+        <v>1200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1130</v>
+        <v>1178</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>172</v>
@@ -6691,10 +6760,10 @@
     </row>
     <row r="5" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>1156</v>
+        <v>1201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1131</v>
+        <v>1179</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>177</v>
@@ -6738,10 +6807,10 @@
     </row>
     <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>1157</v>
+        <v>1202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1132</v>
+        <v>1180</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>184</v>
@@ -6785,10 +6854,10 @@
     </row>
     <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>1158</v>
+        <v>1203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1133</v>
+        <v>1181</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>191</v>
@@ -6832,10 +6901,10 @@
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>1159</v>
+        <v>1204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1134</v>
+        <v>1182</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>197</v>
@@ -6879,10 +6948,10 @@
     </row>
     <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>1160</v>
+        <v>1205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1135</v>
+        <v>1183</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>202</v>
@@ -6926,10 +6995,10 @@
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>1161</v>
+        <v>1206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1136</v>
+        <v>1184</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>207</v>
@@ -6973,10 +7042,10 @@
     </row>
     <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>1162</v>
+        <v>1207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1137</v>
+        <v>1185</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>211</v>
@@ -7020,10 +7089,10 @@
     </row>
     <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>1163</v>
+        <v>1208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1138</v>
+        <v>1186</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>216</v>
@@ -7067,10 +7136,10 @@
     </row>
     <row r="13" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>1164</v>
+        <v>1209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1139</v>
+        <v>1187</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>221</v>
@@ -7114,10 +7183,10 @@
     </row>
     <row r="14" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>1165</v>
+        <v>1210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1140</v>
+        <v>1188</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>226</v>
@@ -7161,10 +7230,10 @@
     </row>
     <row r="15" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>1166</v>
+        <v>1211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1141</v>
+        <v>1189</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>231</v>
@@ -7208,10 +7277,10 @@
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>1167</v>
+        <v>1212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1142</v>
+        <v>1190</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>237</v>
@@ -7255,10 +7324,10 @@
     </row>
     <row r="17" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>1168</v>
+        <v>1213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1143</v>
+        <v>1191</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>242</v>
@@ -7302,10 +7371,10 @@
     </row>
     <row r="18" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>1169</v>
+        <v>1214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1144</v>
+        <v>1192</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>247</v>
@@ -7349,10 +7418,10 @@
     </row>
     <row r="19" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>1170</v>
+        <v>1215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1145</v>
+        <v>1193</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>252</v>
@@ -7394,10 +7463,10 @@
     </row>
     <row r="20" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
-        <v>1171</v>
+        <v>1216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1146</v>
+        <v>1194</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>256</v>
@@ -7439,10 +7508,10 @@
     </row>
     <row r="21" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
-        <v>1172</v>
+        <v>1217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1147</v>
+        <v>1195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>263</v>
@@ -7484,10 +7553,10 @@
     </row>
     <row r="22" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>1173</v>
+        <v>1218</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1148</v>
+        <v>1196</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>268</v>
@@ -7529,10 +7598,10 @@
     </row>
     <row r="23" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>1174</v>
+        <v>1219</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1149</v>
+        <v>1197</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>274</v>
@@ -7544,7 +7613,7 @@
         <v>276</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>1151</v>
+        <v>1129</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>601</v>
@@ -7574,7 +7643,7 @@
     </row>
     <row r="24" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>1175</v>
+        <v>1220</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1049</v>
@@ -7589,7 +7658,7 @@
         <v>276</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>1150</v>
+        <v>1128</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>601</v>
@@ -7618,6 +7687,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F23" r:id="rId1" xr:uid="{6821EB74-DF54-4F98-ACFC-4BD3F7CED1D1}"/>
     <hyperlink ref="F24" r:id="rId2" xr:uid="{1C2E5FA8-591D-4767-9C0D-910A04F94C4B}"/>
@@ -7630,7 +7700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1B755A-BE89-4A69-9C59-9687521C23FC}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -7652,7 +7722,7 @@
         <v>578</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1152</v>
+        <v>1130</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>579</v>
@@ -7684,10 +7754,10 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>1176</v>
+        <v>1154</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1153</v>
+        <v>1131</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>280</v>
@@ -7719,10 +7789,10 @@
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1177</v>
+        <v>1155</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1154</v>
+        <v>1132</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>282</v>
@@ -7754,10 +7824,10 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1178</v>
+        <v>1156</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1155</v>
+        <v>1133</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>284</v>
@@ -7789,10 +7859,10 @@
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>1179</v>
+        <v>1157</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>1156</v>
+        <v>1134</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>286</v>
@@ -7824,10 +7894,10 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>1180</v>
+        <v>1158</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1157</v>
+        <v>1135</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>288</v>
@@ -7859,10 +7929,10 @@
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>1181</v>
+        <v>1159</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>1158</v>
+        <v>1136</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>293</v>
@@ -7894,10 +7964,10 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>1182</v>
+        <v>1160</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>1159</v>
+        <v>1137</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>298</v>
@@ -7929,10 +7999,10 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1183</v>
+        <v>1161</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>1160</v>
+        <v>1138</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>300</v>
@@ -7964,10 +8034,10 @@
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>1184</v>
+        <v>1162</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>302</v>
@@ -7999,10 +8069,10 @@
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>1185</v>
+        <v>1163</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>1162</v>
+        <v>1140</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>304</v>
@@ -8034,10 +8104,10 @@
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>1186</v>
+        <v>1164</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>306</v>
@@ -8069,10 +8139,10 @@
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>1187</v>
+        <v>1165</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>1164</v>
+        <v>1142</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>308</v>
@@ -8104,10 +8174,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>1188</v>
+        <v>1166</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1165</v>
+        <v>1143</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>310</v>
@@ -8139,10 +8209,10 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>1166</v>
+        <v>1144</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>312</v>
@@ -8174,10 +8244,10 @@
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>1190</v>
+        <v>1168</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1167</v>
+        <v>1145</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>314</v>
@@ -8209,10 +8279,10 @@
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>1191</v>
+        <v>1169</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>316</v>
@@ -8244,10 +8314,10 @@
     </row>
     <row r="18" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>1192</v>
+        <v>1170</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>1169</v>
+        <v>1147</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>318</v>
@@ -8279,10 +8349,10 @@
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>1170</v>
+        <v>1148</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>320</v>
@@ -8314,10 +8384,10 @@
     </row>
     <row r="20" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1171</v>
+        <v>1149</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>322</v>
@@ -8349,10 +8419,10 @@
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>1195</v>
+        <v>1173</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>1172</v>
+        <v>1150</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>325</v>
@@ -8384,10 +8454,10 @@
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>1196</v>
+        <v>1174</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>1173</v>
+        <v>1151</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>327</v>
@@ -8422,7 +8492,7 @@
         <v>329</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>1174</v>
+        <v>1152</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>330</v>
@@ -8457,7 +8527,7 @@
         <v>1051</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>1175</v>
+        <v>1153</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>330</v>
@@ -8466,7 +8536,7 @@
         <v>331</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>1197</v>
+        <v>1175</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>623</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA66C7-AA50-46C1-8633-26C95342F187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9687A496-F521-41DB-ACCF-CC11FED1550D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1203">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3641,6 +3641,12 @@
   </si>
   <si>
     <t>option3</t>
+  </si>
+  <si>
+    <t>Delivery Method</t>
+  </si>
+  <si>
+    <t>both</t>
   </si>
 </sst>
 </file>
@@ -3754,7 +3760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3792,12 +3798,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3883,6 +3898,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12006,10 +12025,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12020,9 +12039,10 @@
     <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>754</v>
       </c>
@@ -12050,8 +12070,11 @@
       <c r="I1" s="35" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="36" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>756</v>
       </c>
@@ -12065,7 +12088,7 @@
         <v>834</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F2" s="8">
         <v>14.25</v>
@@ -12073,14 +12096,15 @@
       <c r="G2" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>1200</v>
-      </c>
+      <c r="H2" s="8"/>
       <c r="I2" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>757</v>
       </c>
@@ -12108,8 +12132,11 @@
       <c r="I3" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>758</v>
       </c>
@@ -12135,8 +12162,11 @@
       <c r="I4" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>759</v>
       </c>
@@ -12162,8 +12192,11 @@
       <c r="I5" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>760</v>
       </c>
@@ -12189,8 +12222,11 @@
       <c r="I6" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>761</v>
       </c>
@@ -12216,8 +12252,11 @@
       <c r="I7" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>762</v>
       </c>
@@ -12245,8 +12284,11 @@
       <c r="I8" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>763</v>
       </c>
@@ -12272,8 +12314,11 @@
       <c r="I9" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>764</v>
       </c>
@@ -12299,8 +12344,11 @@
       <c r="I10" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>765</v>
       </c>
@@ -12326,8 +12374,11 @@
       <c r="I11" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>766</v>
       </c>
@@ -12353,8 +12404,11 @@
       <c r="I12" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>767</v>
       </c>
@@ -12382,8 +12436,11 @@
       <c r="I13" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>768</v>
       </c>
@@ -12409,8 +12466,11 @@
       <c r="I14" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>769</v>
       </c>
@@ -12436,8 +12496,11 @@
       <c r="I15" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>770</v>
       </c>
@@ -12463,8 +12526,11 @@
       <c r="I16" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>771</v>
       </c>
@@ -12490,8 +12556,11 @@
       <c r="I17" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>772</v>
       </c>
@@ -12519,8 +12588,11 @@
       <c r="I18" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>773</v>
       </c>
@@ -12546,8 +12618,11 @@
       <c r="I19" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>774</v>
       </c>
@@ -12573,8 +12648,11 @@
       <c r="I20" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>775</v>
       </c>
@@ -12600,8 +12678,11 @@
       <c r="I21" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>776</v>
       </c>
@@ -12627,8 +12708,11 @@
       <c r="I22" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>777</v>
       </c>
@@ -12656,8 +12740,11 @@
       <c r="I23" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>778</v>
       </c>
@@ -12683,8 +12770,11 @@
       <c r="I24" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>779</v>
       </c>
@@ -12710,8 +12800,11 @@
       <c r="I25" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>780</v>
       </c>
@@ -12737,8 +12830,11 @@
       <c r="I26" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>781</v>
       </c>
@@ -12764,8 +12860,11 @@
       <c r="I27" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>782</v>
       </c>
@@ -12793,8 +12892,11 @@
       <c r="I28" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>783</v>
       </c>
@@ -12820,8 +12922,11 @@
       <c r="I29" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>784</v>
       </c>
@@ -12847,8 +12952,11 @@
       <c r="I30" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>785</v>
       </c>
@@ -12874,8 +12982,11 @@
       <c r="I31" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>786</v>
       </c>
@@ -12901,8 +13012,11 @@
       <c r="I32" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>787</v>
       </c>
@@ -12930,8 +13044,11 @@
       <c r="I33" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>788</v>
       </c>
@@ -12957,8 +13074,11 @@
       <c r="I34" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>789</v>
       </c>
@@ -12984,8 +13104,11 @@
       <c r="I35" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>790</v>
       </c>
@@ -13011,8 +13134,11 @@
       <c r="I36" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>791</v>
       </c>
@@ -13038,8 +13164,11 @@
       <c r="I37" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>792</v>
       </c>
@@ -13067,8 +13196,11 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>793</v>
       </c>
@@ -13094,8 +13226,11 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>794</v>
       </c>
@@ -13121,8 +13256,11 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>795</v>
       </c>
@@ -13148,8 +13286,11 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>796</v>
       </c>
@@ -13175,8 +13316,11 @@
       <c r="I42" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>797</v>
       </c>
@@ -13204,8 +13348,11 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>798</v>
       </c>
@@ -13231,8 +13378,11 @@
       <c r="I44" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>799</v>
       </c>
@@ -13258,8 +13408,11 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>800</v>
       </c>
@@ -13285,8 +13438,11 @@
       <c r="I46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>801</v>
       </c>
@@ -13312,8 +13468,11 @@
       <c r="I47" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J47" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>802</v>
       </c>
@@ -13341,8 +13500,11 @@
       <c r="I48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>803</v>
       </c>
@@ -13368,8 +13530,11 @@
       <c r="I49" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>804</v>
       </c>
@@ -13395,8 +13560,11 @@
       <c r="I50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>805</v>
       </c>
@@ -13422,8 +13590,11 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>806</v>
       </c>
@@ -13449,8 +13620,11 @@
       <c r="I52" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>807</v>
       </c>
@@ -13478,8 +13652,11 @@
       <c r="I53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>808</v>
       </c>
@@ -13505,8 +13682,11 @@
       <c r="I54" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>809</v>
       </c>
@@ -13532,8 +13712,11 @@
       <c r="I55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J55" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>810</v>
       </c>
@@ -13559,8 +13742,11 @@
       <c r="I56" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>811</v>
       </c>
@@ -13586,8 +13772,11 @@
       <c r="I57" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>812</v>
       </c>
@@ -13615,8 +13804,11 @@
       <c r="I58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>813</v>
       </c>
@@ -13642,8 +13834,11 @@
       <c r="I59" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>814</v>
       </c>
@@ -13669,8 +13864,11 @@
       <c r="I60" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J60" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>815</v>
       </c>
@@ -13696,8 +13894,11 @@
       <c r="I61" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>816</v>
       </c>
@@ -13723,8 +13924,11 @@
       <c r="I62" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J62" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>817</v>
       </c>
@@ -13752,8 +13956,11 @@
       <c r="I63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>818</v>
       </c>
@@ -13779,8 +13986,11 @@
       <c r="I64" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>819</v>
       </c>
@@ -13806,8 +14016,11 @@
       <c r="I65" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>820</v>
       </c>
@@ -13833,8 +14046,11 @@
       <c r="I66" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>821</v>
       </c>
@@ -13860,8 +14076,11 @@
       <c r="I67" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>822</v>
       </c>
@@ -13889,8 +14108,11 @@
       <c r="I68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J68" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>823</v>
       </c>
@@ -13916,8 +14138,11 @@
       <c r="I69" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J69" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>824</v>
       </c>
@@ -13943,8 +14168,11 @@
       <c r="I70" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>825</v>
       </c>
@@ -13970,8 +14198,11 @@
       <c r="I71" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J71" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>826</v>
       </c>
@@ -13997,8 +14228,11 @@
       <c r="I72" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J72" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>827</v>
       </c>
@@ -14026,8 +14260,11 @@
       <c r="I73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J73" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>828</v>
       </c>
@@ -14053,8 +14290,11 @@
       <c r="I74" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>829</v>
       </c>
@@ -14080,8 +14320,11 @@
       <c r="I75" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>830</v>
       </c>
@@ -14107,8 +14350,11 @@
       <c r="I76" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>831</v>
       </c>
@@ -14134,8 +14380,11 @@
       <c r="I77" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>832</v>
       </c>
@@ -14163,8 +14412,11 @@
       <c r="I78" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J78" s="37" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1005</v>
       </c>
@@ -14191,6 +14443,9 @@
       </c>
       <c r="I79" s="2" t="s">
         <v>849</v>
+      </c>
+      <c r="J79" s="37" t="s">
+        <v>1202</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9687A496-F521-41DB-ACCF-CC11FED1550D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECFA7D-949C-41FA-8CE3-B2D196707357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1203">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -2308,12 +2308,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Item01</t>
-  </si>
-  <si>
-    <t>Item02</t>
-  </si>
-  <si>
     <t>Item03</t>
   </si>
   <si>
@@ -3647,6 +3641,12 @@
   </si>
   <si>
     <t>both</t>
+  </si>
+  <si>
+    <t>ItemNoVariants</t>
+  </si>
+  <si>
+    <t>ItemWithVariants</t>
   </si>
 </sst>
 </file>
@@ -6235,7 +6235,7 @@
         <v>741</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>123</v>
@@ -6252,7 +6252,7 @@
         <v>742</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>744</v>
@@ -6269,7 +6269,7 @@
         <v>742</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>744</v>
@@ -6286,7 +6286,7 @@
         <v>742</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>745</v>
@@ -6303,7 +6303,7 @@
         <v>742</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>127</v>
@@ -6320,7 +6320,7 @@
         <v>742</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>744</v>
@@ -6337,7 +6337,7 @@
         <v>742</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>744</v>
@@ -6354,7 +6354,7 @@
         <v>742</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>745</v>
@@ -6371,7 +6371,7 @@
         <v>742</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>127</v>
@@ -6388,7 +6388,7 @@
         <v>742</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>744</v>
@@ -6405,7 +6405,7 @@
         <v>742</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>744</v>
@@ -6422,7 +6422,7 @@
         <v>742</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>745</v>
@@ -6439,7 +6439,7 @@
         <v>742</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>127</v>
@@ -6456,7 +6456,7 @@
         <v>742</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>751</v>
@@ -6538,7 +6538,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>137</v>
@@ -6559,7 +6559,7 @@
         <v>141</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>142</v>
@@ -6585,10 +6585,10 @@
     </row>
     <row r="2" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>148</v>
@@ -6600,7 +6600,7 @@
         <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>568</v>
@@ -6632,10 +6632,10 @@
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>155</v>
@@ -6647,7 +6647,7 @@
         <v>157</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>576</v>
@@ -6679,10 +6679,10 @@
     </row>
     <row r="4" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>160</v>
@@ -6694,7 +6694,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>569</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="5" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>165</v>
@@ -6739,7 +6739,7 @@
         <v>167</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>570</v>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>172</v>
@@ -6786,7 +6786,7 @@
         <v>174</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>571</v>
@@ -6818,10 +6818,10 @@
     </row>
     <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>179</v>
@@ -6833,7 +6833,7 @@
         <v>181</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>572</v>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>185</v>
@@ -6880,7 +6880,7 @@
         <v>187</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>573</v>
@@ -6912,10 +6912,10 @@
     </row>
     <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>190</v>
@@ -6927,7 +6927,7 @@
         <v>192</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>574</v>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>195</v>
@@ -6974,7 +6974,7 @@
         <v>197</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>575</v>
@@ -7006,10 +7006,10 @@
     </row>
     <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>199</v>
@@ -7021,7 +7021,7 @@
         <v>201</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>577</v>
@@ -7053,10 +7053,10 @@
     </row>
     <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>204</v>
@@ -7068,7 +7068,7 @@
         <v>206</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>578</v>
@@ -7100,10 +7100,10 @@
     </row>
     <row r="13" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>209</v>
@@ -7115,7 +7115,7 @@
         <v>211</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>579</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="14" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>214</v>
@@ -7162,7 +7162,7 @@
         <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>580</v>
@@ -7194,10 +7194,10 @@
     </row>
     <row r="15" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>219</v>
@@ -7209,7 +7209,7 @@
         <v>221</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>581</v>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>225</v>
@@ -7256,7 +7256,7 @@
         <v>227</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>582</v>
@@ -7288,10 +7288,10 @@
     </row>
     <row r="17" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>230</v>
@@ -7303,7 +7303,7 @@
         <v>232</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>583</v>
@@ -7335,10 +7335,10 @@
     </row>
     <row r="18" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>235</v>
@@ -7350,7 +7350,7 @@
         <v>237</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>584</v>
@@ -7382,10 +7382,10 @@
     </row>
     <row r="19" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>240</v>
@@ -7397,7 +7397,7 @@
         <v>242</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>585</v>
@@ -7427,10 +7427,10 @@
     </row>
     <row r="20" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>244</v>
@@ -7442,7 +7442,7 @@
         <v>246</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>586</v>
@@ -7472,10 +7472,10 @@
     </row>
     <row r="21" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>251</v>
@@ -7487,7 +7487,7 @@
         <v>253</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>587</v>
@@ -7517,10 +7517,10 @@
     </row>
     <row r="22" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>256</v>
@@ -7532,7 +7532,7 @@
         <v>258</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>588</v>
@@ -7562,10 +7562,10 @@
     </row>
     <row r="23" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>262</v>
@@ -7577,7 +7577,7 @@
         <v>264</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>589</v>
@@ -7607,13 +7607,13 @@
     </row>
     <row r="24" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>263</v>
@@ -7622,7 +7622,7 @@
         <v>264</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>589</v>
@@ -7686,7 +7686,7 @@
         <v>566</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>567</v>
@@ -7718,10 +7718,10 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>268</v>
@@ -7730,7 +7730,7 @@
         <v>269</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>590</v>
@@ -7753,10 +7753,10 @@
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>270</v>
@@ -7765,7 +7765,7 @@
         <v>271</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>591</v>
@@ -7788,10 +7788,10 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>272</v>
@@ -7800,7 +7800,7 @@
         <v>273</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>592</v>
@@ -7823,10 +7823,10 @@
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>274</v>
@@ -7835,7 +7835,7 @@
         <v>275</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>593</v>
@@ -7858,10 +7858,10 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>276</v>
@@ -7870,7 +7870,7 @@
         <v>277</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>594</v>
@@ -7893,10 +7893,10 @@
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>281</v>
@@ -7905,7 +7905,7 @@
         <v>282</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>595</v>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>286</v>
@@ -7940,7 +7940,7 @@
         <v>287</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>596</v>
@@ -7963,10 +7963,10 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>288</v>
@@ -7975,7 +7975,7 @@
         <v>289</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>597</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>290</v>
@@ -8010,7 +8010,7 @@
         <v>291</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>598</v>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>292</v>
@@ -8045,7 +8045,7 @@
         <v>293</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>599</v>
@@ -8068,10 +8068,10 @@
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>294</v>
@@ -8080,7 +8080,7 @@
         <v>295</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>600</v>
@@ -8103,10 +8103,10 @@
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>296</v>
@@ -8115,7 +8115,7 @@
         <v>297</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>601</v>
@@ -8138,10 +8138,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>298</v>
@@ -8150,7 +8150,7 @@
         <v>299</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>602</v>
@@ -8173,10 +8173,10 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>300</v>
@@ -8185,7 +8185,7 @@
         <v>301</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>603</v>
@@ -8208,10 +8208,10 @@
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>302</v>
@@ -8220,7 +8220,7 @@
         <v>303</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>604</v>
@@ -8243,10 +8243,10 @@
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>304</v>
@@ -8255,7 +8255,7 @@
         <v>305</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>605</v>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="18" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>306</v>
@@ -8290,7 +8290,7 @@
         <v>307</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>606</v>
@@ -8313,10 +8313,10 @@
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>308</v>
@@ -8325,7 +8325,7 @@
         <v>309</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>607</v>
@@ -8348,10 +8348,10 @@
     </row>
     <row r="20" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>310</v>
@@ -8360,7 +8360,7 @@
         <v>311</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>608</v>
@@ -8383,10 +8383,10 @@
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>313</v>
@@ -8395,7 +8395,7 @@
         <v>314</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>609</v>
@@ -8418,10 +8418,10 @@
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>315</v>
@@ -8430,7 +8430,7 @@
         <v>316</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>610</v>
@@ -8456,7 +8456,7 @@
         <v>317</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>318</v>
@@ -8465,7 +8465,7 @@
         <v>319</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>611</v>
@@ -8488,10 +8488,10 @@
     </row>
     <row r="24" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>318</v>
@@ -8500,7 +8500,7 @@
         <v>319</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>611</v>
@@ -11804,7 +11804,7 @@
         <v>322</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -12028,12 +12028,12 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="76.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
@@ -12050,55 +12050,55 @@
         <v>755</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>752</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>756</v>
+        <v>1201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F2" s="8">
         <v>14.25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="2" t="s">
-        <v>849</v>
+      <c r="I2" s="2">
+        <v>6</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>742</v>
@@ -12106,31 +12106,31 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>757</v>
+        <v>1202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F3" s="2">
         <v>10.25</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>849</v>
+        <v>1196</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>742</v>
@@ -12138,29 +12138,29 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F4" s="8">
         <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>742</v>
@@ -12168,29 +12168,29 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F5" s="8">
         <v>17</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J5" s="37" t="s">
         <v>742</v>
@@ -12198,29 +12198,29 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F6" s="8">
         <v>14.25</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>742</v>
@@ -12228,29 +12228,29 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C7" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F7" s="8">
         <v>14.25</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J7" s="37" t="s">
         <v>742</v>
@@ -12258,31 +12258,31 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C8" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F8" s="2">
         <v>10.25</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J8" s="37" t="s">
         <v>742</v>
@@ -12290,29 +12290,29 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C9" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F9" s="8">
         <v>14</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J9" s="37" t="s">
         <v>742</v>
@@ -12320,29 +12320,29 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F10" s="8">
         <v>17</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J10" s="37" t="s">
         <v>742</v>
@@ -12350,29 +12350,29 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>631</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F11" s="8">
         <v>14.25</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J11" s="37" t="s">
         <v>742</v>
@@ -12380,29 +12380,29 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>632</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F12" s="8">
         <v>14.25</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>742</v>
@@ -12410,31 +12410,31 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>633</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F13" s="2">
         <v>10.25</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>742</v>
@@ -12442,29 +12442,29 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C14" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>634</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F14" s="8">
         <v>14</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J14" s="37" t="s">
         <v>742</v>
@@ -12472,29 +12472,29 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>635</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F15" s="8">
         <v>17</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J15" s="37" t="s">
         <v>742</v>
@@ -12502,29 +12502,29 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C16" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>636</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F16" s="8">
         <v>14.25</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J16" s="37" t="s">
         <v>742</v>
@@ -12532,29 +12532,29 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C17" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>637</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F17" s="8">
         <v>14.25</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J17" s="37" t="s">
         <v>742</v>
@@ -12562,31 +12562,31 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>638</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F18" s="2">
         <v>10.25</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>742</v>
@@ -12594,29 +12594,29 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C19" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>639</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F19" s="8">
         <v>14</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J19" s="37" t="s">
         <v>742</v>
@@ -12624,25 +12624,25 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C20" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>640</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F20" s="8">
         <v>17</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8">
@@ -12654,59 +12654,59 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C21" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>641</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F21" s="8">
         <v>14.25</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8">
         <v>1000</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C22" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>642</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F22" s="8">
         <v>14.25</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J22" s="37" t="s">
         <v>742</v>
@@ -12714,61 +12714,61 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C23" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>643</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F23" s="2">
         <v>10.25</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I23" s="8">
         <v>1000</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C24" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>644</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F24" s="8">
         <v>14</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J24" s="37" t="s">
         <v>742</v>
@@ -12776,25 +12776,25 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C25" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F25" s="8">
         <v>17</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8">
@@ -12806,59 +12806,59 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>646</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F26" s="8">
         <v>14.25</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8">
         <v>1000</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>647</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F27" s="8">
         <v>14.25</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J27" s="37" t="s">
         <v>742</v>
@@ -12866,61 +12866,61 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C28" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F28" s="2">
         <v>10.25</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I28" s="8">
         <v>1000</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C29" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>649</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F29" s="8">
         <v>14</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J29" s="37" t="s">
         <v>742</v>
@@ -12928,25 +12928,25 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C30" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>650</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F30" s="8">
         <v>17</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8">
@@ -12958,59 +12958,59 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C31" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>651</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F31" s="8">
         <v>14.25</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8">
         <v>1000</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C32" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>652</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F32" s="8">
         <v>14.25</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J32" s="37" t="s">
         <v>742</v>
@@ -13018,61 +13018,61 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C33" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>653</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F33" s="2">
         <v>10.25</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I33" s="8">
         <v>1000</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C34" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>654</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F34" s="8">
         <v>14</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J34" s="37" t="s">
         <v>742</v>
@@ -13080,25 +13080,25 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C35" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F35" s="8">
         <v>17</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8">
@@ -13110,59 +13110,59 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>656</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F36" s="8">
         <v>14.25</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8">
         <v>1000</v>
       </c>
       <c r="J36" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C37" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F37" s="8">
         <v>14.25</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J37" s="37" t="s">
         <v>742</v>
@@ -13170,28 +13170,28 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C38" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>658</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F38" s="2">
         <v>10.25</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -13202,25 +13202,25 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C39" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>659</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F39" s="8">
         <v>14</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="2">
@@ -13232,25 +13232,25 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C40" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>660</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F40" s="8">
         <v>17</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="2">
@@ -13262,25 +13262,25 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C41" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>661</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F41" s="8">
         <v>14.25</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="2">
@@ -13292,58 +13292,58 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C42" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>662</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F42" s="8">
         <v>14.25</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J42" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C43" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>663</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F43" s="2">
         <v>10.25</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -13354,55 +13354,55 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C44" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>664</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F44" s="8">
         <v>14</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C45" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>665</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F45" s="8">
         <v>17</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="2">
@@ -13414,25 +13414,25 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C46" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>666</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F46" s="8">
         <v>14.25</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="2">
@@ -13444,58 +13444,58 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C47" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>667</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F47" s="8">
         <v>14.25</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C48" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>668</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F48" s="2">
         <v>10.25</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -13506,55 +13506,55 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C49" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>669</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F49" s="8">
         <v>14</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J49" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C50" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>670</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F50" s="8">
         <v>17</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="2">
@@ -13566,25 +13566,25 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C51" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>671</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F51" s="8">
         <v>14.25</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="2">
@@ -13596,58 +13596,58 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C52" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>672</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F52" s="8">
         <v>14.25</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J52" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C53" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>673</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F53" s="2">
         <v>10.25</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
@@ -13658,55 +13658,55 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C54" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>674</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F54" s="8">
         <v>14</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J54" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C55" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>675</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F55" s="8">
         <v>17</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="2">
@@ -13718,88 +13718,88 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C56" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>676</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F56" s="8">
         <v>14.25</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J56" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C57" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F57" s="8">
         <v>14.25</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J57" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C58" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>678</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F58" s="2">
         <v>10.25</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I58" s="2">
         <v>0</v>
@@ -13810,148 +13810,148 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C59" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>679</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F59" s="8">
         <v>14</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J59" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C60" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>680</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F60" s="8">
         <v>17</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J60" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C61" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>681</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F61" s="8">
         <v>14.25</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C62" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>682</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F62" s="8">
         <v>14.25</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J62" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C63" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>683</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F63" s="2">
         <v>10.25</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
@@ -13962,148 +13962,148 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C64" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>684</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F64" s="8">
         <v>14</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C65" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>685</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F65" s="8">
         <v>17</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C66" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>686</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F66" s="8">
         <v>14.25</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J66" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C67" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>687</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F67" s="8">
         <v>14.25</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J67" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C68" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>688</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F68" s="2">
         <v>10.25</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
@@ -14114,148 +14114,148 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C69" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>689</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F69" s="8">
         <v>14</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J69" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C70" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>690</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F70" s="8">
         <v>17</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C71" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>691</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F71" s="8">
         <v>14.25</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J71" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C72" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>692</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F72" s="8">
         <v>14.25</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J72" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C73" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F73" s="2">
         <v>10.25</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
@@ -14266,186 +14266,186 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C74" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>694</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F74" s="8">
         <v>15</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J74" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C75" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>695</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F75" s="8">
         <v>15</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J75" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C76" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>696</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F76" s="8">
         <v>15</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J76" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C77" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>697</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F77" s="8">
         <v>15</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>698</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F78" s="8">
         <v>15</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H78" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="J78" s="37" t="s">
         <v>1200</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="J78" s="37" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F79" s="8">
         <v>15</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H79" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="J79" s="37" t="s">
         <v>1200</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="J79" s="37" t="s">
-        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -14488,111 +14488,111 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1" t="s">
         <v>1011</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1012</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1013</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1014</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1015</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1017</v>
       </c>
       <c r="H1" t="s">
         <v>123</v>
       </c>
       <c r="I1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K1" t="s">
         <v>1018</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>1019</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>1020</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1022</v>
       </c>
       <c r="N1" t="s">
         <v>731</v>
       </c>
       <c r="O1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1023</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>1024</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>1025</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>1026</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C2" t="s">
         <v>1029</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>1030</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>1031</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>1032</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="28" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M2" t="s">
         <v>1033</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>1034</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="O2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P2" t="s">
         <v>1040</v>
       </c>
-      <c r="L2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>1035</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>1036</v>
       </c>
-      <c r="O2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>1037</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1039</v>
       </c>
       <c r="T2">
         <v>20</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECFA7D-949C-41FA-8CE3-B2D196707357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB53713B-8491-4750-8D03-D6C5CC0BF1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1065">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -2308,231 +2308,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Item03</t>
-  </si>
-  <si>
-    <t>Item04</t>
-  </si>
-  <si>
-    <t>Item05</t>
-  </si>
-  <si>
-    <t>Item06</t>
-  </si>
-  <si>
-    <t>Item07</t>
-  </si>
-  <si>
-    <t>Item08</t>
-  </si>
-  <si>
-    <t>Item09</t>
-  </si>
-  <si>
-    <t>Item10</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
-  </si>
-  <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item15</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item17</t>
-  </si>
-  <si>
-    <t>Item18</t>
-  </si>
-  <si>
-    <t>Item19</t>
-  </si>
-  <si>
-    <t>Item20</t>
-  </si>
-  <si>
-    <t>Item21</t>
-  </si>
-  <si>
-    <t>Item22</t>
-  </si>
-  <si>
-    <t>Item23</t>
-  </si>
-  <si>
-    <t>Item24</t>
-  </si>
-  <si>
-    <t>Item25</t>
-  </si>
-  <si>
-    <t>Item26</t>
-  </si>
-  <si>
-    <t>Item27</t>
-  </si>
-  <si>
-    <t>Item28</t>
-  </si>
-  <si>
-    <t>Item29</t>
-  </si>
-  <si>
-    <t>Item30</t>
-  </si>
-  <si>
-    <t>Item31</t>
-  </si>
-  <si>
-    <t>Item32</t>
-  </si>
-  <si>
-    <t>Item33</t>
-  </si>
-  <si>
-    <t>Item34</t>
-  </si>
-  <si>
-    <t>Item35</t>
-  </si>
-  <si>
-    <t>Item36</t>
-  </si>
-  <si>
-    <t>Item37</t>
-  </si>
-  <si>
-    <t>Item38</t>
-  </si>
-  <si>
-    <t>Item39</t>
-  </si>
-  <si>
-    <t>Item40</t>
-  </si>
-  <si>
-    <t>Item41</t>
-  </si>
-  <si>
-    <t>Item42</t>
-  </si>
-  <si>
-    <t>Item43</t>
-  </si>
-  <si>
-    <t>Item44</t>
-  </si>
-  <si>
-    <t>Item45</t>
-  </si>
-  <si>
-    <t>Item46</t>
-  </si>
-  <si>
-    <t>Item47</t>
-  </si>
-  <si>
-    <t>Item48</t>
-  </si>
-  <si>
-    <t>Item49</t>
-  </si>
-  <si>
-    <t>Item50</t>
-  </si>
-  <si>
-    <t>Item51</t>
-  </si>
-  <si>
-    <t>Item52</t>
-  </si>
-  <si>
-    <t>Item53</t>
-  </si>
-  <si>
-    <t>Item54</t>
-  </si>
-  <si>
-    <t>Item55</t>
-  </si>
-  <si>
-    <t>Item56</t>
-  </si>
-  <si>
-    <t>Item57</t>
-  </si>
-  <si>
-    <t>Item58</t>
-  </si>
-  <si>
-    <t>Item59</t>
-  </si>
-  <si>
-    <t>Item60</t>
-  </si>
-  <si>
-    <t>Item61</t>
-  </si>
-  <si>
-    <t>Item62</t>
-  </si>
-  <si>
-    <t>Item63</t>
-  </si>
-  <si>
-    <t>Item64</t>
-  </si>
-  <si>
-    <t>Item65</t>
-  </si>
-  <si>
-    <t>Item66</t>
-  </si>
-  <si>
-    <t>Item67</t>
-  </si>
-  <si>
-    <t>Item68</t>
-  </si>
-  <si>
-    <t>Item69</t>
-  </si>
-  <si>
-    <t>Item70</t>
-  </si>
-  <si>
-    <t>Item71</t>
-  </si>
-  <si>
-    <t>Item72</t>
-  </si>
-  <si>
-    <t>Item73</t>
-  </si>
-  <si>
-    <t>Item74</t>
-  </si>
-  <si>
-    <t>Item75</t>
-  </si>
-  <si>
-    <t>Item76</t>
-  </si>
-  <si>
-    <t>Item77</t>
-  </si>
-  <si>
     <t>ItemImage</t>
   </si>
   <si>
@@ -2677,144 +2452,6 @@
     <t>SKU030</t>
   </si>
   <si>
-    <t>SKU031</t>
-  </si>
-  <si>
-    <t>SKU032</t>
-  </si>
-  <si>
-    <t>SKU033</t>
-  </si>
-  <si>
-    <t>SKU034</t>
-  </si>
-  <si>
-    <t>SKU035</t>
-  </si>
-  <si>
-    <t>SKU036</t>
-  </si>
-  <si>
-    <t>SKU037</t>
-  </si>
-  <si>
-    <t>SKU038</t>
-  </si>
-  <si>
-    <t>SKU039</t>
-  </si>
-  <si>
-    <t>SKU040</t>
-  </si>
-  <si>
-    <t>SKU041</t>
-  </si>
-  <si>
-    <t>SKU042</t>
-  </si>
-  <si>
-    <t>SKU043</t>
-  </si>
-  <si>
-    <t>SKU044</t>
-  </si>
-  <si>
-    <t>SKU045</t>
-  </si>
-  <si>
-    <t>SKU046</t>
-  </si>
-  <si>
-    <t>SKU047</t>
-  </si>
-  <si>
-    <t>SKU048</t>
-  </si>
-  <si>
-    <t>SKU049</t>
-  </si>
-  <si>
-    <t>SKU050</t>
-  </si>
-  <si>
-    <t>SKU051</t>
-  </si>
-  <si>
-    <t>SKU052</t>
-  </si>
-  <si>
-    <t>SKU053</t>
-  </si>
-  <si>
-    <t>SKU054</t>
-  </si>
-  <si>
-    <t>SKU055</t>
-  </si>
-  <si>
-    <t>SKU056</t>
-  </si>
-  <si>
-    <t>SKU057</t>
-  </si>
-  <si>
-    <t>SKU058</t>
-  </si>
-  <si>
-    <t>SKU059</t>
-  </si>
-  <si>
-    <t>SKU060</t>
-  </si>
-  <si>
-    <t>SKU061</t>
-  </si>
-  <si>
-    <t>SKU062</t>
-  </si>
-  <si>
-    <t>SKU063</t>
-  </si>
-  <si>
-    <t>SKU064</t>
-  </si>
-  <si>
-    <t>SKU065</t>
-  </si>
-  <si>
-    <t>SKU066</t>
-  </si>
-  <si>
-    <t>SKU067</t>
-  </si>
-  <si>
-    <t>SKU068</t>
-  </si>
-  <si>
-    <t>SKU069</t>
-  </si>
-  <si>
-    <t>SKU070</t>
-  </si>
-  <si>
-    <t>SKU071</t>
-  </si>
-  <si>
-    <t>SKU072</t>
-  </si>
-  <si>
-    <t>SKU073</t>
-  </si>
-  <si>
-    <t>SKU074</t>
-  </si>
-  <si>
-    <t>SKU075</t>
-  </si>
-  <si>
-    <t>SKU076</t>
-  </si>
-  <si>
     <t>SKU077</t>
   </si>
   <si>
@@ -2917,144 +2554,9 @@
     <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item32.jpg</t>
   </si>
   <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item33.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item34.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item35.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item36.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item37.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item38.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item39.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item40.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item41.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item42.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item43.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item45.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item46.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item47.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item48.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item49.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item50.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item51.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item52.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item53.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item54.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item55.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item56.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item57.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item58.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item59.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item60.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item61.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item62.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item63.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item64.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item65.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item66.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item67.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item68.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item69.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item70.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item71.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item72.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item73.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item74.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item75.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item76.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item77.jpg</t>
-  </si>
-  <si>
     <t>ITEM FOR EDIT</t>
   </si>
   <si>
-    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item78.jpg</t>
-  </si>
-  <si>
     <t>SKU078</t>
   </si>
   <si>
@@ -3625,28 +3127,112 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Variant Option</t>
-  </si>
-  <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
     <t>Delivery Method</t>
   </si>
   <si>
     <t>both</t>
   </si>
   <si>
-    <t>ItemNoVariants</t>
-  </si>
-  <si>
-    <t>ItemWithVariants</t>
+    <t>Item_01</t>
+  </si>
+  <si>
+    <t>Item_02</t>
+  </si>
+  <si>
+    <t>Item_03</t>
+  </si>
+  <si>
+    <t>Item_04</t>
+  </si>
+  <si>
+    <t>Item_05</t>
+  </si>
+  <si>
+    <t>Item_06</t>
+  </si>
+  <si>
+    <t>Item_07</t>
+  </si>
+  <si>
+    <t>Item_08</t>
+  </si>
+  <si>
+    <t>Item_09</t>
+  </si>
+  <si>
+    <t>Item_10</t>
+  </si>
+  <si>
+    <t>Item_11</t>
+  </si>
+  <si>
+    <t>Item_12</t>
+  </si>
+  <si>
+    <t>Item_13</t>
+  </si>
+  <si>
+    <t>Item_14</t>
+  </si>
+  <si>
+    <t>Item_15</t>
+  </si>
+  <si>
+    <t>Item_16</t>
+  </si>
+  <si>
+    <t>Item_17</t>
+  </si>
+  <si>
+    <t>Item_18</t>
+  </si>
+  <si>
+    <t>Item_19</t>
+  </si>
+  <si>
+    <t>Item_20</t>
+  </si>
+  <si>
+    <t>Item_21</t>
+  </si>
+  <si>
+    <t>Item_22</t>
+  </si>
+  <si>
+    <t>Item_23</t>
+  </si>
+  <si>
+    <t>Item_24</t>
+  </si>
+  <si>
+    <t>Item_25</t>
+  </si>
+  <si>
+    <t>Item_26</t>
+  </si>
+  <si>
+    <t>Item_27</t>
+  </si>
+  <si>
+    <t>Item_28</t>
+  </si>
+  <si>
+    <t>Item_29</t>
+  </si>
+  <si>
+    <t>Item_30</t>
+  </si>
+  <si>
+    <t>Item_31</t>
+  </si>
+  <si>
+    <t>Variant Image</t>
+  </si>
+  <si>
+    <t>with image</t>
+  </si>
+  <si>
+    <t>without image</t>
   </si>
 </sst>
 </file>
@@ -6235,7 +5821,7 @@
         <v>741</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>1191</v>
+        <v>1025</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>123</v>
@@ -6252,7 +5838,7 @@
         <v>742</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1178</v>
+        <v>1012</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>744</v>
@@ -6269,7 +5855,7 @@
         <v>742</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1179</v>
+        <v>1013</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>744</v>
@@ -6286,7 +5872,7 @@
         <v>742</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1180</v>
+        <v>1014</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>745</v>
@@ -6303,7 +5889,7 @@
         <v>742</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1181</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>127</v>
@@ -6320,7 +5906,7 @@
         <v>742</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1182</v>
+        <v>1016</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>744</v>
@@ -6337,7 +5923,7 @@
         <v>742</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1183</v>
+        <v>1017</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>744</v>
@@ -6354,7 +5940,7 @@
         <v>742</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1184</v>
+        <v>1018</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>745</v>
@@ -6371,7 +5957,7 @@
         <v>742</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1185</v>
+        <v>1019</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>127</v>
@@ -6388,7 +5974,7 @@
         <v>742</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1186</v>
+        <v>1020</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>744</v>
@@ -6405,7 +5991,7 @@
         <v>742</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1187</v>
+        <v>1021</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>744</v>
@@ -6422,7 +6008,7 @@
         <v>742</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1188</v>
+        <v>1022</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>745</v>
@@ -6439,7 +6025,7 @@
         <v>742</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1189</v>
+        <v>1023</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>127</v>
@@ -6456,7 +6042,7 @@
         <v>742</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>1190</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>751</v>
@@ -6538,7 +6124,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>1087</v>
+        <v>921</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>137</v>
@@ -6559,7 +6145,7 @@
         <v>141</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>1084</v>
+        <v>918</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>142</v>
@@ -6585,10 +6171,10 @@
     </row>
     <row r="2" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>1155</v>
+        <v>989</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>148</v>
@@ -6600,7 +6186,7 @@
         <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1041</v>
+        <v>875</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>568</v>
@@ -6632,10 +6218,10 @@
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>1156</v>
+        <v>990</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1134</v>
+        <v>968</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>155</v>
@@ -6647,7 +6233,7 @@
         <v>157</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1042</v>
+        <v>876</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>576</v>
@@ -6679,10 +6265,10 @@
     </row>
     <row r="4" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>1157</v>
+        <v>991</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1135</v>
+        <v>969</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>160</v>
@@ -6694,7 +6280,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1043</v>
+        <v>877</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>569</v>
@@ -6724,10 +6310,10 @@
     </row>
     <row r="5" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>1158</v>
+        <v>992</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1136</v>
+        <v>970</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>165</v>
@@ -6739,7 +6325,7 @@
         <v>167</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1044</v>
+        <v>878</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>570</v>
@@ -6771,10 +6357,10 @@
     </row>
     <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>1159</v>
+        <v>993</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1137</v>
+        <v>971</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>172</v>
@@ -6786,7 +6372,7 @@
         <v>174</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1045</v>
+        <v>879</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>571</v>
@@ -6818,10 +6404,10 @@
     </row>
     <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>1160</v>
+        <v>994</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1138</v>
+        <v>972</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>179</v>
@@ -6833,7 +6419,7 @@
         <v>181</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1046</v>
+        <v>880</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>572</v>
@@ -6865,10 +6451,10 @@
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>1161</v>
+        <v>995</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1139</v>
+        <v>973</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>185</v>
@@ -6880,7 +6466,7 @@
         <v>187</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1047</v>
+        <v>881</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>573</v>
@@ -6912,10 +6498,10 @@
     </row>
     <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>1162</v>
+        <v>996</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1140</v>
+        <v>974</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>190</v>
@@ -6927,7 +6513,7 @@
         <v>192</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1048</v>
+        <v>882</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>574</v>
@@ -6959,10 +6545,10 @@
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>1163</v>
+        <v>997</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1141</v>
+        <v>975</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>195</v>
@@ -6974,7 +6560,7 @@
         <v>197</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1049</v>
+        <v>883</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>575</v>
@@ -7006,10 +6592,10 @@
     </row>
     <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>1164</v>
+        <v>998</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1142</v>
+        <v>976</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>199</v>
@@ -7021,7 +6607,7 @@
         <v>201</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1050</v>
+        <v>884</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>577</v>
@@ -7053,10 +6639,10 @@
     </row>
     <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>1165</v>
+        <v>999</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1143</v>
+        <v>977</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>204</v>
@@ -7068,7 +6654,7 @@
         <v>206</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1051</v>
+        <v>885</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>578</v>
@@ -7100,10 +6686,10 @@
     </row>
     <row r="13" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>1166</v>
+        <v>1000</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1144</v>
+        <v>978</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>209</v>
@@ -7115,7 +6701,7 @@
         <v>211</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1052</v>
+        <v>886</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>579</v>
@@ -7147,10 +6733,10 @@
     </row>
     <row r="14" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>1167</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1145</v>
+        <v>979</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>214</v>
@@ -7162,7 +6748,7 @@
         <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1053</v>
+        <v>887</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>580</v>
@@ -7194,10 +6780,10 @@
     </row>
     <row r="15" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>1168</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1146</v>
+        <v>980</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>219</v>
@@ -7209,7 +6795,7 @@
         <v>221</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1054</v>
+        <v>888</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>581</v>
@@ -7241,10 +6827,10 @@
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>1169</v>
+        <v>1003</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1147</v>
+        <v>981</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>225</v>
@@ -7256,7 +6842,7 @@
         <v>227</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1055</v>
+        <v>889</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>582</v>
@@ -7288,10 +6874,10 @@
     </row>
     <row r="17" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>1170</v>
+        <v>1004</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1148</v>
+        <v>982</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>230</v>
@@ -7303,7 +6889,7 @@
         <v>232</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1056</v>
+        <v>890</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>583</v>
@@ -7335,10 +6921,10 @@
     </row>
     <row r="18" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>1171</v>
+        <v>1005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1149</v>
+        <v>983</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>235</v>
@@ -7350,7 +6936,7 @@
         <v>237</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1057</v>
+        <v>891</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>584</v>
@@ -7382,10 +6968,10 @@
     </row>
     <row r="19" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>1172</v>
+        <v>1006</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1150</v>
+        <v>984</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>240</v>
@@ -7397,7 +6983,7 @@
         <v>242</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1058</v>
+        <v>892</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>585</v>
@@ -7427,10 +7013,10 @@
     </row>
     <row r="20" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>1173</v>
+        <v>1007</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1151</v>
+        <v>985</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>244</v>
@@ -7442,7 +7028,7 @@
         <v>246</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1059</v>
+        <v>893</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>586</v>
@@ -7472,10 +7058,10 @@
     </row>
     <row r="21" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>1174</v>
+        <v>1008</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1152</v>
+        <v>986</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>251</v>
@@ -7487,7 +7073,7 @@
         <v>253</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1060</v>
+        <v>894</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>587</v>
@@ -7517,10 +7103,10 @@
     </row>
     <row r="22" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>1175</v>
+        <v>1009</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1153</v>
+        <v>987</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>256</v>
@@ -7532,7 +7118,7 @@
         <v>258</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1061</v>
+        <v>895</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>588</v>
@@ -7562,10 +7148,10 @@
     </row>
     <row r="23" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>1176</v>
+        <v>1010</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1154</v>
+        <v>988</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>262</v>
@@ -7577,7 +7163,7 @@
         <v>264</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>1086</v>
+        <v>920</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>589</v>
@@ -7607,13 +7193,13 @@
     </row>
     <row r="24" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>1177</v>
+        <v>1011</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1006</v>
+        <v>840</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1007</v>
+        <v>841</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>263</v>
@@ -7622,7 +7208,7 @@
         <v>264</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>1085</v>
+        <v>919</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>589</v>
@@ -7686,7 +7272,7 @@
         <v>566</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1087</v>
+        <v>921</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>567</v>
@@ -7718,10 +7304,10 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>1111</v>
+        <v>945</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1088</v>
+        <v>922</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>268</v>
@@ -7730,7 +7316,7 @@
         <v>269</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1062</v>
+        <v>896</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>590</v>
@@ -7753,10 +7339,10 @@
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1112</v>
+        <v>946</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1089</v>
+        <v>923</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>270</v>
@@ -7765,7 +7351,7 @@
         <v>271</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1063</v>
+        <v>897</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>591</v>
@@ -7788,10 +7374,10 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1113</v>
+        <v>947</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1090</v>
+        <v>924</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>272</v>
@@ -7800,7 +7386,7 @@
         <v>273</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1064</v>
+        <v>898</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>592</v>
@@ -7823,10 +7409,10 @@
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>1114</v>
+        <v>948</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1091</v>
+        <v>925</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>274</v>
@@ -7835,7 +7421,7 @@
         <v>275</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1065</v>
+        <v>899</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>593</v>
@@ -7858,10 +7444,10 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>1115</v>
+        <v>949</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1092</v>
+        <v>926</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>276</v>
@@ -7870,7 +7456,7 @@
         <v>277</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1066</v>
+        <v>900</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>594</v>
@@ -7893,10 +7479,10 @@
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>1116</v>
+        <v>950</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1093</v>
+        <v>927</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>281</v>
@@ -7905,7 +7491,7 @@
         <v>282</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1067</v>
+        <v>901</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>595</v>
@@ -7928,10 +7514,10 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>1117</v>
+        <v>951</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1094</v>
+        <v>928</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>286</v>
@@ -7940,7 +7526,7 @@
         <v>287</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1068</v>
+        <v>902</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>596</v>
@@ -7963,10 +7549,10 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1118</v>
+        <v>952</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1095</v>
+        <v>929</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>288</v>
@@ -7975,7 +7561,7 @@
         <v>289</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1069</v>
+        <v>903</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>597</v>
@@ -7998,10 +7584,10 @@
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>1119</v>
+        <v>953</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1096</v>
+        <v>930</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>290</v>
@@ -8010,7 +7596,7 @@
         <v>291</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1070</v>
+        <v>904</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>598</v>
@@ -8033,10 +7619,10 @@
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>1120</v>
+        <v>954</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1097</v>
+        <v>931</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>292</v>
@@ -8045,7 +7631,7 @@
         <v>293</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1071</v>
+        <v>905</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>599</v>
@@ -8068,10 +7654,10 @@
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>1121</v>
+        <v>955</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1098</v>
+        <v>932</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>294</v>
@@ -8080,7 +7666,7 @@
         <v>295</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1072</v>
+        <v>906</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>600</v>
@@ -8103,10 +7689,10 @@
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>1122</v>
+        <v>956</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1099</v>
+        <v>933</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>296</v>
@@ -8115,7 +7701,7 @@
         <v>297</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1073</v>
+        <v>907</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>601</v>
@@ -8138,10 +7724,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>1123</v>
+        <v>957</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1100</v>
+        <v>934</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>298</v>
@@ -8150,7 +7736,7 @@
         <v>299</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1074</v>
+        <v>908</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>602</v>
@@ -8173,10 +7759,10 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>1124</v>
+        <v>958</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1101</v>
+        <v>935</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>300</v>
@@ -8185,7 +7771,7 @@
         <v>301</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1075</v>
+        <v>909</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>603</v>
@@ -8208,10 +7794,10 @@
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>1125</v>
+        <v>959</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1102</v>
+        <v>936</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>302</v>
@@ -8220,7 +7806,7 @@
         <v>303</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1076</v>
+        <v>910</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>604</v>
@@ -8243,10 +7829,10 @@
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>1126</v>
+        <v>960</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1103</v>
+        <v>937</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>304</v>
@@ -8255,7 +7841,7 @@
         <v>305</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1077</v>
+        <v>911</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>605</v>
@@ -8278,10 +7864,10 @@
     </row>
     <row r="18" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>1127</v>
+        <v>961</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1104</v>
+        <v>938</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>306</v>
@@ -8290,7 +7876,7 @@
         <v>307</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1078</v>
+        <v>912</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>606</v>
@@ -8313,10 +7899,10 @@
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>1128</v>
+        <v>962</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1105</v>
+        <v>939</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>308</v>
@@ -8325,7 +7911,7 @@
         <v>309</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1079</v>
+        <v>913</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>607</v>
@@ -8348,10 +7934,10 @@
     </row>
     <row r="20" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>1129</v>
+        <v>963</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1106</v>
+        <v>940</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>310</v>
@@ -8360,7 +7946,7 @@
         <v>311</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1080</v>
+        <v>914</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>608</v>
@@ -8383,10 +7969,10 @@
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>1130</v>
+        <v>964</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1107</v>
+        <v>941</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>313</v>
@@ -8395,7 +7981,7 @@
         <v>314</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1081</v>
+        <v>915</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>609</v>
@@ -8418,10 +8004,10 @@
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>1131</v>
+        <v>965</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>1108</v>
+        <v>942</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>315</v>
@@ -8430,7 +8016,7 @@
         <v>316</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1082</v>
+        <v>916</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>610</v>
@@ -8456,7 +8042,7 @@
         <v>317</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1109</v>
+        <v>943</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>318</v>
@@ -8465,7 +8051,7 @@
         <v>319</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1083</v>
+        <v>917</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>611</v>
@@ -8488,10 +8074,10 @@
     </row>
     <row r="24" spans="1:11" s="5" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>1008</v>
+        <v>842</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1110</v>
+        <v>944</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>318</v>
@@ -8500,7 +8086,7 @@
         <v>319</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>1132</v>
+        <v>966</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>611</v>
@@ -11804,7 +11390,7 @@
         <v>322</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>1192</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -12025,10 +11611,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12038,7 +11624,10 @@
     <col min="3" max="3" width="76.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12050,2402 +11639,1024 @@
         <v>755</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>831</v>
+        <v>756</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>1193</v>
+        <v>1027</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>752</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>841</v>
+        <v>766</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>1195</v>
+        <v>1062</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>1194</v>
+        <v>1028</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>1199</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1201</v>
+      <c r="A2" s="2" t="s">
+        <v>1031</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>842</v>
+        <v>767</v>
       </c>
       <c r="C2" t="s">
-        <v>848</v>
+        <v>773</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>832</v>
+        <v>757</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F2" s="8">
-        <v>14.25</v>
+        <v>100</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="2">
-        <v>6</v>
+        <v>774</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1202</v>
+      <c r="A3" s="2" t="s">
+        <v>1032</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>843</v>
+        <v>768</v>
       </c>
       <c r="C3" t="s">
-        <v>928</v>
+        <v>807</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>833</v>
+        <v>758</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10.25</v>
+        <v>805</v>
+      </c>
+      <c r="F3" s="8">
+        <v>150.5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6</v>
+        <v>775</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>742</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>756</v>
+      <c r="A4" s="2" t="s">
+        <v>1033</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="C4" t="s">
-        <v>929</v>
+        <v>808</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>834</v>
+        <v>759</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F4" s="8">
-        <v>14</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>776</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1064</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>847</v>
+        <v>772</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>757</v>
+      <c r="A5" s="2" t="s">
+        <v>1034</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>845</v>
+        <v>770</v>
       </c>
       <c r="C5" t="s">
-        <v>930</v>
+        <v>809</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>835</v>
+        <v>760</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F5" s="8">
-        <v>17</v>
+        <v>2100.5</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>777</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1064</v>
+      </c>
       <c r="I5" s="2" t="s">
-        <v>847</v>
+        <v>772</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>742</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>758</v>
+      <c r="A6" s="2" t="s">
+        <v>1035</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>846</v>
+        <v>771</v>
       </c>
       <c r="C6" t="s">
-        <v>931</v>
+        <v>810</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>836</v>
+        <v>761</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F6" s="8">
-        <v>14.25</v>
+        <v>30000</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>778</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1064</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>847</v>
+        <v>772</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>759</v>
+      <c r="A7" s="2" t="s">
+        <v>1036</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>842</v>
+        <v>767</v>
       </c>
       <c r="C7" t="s">
-        <v>932</v>
+        <v>811</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>837</v>
+        <v>762</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F7" s="8">
-        <v>14.25</v>
+        <v>31000.134999999998</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>779</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1064</v>
+      </c>
       <c r="I7" s="2" t="s">
-        <v>847</v>
+        <v>772</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>742</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>760</v>
+      <c r="A8" s="2" t="s">
+        <v>1037</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>843</v>
+        <v>768</v>
       </c>
       <c r="C8" t="s">
-        <v>933</v>
+        <v>812</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>838</v>
+        <v>763</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10.25</v>
+        <v>805</v>
+      </c>
+      <c r="F8" s="8">
+        <v>350000.054</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>847</v>
+        <v>780</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I8" s="8">
+        <v>10</v>
       </c>
       <c r="J8" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>761</v>
+      <c r="A9" s="2" t="s">
+        <v>1038</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="C9" t="s">
-        <v>934</v>
+        <v>813</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>839</v>
+        <v>764</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F9" s="8">
-        <v>14</v>
+        <v>5510.5</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="2" t="s">
-        <v>847</v>
+        <v>781</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I9" s="8">
+        <v>10</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>742</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>762</v>
+      <c r="A10" s="2" t="s">
+        <v>1039</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>845</v>
+        <v>770</v>
       </c>
       <c r="C10" t="s">
-        <v>935</v>
+        <v>814</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>840</v>
+        <v>765</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F10" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="2" t="s">
-        <v>847</v>
+        <v>782</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I10" s="8">
+        <v>10</v>
       </c>
       <c r="J10" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>763</v>
+      <c r="A11" s="2" t="s">
+        <v>1040</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>846</v>
+        <v>771</v>
       </c>
       <c r="C11" t="s">
-        <v>936</v>
+        <v>815</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>631</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F11" s="8">
-        <v>14.25</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="2" t="s">
-        <v>847</v>
+        <v>783</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I11" s="8">
+        <v>10</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>742</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>764</v>
+      <c r="A12" s="2" t="s">
+        <v>1041</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>842</v>
+        <v>767</v>
       </c>
       <c r="C12" t="s">
-        <v>937</v>
+        <v>816</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>632</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F12" s="8">
-        <v>14.25</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="2" t="s">
-        <v>847</v>
+        <v>784</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I12" s="8">
+        <v>10</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>765</v>
+      <c r="A13" s="2" t="s">
+        <v>1042</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>843</v>
+        <v>768</v>
       </c>
       <c r="C13" t="s">
-        <v>938</v>
+        <v>817</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>633</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F13" s="2">
-        <v>10.25</v>
+        <v>805</v>
+      </c>
+      <c r="F13" s="8">
+        <v>640.5</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>847</v>
+        <v>785</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I13" s="8">
+        <v>10</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>742</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>766</v>
+      <c r="A14" s="2" t="s">
+        <v>1043</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="C14" t="s">
-        <v>939</v>
+        <v>818</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>634</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F14" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="2" t="s">
-        <v>847</v>
+        <v>786</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>767</v>
+      <c r="A15" s="2" t="s">
+        <v>1044</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>845</v>
+        <v>770</v>
       </c>
       <c r="C15" t="s">
-        <v>940</v>
+        <v>819</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>635</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F15" s="8">
-        <v>17</v>
+        <v>150.5</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="2" t="s">
-        <v>847</v>
+        <v>787</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>742</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>768</v>
+      <c r="A16" s="2" t="s">
+        <v>1045</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>846</v>
+        <v>771</v>
       </c>
       <c r="C16" t="s">
-        <v>941</v>
+        <v>820</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>636</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F16" s="8">
-        <v>14.25</v>
+        <v>2000</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="2" t="s">
-        <v>847</v>
+        <v>788</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
       </c>
       <c r="J16" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>769</v>
+      <c r="A17" s="2" t="s">
+        <v>1046</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>842</v>
+        <v>767</v>
       </c>
       <c r="C17" t="s">
-        <v>942</v>
+        <v>821</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>637</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="F17" s="8">
-        <v>14.25</v>
+        <v>2100.5</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="2" t="s">
-        <v>847</v>
+        <v>789</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>742</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>770</v>
+      <c r="A18" s="2" t="s">
+        <v>1047</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>843</v>
+        <v>768</v>
       </c>
       <c r="C18" t="s">
-        <v>943</v>
+        <v>822</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>638</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F18" s="2">
-        <v>10.25</v>
+        <v>805</v>
+      </c>
+      <c r="F18" s="8">
+        <v>30000</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>847</v>
+        <v>790</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>771</v>
+      <c r="A19" s="2" t="s">
+        <v>1048</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="C19" t="s">
-        <v>944</v>
+        <v>823</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>639</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F19" s="8">
-        <v>14</v>
+        <v>31000.134999999998</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="2" t="s">
-        <v>847</v>
+        <v>791</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>772</v>
+      <c r="A20" s="2" t="s">
+        <v>1049</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>845</v>
+        <v>770</v>
       </c>
       <c r="C20" t="s">
-        <v>945</v>
+        <v>824</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>640</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F20" s="8">
-        <v>17</v>
+        <v>350000.054</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8">
-        <v>1000</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I20" s="8"/>
       <c r="J20" s="37" t="s">
-        <v>743</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>773</v>
+      <c r="A21" s="2" t="s">
+        <v>1050</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>846</v>
+        <v>771</v>
       </c>
       <c r="C21" t="s">
-        <v>946</v>
+        <v>825</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>641</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F21" s="8">
-        <v>14.25</v>
+        <v>5510.5</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8">
-        <v>1000</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I21" s="8"/>
       <c r="J21" s="37" t="s">
-        <v>1200</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>774</v>
+      <c r="A22" s="2" t="s">
+        <v>1051</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>842</v>
+        <v>767</v>
       </c>
       <c r="C22" t="s">
-        <v>947</v>
+        <v>826</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>642</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F22" s="8">
-        <v>14.25</v>
+        <v>10</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="2" t="s">
-        <v>847</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>775</v>
+      <c r="A23" s="2" t="s">
+        <v>1052</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>843</v>
+        <v>768</v>
       </c>
       <c r="C23" t="s">
-        <v>948</v>
+        <v>827</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>643</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F23" s="2">
-        <v>10.25</v>
+        <v>806</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1000</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I23" s="8"/>
       <c r="J23" s="37" t="s">
-        <v>1200</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>776</v>
+      <c r="A24" s="2" t="s">
+        <v>1053</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="C24" t="s">
-        <v>949</v>
+        <v>828</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>644</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F24" s="8">
-        <v>14</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="2" t="s">
-        <v>847</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>777</v>
+      <c r="A25" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>845</v>
+        <v>770</v>
       </c>
       <c r="C25" t="s">
-        <v>950</v>
+        <v>829</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F25" s="8">
-        <v>17</v>
+        <v>640.5</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8">
-        <v>1000</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I25" s="8"/>
       <c r="J25" s="37" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>778</v>
+      <c r="A26" s="2" t="s">
+        <v>1055</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>846</v>
+        <v>771</v>
       </c>
       <c r="C26" t="s">
-        <v>951</v>
+        <v>830</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>646</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F26" s="8">
-        <v>14.25</v>
+        <v>100</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8">
-        <v>1000</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I26" s="8"/>
       <c r="J26" s="37" t="s">
-        <v>1200</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>779</v>
+      <c r="A27" s="2" t="s">
+        <v>1056</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>842</v>
+        <v>767</v>
       </c>
       <c r="C27" t="s">
-        <v>952</v>
+        <v>831</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>647</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F27" s="8">
-        <v>14.25</v>
+        <v>150.5</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>874</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="2" t="s">
-        <v>847</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>780</v>
+      <c r="A28" s="2" t="s">
+        <v>1057</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>843</v>
+        <v>768</v>
       </c>
       <c r="C28" t="s">
-        <v>953</v>
+        <v>832</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F28" s="2">
-        <v>10.25</v>
+        <v>806</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2000</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1000</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I28" s="8"/>
       <c r="J28" s="37" t="s">
-        <v>1200</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>781</v>
+      <c r="A29" s="2" t="s">
+        <v>1058</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="C29" t="s">
-        <v>954</v>
+        <v>833</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>649</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F29" s="8">
-        <v>14</v>
+        <v>2100.5</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="2" t="s">
-        <v>847</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="37" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>782</v>
+      <c r="A30" s="2" t="s">
+        <v>1059</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>845</v>
+        <v>770</v>
       </c>
       <c r="C30" t="s">
-        <v>955</v>
+        <v>834</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>650</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F30" s="8">
-        <v>17</v>
+        <v>30000</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8">
-        <v>1000</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I30" s="8"/>
       <c r="J30" s="37" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>783</v>
+      <c r="A31" s="2" t="s">
+        <v>1060</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>846</v>
+        <v>771</v>
       </c>
       <c r="C31" t="s">
-        <v>956</v>
+        <v>835</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>651</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F31" s="8">
-        <v>14.25</v>
+        <v>31000.134999999998</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8">
-        <v>1000</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I31" s="8"/>
       <c r="J31" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>784</v>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>1061</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>842</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>957</v>
+        <v>836</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>652</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
       <c r="F32" s="8">
-        <v>14.25</v>
+        <v>100</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="2" t="s">
-        <v>847</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>785</v>
+        <v>838</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>843</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>958</v>
+        <v>837</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>653</v>
+        <v>838</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F33" s="2">
-        <v>10.25</v>
+        <v>806</v>
+      </c>
+      <c r="F33" s="8">
+        <v>150.5</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I33" s="8">
-        <v>1000</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C34" t="s">
-        <v>959</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F34" s="8">
-        <v>14</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C35" t="s">
-        <v>960</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F35" s="8">
-        <v>17</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C36" t="s">
-        <v>961</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F36" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C37" t="s">
-        <v>962</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F37" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C38" t="s">
-        <v>963</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F38" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C39" t="s">
-        <v>964</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F39" s="8">
-        <v>14</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C40" t="s">
-        <v>965</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F40" s="8">
-        <v>17</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C41" t="s">
-        <v>966</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F41" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C42" t="s">
-        <v>967</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F42" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C43" t="s">
-        <v>968</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F43" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C44" t="s">
-        <v>969</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F44" s="8">
-        <v>14</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C45" t="s">
-        <v>930</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F45" s="8">
-        <v>17</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C46" t="s">
-        <v>970</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F46" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C47" t="s">
-        <v>971</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F47" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J47" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C48" t="s">
-        <v>972</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F48" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C49" t="s">
-        <v>973</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F49" s="8">
-        <v>14</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C50" t="s">
-        <v>974</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F50" s="8">
-        <v>17</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C51" t="s">
-        <v>975</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F51" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C52" t="s">
-        <v>976</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F52" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C53" t="s">
-        <v>977</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F53" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C54" t="s">
-        <v>978</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F54" s="8">
-        <v>14</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C55" t="s">
-        <v>979</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F55" s="8">
-        <v>17</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C56" t="s">
-        <v>980</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F56" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J56" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C57" t="s">
-        <v>981</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F57" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J57" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C58" t="s">
-        <v>982</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F58" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C59" t="s">
-        <v>983</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F59" s="8">
-        <v>14</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C60" t="s">
-        <v>984</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F60" s="8">
-        <v>17</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C61" t="s">
-        <v>985</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F61" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J61" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C62" t="s">
-        <v>986</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F62" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J62" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C63" t="s">
-        <v>987</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F63" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C64" t="s">
-        <v>988</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F64" s="8">
-        <v>14</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C65" t="s">
-        <v>989</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F65" s="8">
-        <v>17</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C66" t="s">
-        <v>990</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F66" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C67" t="s">
-        <v>991</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F67" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C68" t="s">
-        <v>992</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F68" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C69" t="s">
-        <v>993</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F69" s="8">
-        <v>14</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C70" t="s">
-        <v>994</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F70" s="8">
-        <v>17</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C71" t="s">
-        <v>995</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F71" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C72" t="s">
-        <v>996</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F72" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C73" t="s">
-        <v>997</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F73" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
-      </c>
-      <c r="J73" s="37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C74" t="s">
-        <v>998</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F74" s="8">
-        <v>15</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C75" t="s">
-        <v>999</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F75" s="8">
-        <v>15</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J75" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F76" s="8">
-        <v>15</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>923</v>
-      </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J76" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="F77" s="8">
-        <v>15</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J77" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F78" s="8">
-        <v>15</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J78" s="37" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F79" s="8">
-        <v>15</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J79" s="37" t="s">
-        <v>1200</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -14488,111 +12699,111 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1009</v>
+        <v>843</v>
       </c>
       <c r="B1" t="s">
-        <v>1010</v>
+        <v>844</v>
       </c>
       <c r="C1" t="s">
-        <v>1011</v>
+        <v>845</v>
       </c>
       <c r="D1" t="s">
-        <v>1012</v>
+        <v>846</v>
       </c>
       <c r="E1" t="s">
-        <v>1013</v>
+        <v>847</v>
       </c>
       <c r="F1" t="s">
-        <v>1014</v>
+        <v>848</v>
       </c>
       <c r="G1" t="s">
-        <v>1015</v>
+        <v>849</v>
       </c>
       <c r="H1" t="s">
         <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>1016</v>
+        <v>850</v>
       </c>
       <c r="J1" t="s">
-        <v>1017</v>
+        <v>851</v>
       </c>
       <c r="K1" t="s">
-        <v>1018</v>
+        <v>852</v>
       </c>
       <c r="L1" t="s">
-        <v>1019</v>
+        <v>853</v>
       </c>
       <c r="M1" t="s">
-        <v>1020</v>
+        <v>854</v>
       </c>
       <c r="N1" t="s">
         <v>731</v>
       </c>
       <c r="O1" t="s">
-        <v>1021</v>
+        <v>855</v>
       </c>
       <c r="P1" t="s">
-        <v>1022</v>
+        <v>856</v>
       </c>
       <c r="Q1" t="s">
-        <v>1023</v>
+        <v>857</v>
       </c>
       <c r="R1" t="s">
-        <v>1024</v>
+        <v>858</v>
       </c>
       <c r="S1" t="s">
-        <v>1025</v>
+        <v>859</v>
       </c>
       <c r="T1" t="s">
-        <v>1026</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1027</v>
+        <v>861</v>
       </c>
       <c r="B2" t="s">
-        <v>1028</v>
+        <v>862</v>
       </c>
       <c r="C2" t="s">
-        <v>1029</v>
+        <v>863</v>
       </c>
       <c r="H2" t="s">
-        <v>1030</v>
+        <v>864</v>
       </c>
       <c r="I2" t="s">
-        <v>1031</v>
+        <v>865</v>
       </c>
       <c r="J2" t="s">
-        <v>1032</v>
+        <v>866</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>1038</v>
+        <v>872</v>
       </c>
       <c r="L2" t="s">
-        <v>1029</v>
+        <v>863</v>
       </c>
       <c r="M2" t="s">
-        <v>1033</v>
+        <v>867</v>
       </c>
       <c r="N2" t="s">
-        <v>1034</v>
+        <v>868</v>
       </c>
       <c r="O2" t="s">
-        <v>1039</v>
+        <v>873</v>
       </c>
       <c r="P2" t="s">
-        <v>1040</v>
+        <v>874</v>
       </c>
       <c r="Q2" t="s">
-        <v>1035</v>
+        <v>869</v>
       </c>
       <c r="R2" t="s">
-        <v>1036</v>
+        <v>870</v>
       </c>
       <c r="S2" t="s">
-        <v>1037</v>
+        <v>871</v>
       </c>
       <c r="T2">
         <v>20</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DC4148-8CA7-44E9-873E-C5F4382EAA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E8936-F1A1-4668-BC47-97018ED98E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -5767,8 +5767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7492,7 +7492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" state="visible" r:id="rId2"/>
@@ -2819,25 +2819,7 @@
     <t xml:space="preserve">multiplecategory</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item2.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item2.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Description02</t>
@@ -2855,25 +2837,7 @@
     <t xml:space="preserve">category1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item3.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item3.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Description03</t>
@@ -2888,25 +2852,7 @@
     <t xml:space="preserve">category2.1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item4.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item4.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Description04</t>
@@ -2921,25 +2867,7 @@
     <t xml:space="preserve">category3.1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item5.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item5.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Description05</t>
@@ -2951,25 +2879,7 @@
     <t xml:space="preserve">Item_06</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item6.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item6.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Description06</t>
@@ -2981,25 +2891,7 @@
     <t xml:space="preserve">Item_07</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item7.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item7.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Description07</t>
@@ -3011,25 +2903,7 @@
     <t xml:space="preserve">Item_08</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item8.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item8.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Description08</t>
@@ -3041,25 +2915,7 @@
     <t xml:space="preserve">Item_09</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item9.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item9.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Description09</t>
@@ -3071,25 +2927,7 @@
     <t xml:space="preserve">Item_10</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item10.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item10.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU010</t>
@@ -3098,25 +2936,7 @@
     <t xml:space="preserve">Item_11</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item11.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item11.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU011</t>
@@ -3125,25 +2945,7 @@
     <t xml:space="preserve">Item_12</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item12.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item12.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU012</t>
@@ -3152,25 +2954,7 @@
     <t xml:space="preserve">Item_13</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item13.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item13.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU013</t>
@@ -3179,25 +2963,7 @@
     <t xml:space="preserve">Item_14</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item14.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item14.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU014</t>
@@ -3206,25 +2972,7 @@
     <t xml:space="preserve">Item_15</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item15.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item15.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU015</t>
@@ -3233,25 +2981,7 @@
     <t xml:space="preserve">Item_16</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item16.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item16.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU016</t>
@@ -3260,25 +2990,7 @@
     <t xml:space="preserve">Item_17</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item17.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item17.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU017</t>
@@ -3287,25 +2999,7 @@
     <t xml:space="preserve">Item_18</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item18.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item18.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -3317,25 +3011,7 @@
     <t xml:space="preserve">Item_19</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item19.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item19.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU019</t>
@@ -3347,25 +3023,7 @@
     <t xml:space="preserve">Item_20</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item20.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item20.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU020</t>
@@ -3374,25 +3032,7 @@
     <t xml:space="preserve">Item_21</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item21.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item21.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU021</t>
@@ -3401,25 +3041,7 @@
     <t xml:space="preserve">Item_22</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item22.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item22.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU022</t>
@@ -3428,25 +3050,7 @@
     <t xml:space="preserve">Item_23</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item23.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item23.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU023</t>
@@ -3455,25 +3059,7 @@
     <t xml:space="preserve">Item_24</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item24.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item24.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU024</t>
@@ -3482,25 +3068,7 @@
     <t xml:space="preserve">Item_25</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item25.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item25.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU025</t>
@@ -3509,25 +3077,7 @@
     <t xml:space="preserve">Item_26</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item26.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item26.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU026</t>
@@ -3536,25 +3086,7 @@
     <t xml:space="preserve">Item_27</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item27.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item27.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU027</t>
@@ -3563,25 +3095,7 @@
     <t xml:space="preserve">Item_28</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item28.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item28.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU028</t>
@@ -3590,25 +3104,7 @@
     <t xml:space="preserve">Item_29</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item29.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item29.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU029</t>
@@ -3617,25 +3113,7 @@
     <t xml:space="preserve">Item_30</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item30.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item30.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU030</t>
@@ -3644,25 +3122,7 @@
     <t xml:space="preserve">Item_31</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item31.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item31.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU077</t>
@@ -3671,25 +3131,7 @@
     <t xml:space="preserve">ITEM FOR EDIT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">item32.jpg</t>
-    </r>
+    <t xml:space="preserve">C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item32.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SKU078</t>
@@ -4249,7 +3691,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4271,12 +3713,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4435,7 +3871,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -4444,19 +3880,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4472,15 +3908,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4488,39 +3924,39 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4528,55 +3964,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4584,11 +4020,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4676,7 +4112,7 @@
       <selection pane="topLeft" activeCell="G72" activeCellId="0" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
@@ -5806,85 +5242,85 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Katalon\\BespokeAPI\\Images\\Category\\1.png"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C7" r:id="rId6" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C8" r:id="rId7" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C9" r:id="rId8" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C10" r:id="rId9" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C11" r:id="rId10" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C12" r:id="rId11" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C13" r:id="rId12" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C14" r:id="rId13" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C15" r:id="rId14" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C16" r:id="rId15" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C17" r:id="rId16" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C18" r:id="rId17" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C19" r:id="rId18" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C20" r:id="rId19" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C21" r:id="rId20" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C22" r:id="rId21" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C23" r:id="rId22" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C24" r:id="rId23" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C25" r:id="rId24" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C26" r:id="rId25" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C27" r:id="rId26" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C28" r:id="rId27" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C29" r:id="rId28" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C30" r:id="rId29" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C31" r:id="rId30" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C32" r:id="rId31" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C33" r:id="rId32" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C34" r:id="rId33" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C35" r:id="rId34" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C36" r:id="rId35" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C37" r:id="rId36" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C38" r:id="rId37" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C39" r:id="rId38" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C40" r:id="rId39" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C41" r:id="rId40" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C42" r:id="rId41" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C43" r:id="rId42" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C44" r:id="rId43" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C45" r:id="rId44" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C46" r:id="rId45" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C47" r:id="rId46" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C48" r:id="rId47" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C49" r:id="rId48" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C50" r:id="rId49" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C51" r:id="rId50" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C52" r:id="rId51" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C53" r:id="rId52" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C54" r:id="rId53" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C55" r:id="rId54" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C56" r:id="rId55" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C57" r:id="rId56" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C58" r:id="rId57" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C59" r:id="rId58" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C60" r:id="rId59" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C61" r:id="rId60" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C62" r:id="rId61" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C63" r:id="rId62" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C64" r:id="rId63" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C65" r:id="rId64" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C66" r:id="rId65" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C67" r:id="rId66" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C68" r:id="rId67" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C69" r:id="rId68" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C70" r:id="rId69" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C71" r:id="rId70" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C72" r:id="rId71" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C73" r:id="rId72" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C74" r:id="rId73" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C75" r:id="rId74" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C76" r:id="rId75" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C77" r:id="rId76" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C78" r:id="rId77" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C79" r:id="rId78" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C80" r:id="rId79" display="\\Katalon\\BespokeAPI\\Images\\"/>
+    <hyperlink ref="C2" r:id="rId1" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\1.png"/>
+    <hyperlink ref="C3" r:id="rId2" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\2.png"/>
+    <hyperlink ref="C4" r:id="rId3" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\2.png"/>
+    <hyperlink ref="C5" r:id="rId4" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\2.png"/>
+    <hyperlink ref="C6" r:id="rId5" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\3.png"/>
+    <hyperlink ref="C7" r:id="rId6" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\3.png"/>
+    <hyperlink ref="C8" r:id="rId7" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\3.png"/>
+    <hyperlink ref="C9" r:id="rId8" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\3.png"/>
+    <hyperlink ref="C10" r:id="rId9" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\3.png"/>
+    <hyperlink ref="C11" r:id="rId10" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C12" r:id="rId11" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C13" r:id="rId12" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C14" r:id="rId13" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C15" r:id="rId14" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C16" r:id="rId15" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C17" r:id="rId16" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C18" r:id="rId17" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C19" r:id="rId18" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C20" r:id="rId19" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C21" r:id="rId20" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C22" r:id="rId21" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C23" r:id="rId22" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C24" r:id="rId23" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C25" r:id="rId24" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C26" r:id="rId25" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C27" r:id="rId26" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C28" r:id="rId27" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C29" r:id="rId28" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C30" r:id="rId29" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C31" r:id="rId30" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png"/>
+    <hyperlink ref="C32" r:id="rId31" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C33" r:id="rId32" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C34" r:id="rId33" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C35" r:id="rId34" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C36" r:id="rId35" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C37" r:id="rId36" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C38" r:id="rId37" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C39" r:id="rId38" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C40" r:id="rId39" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C41" r:id="rId40" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C42" r:id="rId41" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C43" r:id="rId42" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C44" r:id="rId43" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C45" r:id="rId44" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C46" r:id="rId45" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C47" r:id="rId46" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C48" r:id="rId47" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C49" r:id="rId48" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C50" r:id="rId49" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C51" r:id="rId50" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C52" r:id="rId51" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C53" r:id="rId52" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C54" r:id="rId53" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png"/>
+    <hyperlink ref="C55" r:id="rId54" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C56" r:id="rId55" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C57" r:id="rId56" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C58" r:id="rId57" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C59" r:id="rId58" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C60" r:id="rId59" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C61" r:id="rId60" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C62" r:id="rId61" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C63" r:id="rId62" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png"/>
+    <hyperlink ref="C64" r:id="rId63" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\7.png"/>
+    <hyperlink ref="C65" r:id="rId64" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\8.png"/>
+    <hyperlink ref="C66" r:id="rId65" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\9.png"/>
+    <hyperlink ref="C67" r:id="rId66" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\10.png"/>
+    <hyperlink ref="C68" r:id="rId67" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\11.png"/>
+    <hyperlink ref="C69" r:id="rId68" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\12.png"/>
+    <hyperlink ref="C70" r:id="rId69" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\13.png"/>
+    <hyperlink ref="C71" r:id="rId70" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\14.png"/>
+    <hyperlink ref="C72" r:id="rId71" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\15.png"/>
+    <hyperlink ref="C73" r:id="rId72" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\16.png"/>
+    <hyperlink ref="C74" r:id="rId73" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\17.png"/>
+    <hyperlink ref="C75" r:id="rId74" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\18.png"/>
+    <hyperlink ref="C76" r:id="rId75" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\19.png"/>
+    <hyperlink ref="C77" r:id="rId76" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\20.png"/>
+    <hyperlink ref="C78" r:id="rId77" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\21.png"/>
+    <hyperlink ref="C79" r:id="rId78" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\22.png"/>
+    <hyperlink ref="C80" r:id="rId79" display="C:\\Katalon\\BespokeAPI\\Images\\Category\\23.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5907,14 +5343,14 @@
       <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.99"/>
@@ -6060,24 +5496,24 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C84" activeCellId="0" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9365,12 +8801,12 @@
       <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="20.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="5" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="5" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10240,14 +9676,14 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="46.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="38.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="46.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="7" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="7" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10550,7 +9986,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="62.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.42"/>
@@ -11704,14 +11140,14 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.57"/>
@@ -12582,10 +12018,10 @@
       <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12725,11 +12161,11 @@
       <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.87"/>
   </cols>
@@ -15190,11 +14626,11 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q64" activeCellId="0" sqref="Q64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
@@ -15202,7 +14638,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
         <v>892</v>
       </c>
@@ -16235,12 +15671,12 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.87"/>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E8936-F1A1-4668-BC47-97018ED98E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52B0FE-23F3-4027-ADA1-23973759792A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1016">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -1465,9 +1465,6 @@
     <t>postalCode</t>
   </si>
   <si>
-    <t>Buyer1</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -1480,9 +1477,6 @@
     <t>+63000023</t>
   </si>
   <si>
-    <t>Buyer2</t>
-  </si>
-  <si>
     <t>Stephen</t>
   </si>
   <si>
@@ -1495,9 +1489,6 @@
     <t>+63000024</t>
   </si>
   <si>
-    <t>Buyer3</t>
-  </si>
-  <si>
     <t>Agatha Rose</t>
   </si>
   <si>
@@ -1510,9 +1501,6 @@
     <t>+63000025</t>
   </si>
   <si>
-    <t>Buyer4</t>
-  </si>
-  <si>
     <t>Jane</t>
   </si>
   <si>
@@ -1525,9 +1513,6 @@
     <t>+63000026</t>
   </si>
   <si>
-    <t>Buyer5</t>
-  </si>
-  <si>
     <t>Ernest</t>
   </si>
   <si>
@@ -1549,9 +1534,6 @@
     <t>Shan</t>
   </si>
   <si>
-    <t>Buyer6</t>
-  </si>
-  <si>
     <t>Ayn</t>
   </si>
   <si>
@@ -1573,9 +1555,6 @@
     <t>Rakhine</t>
   </si>
   <si>
-    <t>Buyer7</t>
-  </si>
-  <si>
     <t>Charles</t>
   </si>
   <si>
@@ -1588,9 +1567,6 @@
     <t>+63000029</t>
   </si>
   <si>
-    <t>Buyer8</t>
-  </si>
-  <si>
     <t>Edgar Allan</t>
   </si>
   <si>
@@ -1603,9 +1579,6 @@
     <t>+63000030</t>
   </si>
   <si>
-    <t>Buyer9</t>
-  </si>
-  <si>
     <t>Osamu</t>
   </si>
   <si>
@@ -1618,9 +1591,6 @@
     <t>+63000031</t>
   </si>
   <si>
-    <t>Buyer10</t>
-  </si>
-  <si>
     <t>Francis Scott Key</t>
   </si>
   <si>
@@ -1633,9 +1603,6 @@
     <t>+63000032</t>
   </si>
   <si>
-    <t>Buyer11</t>
-  </si>
-  <si>
     <t>Margaret</t>
   </si>
   <si>
@@ -1648,9 +1615,6 @@
     <t>+63000033</t>
   </si>
   <si>
-    <t>Buyer12</t>
-  </si>
-  <si>
     <t>Ivan</t>
   </si>
   <si>
@@ -1663,9 +1627,6 @@
     <t>+63000034</t>
   </si>
   <si>
-    <t>Buyer13</t>
-  </si>
-  <si>
     <t>Alexander</t>
   </si>
   <si>
@@ -1678,9 +1639,6 @@
     <t>+63000035</t>
   </si>
   <si>
-    <t>Buyer14</t>
-  </si>
-  <si>
     <t>Louisa May</t>
   </si>
   <si>
@@ -1693,9 +1651,6 @@
     <t>+63000036</t>
   </si>
   <si>
-    <t>Buyer15</t>
-  </si>
-  <si>
     <t>Nathaniel</t>
   </si>
   <si>
@@ -1708,9 +1663,6 @@
     <t>+63000037</t>
   </si>
   <si>
-    <t>Buyer16</t>
-  </si>
-  <si>
     <t>Gin</t>
   </si>
   <si>
@@ -1723,9 +1675,6 @@
     <t>+63000038</t>
   </si>
   <si>
-    <t>Buyer17</t>
-  </si>
-  <si>
     <t>Natsume</t>
   </si>
   <si>
@@ -1738,9 +1687,6 @@
     <t>+63000039</t>
   </si>
   <si>
-    <t>Buyer18</t>
-  </si>
-  <si>
     <t>Dorothy</t>
   </si>
   <si>
@@ -1753,9 +1699,6 @@
     <t>+63000040</t>
   </si>
   <si>
-    <t>Buyer19</t>
-  </si>
-  <si>
     <t>Scarlet</t>
   </si>
   <si>
@@ -1771,9 +1714,6 @@
     <t>Novena</t>
   </si>
   <si>
-    <t>Buyer20</t>
-  </si>
-  <si>
     <t>Elle</t>
   </si>
   <si>
@@ -1786,9 +1726,6 @@
     <t>+63000042</t>
   </si>
   <si>
-    <t>Buyer21</t>
-  </si>
-  <si>
     <t>Anne</t>
   </si>
   <si>
@@ -2707,9 +2644,6 @@
     <t>Delivery Method</t>
   </si>
   <si>
-    <t>allcategory</t>
-  </si>
-  <si>
     <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item1.jpg</t>
   </si>
   <si>
@@ -3022,70 +2956,133 @@
     <t>0601SB6</t>
   </si>
   <si>
-    <t>01Seller</t>
-  </si>
-  <si>
-    <t>02Seller</t>
-  </si>
-  <si>
-    <t>03Seller</t>
-  </si>
-  <si>
-    <t>04Seller</t>
-  </si>
-  <si>
-    <t>05Seller</t>
-  </si>
-  <si>
-    <t>06Seller</t>
-  </si>
-  <si>
-    <t>07Seller</t>
-  </si>
-  <si>
-    <t>08Seller</t>
-  </si>
-  <si>
-    <t>09Seller</t>
-  </si>
-  <si>
-    <t>10Seller</t>
-  </si>
-  <si>
-    <t>11Seller</t>
-  </si>
-  <si>
-    <t>12Seller</t>
-  </si>
-  <si>
-    <t>13Seller</t>
-  </si>
-  <si>
-    <t>14Seller</t>
-  </si>
-  <si>
-    <t>15Seller</t>
-  </si>
-  <si>
-    <t>16Seller</t>
-  </si>
-  <si>
-    <t>17Seller</t>
-  </si>
-  <si>
-    <t>18Seller</t>
-  </si>
-  <si>
-    <t>19Seller</t>
-  </si>
-  <si>
-    <t>20Seller</t>
-  </si>
-  <si>
-    <t>21Seller</t>
-  </si>
-  <si>
-    <t>22Seller</t>
+    <t>Seller001</t>
+  </si>
+  <si>
+    <t>Seller002</t>
+  </si>
+  <si>
+    <t>Seller003</t>
+  </si>
+  <si>
+    <t>Seller004</t>
+  </si>
+  <si>
+    <t>Seller005</t>
+  </si>
+  <si>
+    <t>Seller006</t>
+  </si>
+  <si>
+    <t>Seller007</t>
+  </si>
+  <si>
+    <t>Seller008</t>
+  </si>
+  <si>
+    <t>Seller009</t>
+  </si>
+  <si>
+    <t>Seller010</t>
+  </si>
+  <si>
+    <t>Seller011</t>
+  </si>
+  <si>
+    <t>Seller012</t>
+  </si>
+  <si>
+    <t>Seller013</t>
+  </si>
+  <si>
+    <t>Seller014</t>
+  </si>
+  <si>
+    <t>Seller015</t>
+  </si>
+  <si>
+    <t>Seller016</t>
+  </si>
+  <si>
+    <t>Seller017</t>
+  </si>
+  <si>
+    <t>Seller018</t>
+  </si>
+  <si>
+    <t>Seller019</t>
+  </si>
+  <si>
+    <t>Seller020</t>
+  </si>
+  <si>
+    <t>Seller021</t>
+  </si>
+  <si>
+    <t>Seller022</t>
+  </si>
+  <si>
+    <t>Buyer001</t>
+  </si>
+  <si>
+    <t>Buyer002</t>
+  </si>
+  <si>
+    <t>Buyer003</t>
+  </si>
+  <si>
+    <t>Buyer004</t>
+  </si>
+  <si>
+    <t>Buyer005</t>
+  </si>
+  <si>
+    <t>Buyer006</t>
+  </si>
+  <si>
+    <t>Buyer007</t>
+  </si>
+  <si>
+    <t>Buyer008</t>
+  </si>
+  <si>
+    <t>Buyer009</t>
+  </si>
+  <si>
+    <t>Buyer010</t>
+  </si>
+  <si>
+    <t>Buyer011</t>
+  </si>
+  <si>
+    <t>Buyer012</t>
+  </si>
+  <si>
+    <t>Buyer013</t>
+  </si>
+  <si>
+    <t>Buyer014</t>
+  </si>
+  <si>
+    <t>Buyer015</t>
+  </si>
+  <si>
+    <t>Buyer016</t>
+  </si>
+  <si>
+    <t>Buyer017</t>
+  </si>
+  <si>
+    <t>Buyer018</t>
+  </si>
+  <si>
+    <t>Buyer019</t>
+  </si>
+  <si>
+    <t>Buyer020</t>
+  </si>
+  <si>
+    <t>Buyer021</t>
   </si>
 </sst>
 </file>
@@ -4772,7 +4769,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -4786,7 +4783,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -4800,7 +4797,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -4814,7 +4811,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -4991,7 +4988,7 @@
         <v>177</v>
       </c>
       <c r="D79" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,7 +5002,7 @@
         <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -5096,10 +5093,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5117,644 +5114,345 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>256</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="G2" s="37">
         <v>100</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="G3" s="40">
         <v>500</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
       <c r="K3" s="36" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="G4" s="42">
         <v>100.2</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="J4" s="43">
         <v>50</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="G5" s="42">
         <v>1050.0999999999999</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="J5" s="43">
         <v>50</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="G6" s="42">
         <v>10.199999999999999</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="J6" s="43">
         <v>50</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="G7" s="42">
         <v>100.2</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="J7" s="43">
         <v>50</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="G8" s="42">
         <v>1050.0999999999999</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="J8" s="43">
         <v>50</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="G9" s="42">
         <v>10.199999999999999</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="J9" s="43">
         <v>50</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>890</v>
+        <v>173</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="G10" s="42">
         <v>1050.0999999999999</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="J10" s="43">
         <v>50</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+        <v>875</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -5767,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,72 +5484,72 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="H1" s="45" t="s">
         <v>256</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>242</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="H2" s="43">
         <v>199</v>
@@ -5866,39 +5564,39 @@
         <v>50</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>242</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="H3" s="43">
         <v>299.25</v>
@@ -5913,39 +5611,39 @@
         <v>50</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="O3" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>242</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="H4" s="43">
         <v>500</v>
@@ -5960,37 +5658,37 @@
         <v>50</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="N4" s="42"/>
       <c r="O4" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>242</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="H5" s="43">
         <v>200</v>
@@ -6005,37 +5703,37 @@
         <v>50</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="N5" s="42"/>
       <c r="O5" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>238</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
       <c r="H6" s="43">
         <v>10</v>
@@ -6050,37 +5748,37 @@
         <v>50</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="M6" s="42" t="s">
         <v>215</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>238</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
       <c r="H7" s="43">
         <v>50</v>
@@ -6095,37 +5793,37 @@
         <v>50</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="M7" s="42" t="s">
         <v>215</v>
       </c>
       <c r="N7" s="42"/>
       <c r="O7" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>238</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="H8" s="43">
         <v>1600.75</v>
@@ -6140,37 +5838,37 @@
         <v>50</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="M8" s="42" t="s">
         <v>215</v>
       </c>
       <c r="N8" s="42"/>
       <c r="O8" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>242</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="H9" s="43">
         <v>200</v>
@@ -6185,37 +5883,37 @@
         <v>50</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="M9" s="42" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="N9" s="42"/>
       <c r="O9" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>242</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="H10" s="43">
         <v>10</v>
@@ -6230,14 +5928,14 @@
         <v>50</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="N10" s="42"/>
       <c r="O10" s="42" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -7492,8 +7190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7562,7 +7260,7 @@
         <v>276</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>277</v>
@@ -7609,7 +7307,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>287</v>
@@ -7656,7 +7354,7 @@
         <v>294</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>295</v>
@@ -7701,7 +7399,7 @@
         <v>302</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>303</v>
@@ -7748,7 +7446,7 @@
         <v>312</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>313</v>
@@ -7795,7 +7493,7 @@
         <v>322</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>323</v>
@@ -7842,7 +7540,7 @@
         <v>331</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>332</v>
@@ -7889,7 +7587,7 @@
         <v>339</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>340</v>
@@ -7936,7 +7634,7 @@
         <v>347</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>348</v>
@@ -7983,7 +7681,7 @@
         <v>354</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>355</v>
@@ -8030,7 +7728,7 @@
         <v>362</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>363</v>
@@ -8077,7 +7775,7 @@
         <v>370</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>371</v>
@@ -8124,7 +7822,7 @@
         <v>378</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>379</v>
@@ -8171,7 +7869,7 @@
         <v>386</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>387</v>
@@ -8218,7 +7916,7 @@
         <v>395</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>396</v>
@@ -8265,7 +7963,7 @@
         <v>403</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>404</v>
@@ -8312,7 +8010,7 @@
         <v>411</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>412</v>
@@ -8359,7 +8057,7 @@
         <v>419</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>420</v>
@@ -8404,7 +8102,7 @@
         <v>426</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>427</v>
@@ -8449,7 +8147,7 @@
         <v>436</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>437</v>
@@ -8494,7 +8192,7 @@
         <v>444</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>445</v>
@@ -8539,7 +8237,7 @@
         <v>453</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>454</v>
@@ -8639,8 +8337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8693,22 +8391,22 @@
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>476</v>
+        <v>995</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>276</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>433</v>
@@ -8728,22 +8426,22 @@
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>481</v>
+        <v>996</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>286</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>442</v>
@@ -8763,22 +8461,22 @@
     </row>
     <row r="4" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>486</v>
+        <v>997</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>294</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>450</v>
@@ -8798,22 +8496,22 @@
     </row>
     <row r="5" spans="1:11" s="21" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>491</v>
+        <v>998</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>302</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>459</v>
@@ -8833,31 +8531,31 @@
     </row>
     <row r="6" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>496</v>
+        <v>999</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>312</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>282</v>
@@ -8868,31 +8566,31 @@
     </row>
     <row r="7" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>504</v>
+        <v>1000</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>322</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>282</v>
@@ -8903,22 +8601,22 @@
     </row>
     <row r="8" spans="1:11" s="21" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>512</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>331</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>309</v>
@@ -8938,22 +8636,22 @@
     </row>
     <row r="9" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>517</v>
+        <v>1002</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>339</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>319</v>
@@ -8973,22 +8671,22 @@
     </row>
     <row r="10" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>522</v>
+        <v>1003</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>347</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>329</v>
@@ -9008,22 +8706,22 @@
     </row>
     <row r="11" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>527</v>
+        <v>1004</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>354</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>338</v>
@@ -9043,22 +8741,22 @@
     </row>
     <row r="12" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>532</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>362</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>346</v>
@@ -9078,22 +8776,22 @@
     </row>
     <row r="13" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>537</v>
+        <v>1006</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>370</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>353</v>
@@ -9113,22 +8811,22 @@
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>542</v>
+        <v>1007</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>378</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>385</v>
@@ -9148,22 +8846,22 @@
     </row>
     <row r="15" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>547</v>
+        <v>1008</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>386</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>393</v>
@@ -9183,22 +8881,22 @@
     </row>
     <row r="16" spans="1:11" s="21" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>552</v>
+        <v>1009</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>395</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>402</v>
@@ -9218,22 +8916,22 @@
     </row>
     <row r="17" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>557</v>
+        <v>1010</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>403</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>410</v>
@@ -9253,22 +8951,22 @@
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>562</v>
+        <v>1011</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>411</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>418</v>
@@ -9288,22 +8986,22 @@
     </row>
     <row r="19" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>567</v>
+        <v>1012</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>419</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>425</v>
@@ -9323,25 +9021,25 @@
     </row>
     <row r="20" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>572</v>
+        <v>1013</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>426</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>284</v>
@@ -9358,22 +9056,22 @@
     </row>
     <row r="21" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>578</v>
+        <v>1014</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>436</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>283</v>
@@ -9393,22 +9091,22 @@
     </row>
     <row r="22" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>583</v>
+        <v>1015</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>444</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>293</v>
@@ -9428,22 +9126,22 @@
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>453</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>300</v>
@@ -9463,22 +9161,22 @@
     </row>
     <row r="24" spans="1:11" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>462</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>300</v>
@@ -9497,6 +9195,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E24" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
@@ -9521,117 +9220,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -9659,53 +9358,53 @@
   <sheetData>
     <row r="2" spans="1:26" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>173</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -9717,43 +9416,43 @@
     </row>
     <row r="3" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -9769,47 +9468,47 @@
     </row>
     <row r="4" spans="1:26" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="24" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -9823,47 +9522,47 @@
     </row>
     <row r="5" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="25" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -9877,47 +9576,47 @@
     </row>
     <row r="6" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="25" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -9931,47 +9630,47 @@
     </row>
     <row r="7" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="25" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -9985,47 +9684,47 @@
     </row>
     <row r="8" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="25" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -10039,47 +9738,47 @@
     </row>
     <row r="9" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="25" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -10093,47 +9792,47 @@
     </row>
     <row r="10" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="25" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -10147,47 +9846,47 @@
     </row>
     <row r="11" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="25" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -10201,47 +9900,47 @@
     </row>
     <row r="12" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="25" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -10255,47 +9954,47 @@
     </row>
     <row r="13" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="25" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -10309,47 +10008,47 @@
     </row>
     <row r="14" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="25" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -10363,43 +10062,43 @@
     </row>
     <row r="15" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -10415,43 +10114,43 @@
     </row>
     <row r="16" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -10467,43 +10166,43 @@
     </row>
     <row r="17" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -10519,43 +10218,43 @@
     </row>
     <row r="18" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -10627,34 +10326,34 @@
     </row>
     <row r="21" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="24" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="26" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="26" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -10671,34 +10370,34 @@
     </row>
     <row r="22" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -10715,34 +10414,34 @@
     </row>
     <row r="23" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -10759,34 +10458,34 @@
     </row>
     <row r="24" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -10803,34 +10502,34 @@
     </row>
     <row r="25" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -10847,34 +10546,34 @@
     </row>
     <row r="26" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -10891,34 +10590,34 @@
     </row>
     <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -10935,34 +10634,34 @@
     </row>
     <row r="28" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -10979,34 +10678,34 @@
     </row>
     <row r="29" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -11023,34 +10722,34 @@
     </row>
     <row r="30" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -11067,34 +10766,34 @@
     </row>
     <row r="31" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -11139,34 +10838,34 @@
     </row>
     <row r="33" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="24" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="26" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="26" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -11183,34 +10882,34 @@
     </row>
     <row r="34" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -11227,34 +10926,34 @@
     </row>
     <row r="35" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -11271,34 +10970,34 @@
     </row>
     <row r="36" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -11315,34 +11014,34 @@
     </row>
     <row r="37" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -11359,34 +11058,34 @@
     </row>
     <row r="38" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -11403,34 +11102,34 @@
     </row>
     <row r="39" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -11447,34 +11146,34 @@
     </row>
     <row r="40" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -11491,34 +11190,34 @@
     </row>
     <row r="41" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -11535,34 +11234,34 @@
     </row>
     <row r="42" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -11579,34 +11278,34 @@
     </row>
     <row r="43" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -11737,7 +11436,7 @@
     </row>
     <row r="48" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -11768,7 +11467,7 @@
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="27" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -11798,7 +11497,7 @@
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="27" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -11828,7 +11527,7 @@
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -11858,7 +11557,7 @@
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -11888,7 +11587,7 @@
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="27" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -11918,7 +11617,7 @@
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -11948,7 +11647,7 @@
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -11978,7 +11677,7 @@
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="27" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -12008,7 +11707,7 @@
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -12038,7 +11737,7 @@
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -12068,7 +11767,7 @@
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="27" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -12119,1013 +11818,1013 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C69" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>173</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -13167,111 +12866,111 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="B1" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="C1" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="D1" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="E1" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="F1" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="G1" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="H1" t="s">
         <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="J1" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="K1" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="L1" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
       <c r="M1" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="N1" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="O1" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="P1" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="Q1" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="R1" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="S1" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="T1" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B2" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="C2" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="H2" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="I2" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="J2" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="L2" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="M2" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="N2" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="O2" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="P2" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="Q2" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="R2" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="S2" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T2">
         <v>20</v>
@@ -13279,49 +12978,49 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B3" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="C3" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="H3" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="I3" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="J3" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="L3" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="M3" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="N3" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="O3" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="P3" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="Q3" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="R3" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="S3" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T3">
         <v>20</v>
@@ -13329,49 +13028,49 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B4" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="C4" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="H4" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="I4" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="J4" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="L4" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="M4" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="N4" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="O4" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="P4" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="Q4" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="R4" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="S4" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T4">
         <v>20</v>
@@ -13379,49 +13078,49 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B5" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="C5" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="H5" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="I5" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="J5" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="L5" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="M5" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="N5" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="O5" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="P5" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="Q5" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="R5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="S5" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T5">
         <v>20</v>
@@ -13429,49 +13128,49 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B6" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="C6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="H6" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="I6" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="J6" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="L6" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="M6" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="N6" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="O6" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="P6" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="Q6" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="R6" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="S6" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T6">
         <v>20</v>
@@ -13479,49 +13178,49 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B7" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="C7" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="H7" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="I7" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="J7" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="L7" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="M7" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="N7" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="O7" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="P7" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="Q7" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="R7" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="S7" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T7">
         <v>20</v>
@@ -13529,49 +13228,49 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B8" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="C8" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="H8" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="I8" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="J8" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="L8" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="M8" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="N8" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="O8" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="P8" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="Q8" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="R8" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="S8" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T8">
         <v>20</v>
@@ -13579,49 +13278,49 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B9" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="C9" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="H9" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="I9" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="J9" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="L9" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="M9" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="N9" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="O9" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="P9" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="Q9" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="R9" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="S9" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="T9">
         <v>20</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E9B5C-1D40-4FE2-A5E1-0839231F5234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D3F5A-F405-4185-8D7D-1E239877A72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Admin Onboarding" sheetId="10" r:id="rId9"/>
     <sheet name="Item List Variants" sheetId="9" r:id="rId10"/>
     <sheet name="Item List Country" sheetId="11" r:id="rId11"/>
+    <sheet name="Checkout Variants(Spot)" sheetId="12" r:id="rId12"/>
+    <sheet name="Checkout Variants(Nego)" sheetId="14" r:id="rId13"/>
+    <sheet name="CheckoutCountry" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1058">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -2863,9 +2866,6 @@
     <t>weight, price,pickup</t>
   </si>
   <si>
-    <t>Category 1% - W/ blank surchage</t>
-  </si>
-  <si>
     <t>Category 1%</t>
   </si>
   <si>
@@ -3086,13 +3086,139 @@
   </si>
   <si>
     <t>Buyer09</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>RDM Bldg 2 Jesus St.</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Custom Payment</t>
+  </si>
+  <si>
+    <t>Acknowledged</t>
+  </si>
+  <si>
+    <t>Spot - No Bulk</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Category 1% -  Bulk Pricing (%)</t>
+  </si>
+  <si>
+    <t>Offline Payment</t>
+  </si>
+  <si>
+    <t>Cash on delivery</t>
+  </si>
+  <si>
+    <t>Ready for PickUp</t>
+  </si>
+  <si>
+    <t>Collected</t>
+  </si>
+  <si>
+    <t>Mndtry CF</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>Category 0% - W/surcharge (3Variant options)</t>
+  </si>
+  <si>
+    <t>Category 1% - W/ blank surcharge</t>
+  </si>
+  <si>
+    <t>Variants</t>
+  </si>
+  <si>
+    <t>Offline Payments</t>
+  </si>
+  <si>
+    <t>NEGO - Disc Fixed &amp; Charges</t>
+  </si>
+  <si>
+    <t>NEGO Pending</t>
+  </si>
+  <si>
+    <t>NEGO Cancelled</t>
+  </si>
+  <si>
+    <t>NEGO Rejected</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item10.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item11.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item12.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item13.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item14.jpg</t>
+  </si>
+  <si>
+    <t>NEGO - Disc % &amp; Charges</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nego Status</t>
+  </si>
+  <si>
+    <t>AcceptedFixed</t>
+  </si>
+  <si>
+    <t>AcceptedPrcnt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3182,6 +3308,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3361,7 +3494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3493,6 +3626,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4788,7 +4927,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -4802,7 +4941,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -4816,7 +4955,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -4993,7 +5132,7 @@
         <v>177</v>
       </c>
       <c r="D79" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,7 +5146,7 @@
         <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -5098,15 +5237,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="76.140625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
@@ -5125,7 +5264,7 @@
         <v>870</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>871</v>
@@ -5143,7 +5282,7 @@
         <v>873</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J1" s="32" t="s">
         <v>874</v>
@@ -5154,7 +5293,7 @@
     </row>
     <row r="2" spans="1:11" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>938</v>
+        <v>1038</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>939</v>
@@ -5185,16 +5324,16 @@
     </row>
     <row r="3" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>942</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>943</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>883</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>881</v>
@@ -5216,16 +5355,16 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>883</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>884</v>
@@ -5240,7 +5379,7 @@
         <v>885</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J4" s="43">
         <v>50</v>
@@ -5251,16 +5390,16 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>883</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>886</v>
@@ -5275,7 +5414,7 @@
         <v>887</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J5" s="43">
         <v>50</v>
@@ -5286,16 +5425,16 @@
     </row>
     <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>888</v>
@@ -5310,7 +5449,7 @@
         <v>889</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J6" s="43">
         <v>50</v>
@@ -5326,26 +5465,26 @@
       <c r="B7" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>963</v>
+      <c r="C7" s="34" t="s">
+        <v>883</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>957</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>879</v>
       </c>
       <c r="G7" s="42">
-        <v>100.2</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J7" s="43">
         <v>50</v>
@@ -5354,12 +5493,12 @@
         <v>883</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>949</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>173</v>
+        <v>1036</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>876</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>883</v>
@@ -5368,19 +5507,19 @@
         <v>958</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>879</v>
       </c>
       <c r="G8" s="42">
-        <v>1050.0999999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J8" s="43">
         <v>50</v>
@@ -5389,12 +5528,12 @@
         <v>883</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>950</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>876</v>
+      <c r="B9" s="42" t="s">
+        <v>173</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>883</v>
@@ -5403,19 +5542,19 @@
         <v>959</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>879</v>
       </c>
       <c r="G9" s="42">
-        <v>10.199999999999999</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J9" s="43">
         <v>50</v>
@@ -5426,36 +5565,176 @@
     </row>
     <row r="10" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>951</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>883</v>
+        <v>1042</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>939</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>962</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>960</v>
+        <v>1046</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>896</v>
+        <v>28</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>879</v>
       </c>
       <c r="G10" s="42">
-        <v>1050.0999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J10" s="43">
         <v>50</v>
       </c>
       <c r="K10" s="36" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="G11" s="42">
+        <v>100.2</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>966</v>
+      </c>
+      <c r="J11" s="43">
+        <v>50</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>943</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="G12" s="42">
+        <v>100.2</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>966</v>
+      </c>
+      <c r="J12" s="43">
+        <v>50</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>945</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="G13" s="42">
+        <v>100.2</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>966</v>
+      </c>
+      <c r="J13" s="43">
+        <v>50</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>943</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="G14" s="42">
+        <v>100.2</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>966</v>
+      </c>
+      <c r="J14" s="43">
+        <v>50</v>
+      </c>
+      <c r="K14" s="36" t="s">
         <v>883</v>
       </c>
     </row>
@@ -5471,7 +5750,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,7 +5774,7 @@
         <v>870</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>871</v>
@@ -5536,7 +5815,7 @@
     </row>
     <row r="2" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>939</v>
@@ -5572,10 +5851,10 @@
         <v>940</v>
       </c>
       <c r="M2" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="N2" s="42" t="s">
         <v>969</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>970</v>
       </c>
       <c r="O2" s="42" t="s">
         <v>941</v>
@@ -5583,16 +5862,16 @@
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>883</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>881</v>
@@ -5619,7 +5898,7 @@
         <v>940</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N3" s="42" t="s">
         <v>937</v>
@@ -5630,16 +5909,16 @@
     </row>
     <row r="4" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>883</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>884</v>
@@ -5663,10 +5942,10 @@
         <v>50</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N4" s="42"/>
       <c r="O4" s="42" t="s">
@@ -5675,16 +5954,16 @@
     </row>
     <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>883</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>886</v>
@@ -5708,10 +5987,10 @@
         <v>50</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N5" s="42"/>
       <c r="O5" s="42" t="s">
@@ -5720,16 +5999,16 @@
     </row>
     <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>888</v>
@@ -5753,7 +6032,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M6" s="42" t="s">
         <v>215</v>
@@ -5765,16 +6044,16 @@
     </row>
     <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>890</v>
@@ -5798,7 +6077,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M7" s="42" t="s">
         <v>215</v>
@@ -5810,7 +6089,7 @@
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>173</v>
@@ -5819,7 +6098,7 @@
         <v>883</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>892</v>
@@ -5843,7 +6122,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M8" s="42" t="s">
         <v>215</v>
@@ -5855,16 +6134,16 @@
     </row>
     <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>883</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>894</v>
@@ -5888,10 +6167,10 @@
         <v>50</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M9" s="42" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N9" s="42"/>
       <c r="O9" s="42" t="s">
@@ -5900,16 +6179,16 @@
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>952</v>
+        <v>173</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>883</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>896</v>
@@ -5933,10 +6212,10 @@
         <v>50</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N10" s="42"/>
       <c r="O10" s="42" t="s">
@@ -6019,6 +6298,1368 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D00D795-343A-499F-9F61-61C2DA9A1658}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2">
+        <v>1011</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J3">
+        <v>1011</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4">
+        <v>1011</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H5" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J5">
+        <v>1011</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" t="s">
+        <v>389</v>
+      </c>
+      <c r="J6">
+        <v>1011</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>879</v>
+      </c>
+      <c r="D7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" t="s">
+        <v>389</v>
+      </c>
+      <c r="J7">
+        <v>1011</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>898</v>
+      </c>
+      <c r="D8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" t="s">
+        <v>389</v>
+      </c>
+      <c r="J8">
+        <v>1011</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D9" t="s">
+        <v>483</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J9">
+        <v>1011</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>879</v>
+      </c>
+      <c r="D10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10">
+        <v>1011</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>879</v>
+      </c>
+      <c r="D11" t="s">
+        <v>483</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G11" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11">
+        <v>1011</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>879</v>
+      </c>
+      <c r="D12" t="s">
+        <v>483</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" t="s">
+        <v>317</v>
+      </c>
+      <c r="I12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12">
+        <v>1011</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>879</v>
+      </c>
+      <c r="D13" t="s">
+        <v>483</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J13">
+        <v>1011</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>879</v>
+      </c>
+      <c r="D14" t="s">
+        <v>483</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" t="s">
+        <v>389</v>
+      </c>
+      <c r="J14">
+        <v>1011</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D15" t="s">
+        <v>483</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" t="s">
+        <v>317</v>
+      </c>
+      <c r="I15" t="s">
+        <v>389</v>
+      </c>
+      <c r="J15">
+        <v>1011</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>879</v>
+      </c>
+      <c r="D16" t="s">
+        <v>483</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I16" t="s">
+        <v>389</v>
+      </c>
+      <c r="J16">
+        <v>1011</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>879</v>
+      </c>
+      <c r="D17" t="s">
+        <v>483</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G17" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" t="s">
+        <v>317</v>
+      </c>
+      <c r="I17" t="s">
+        <v>389</v>
+      </c>
+      <c r="J17">
+        <v>1011</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>879</v>
+      </c>
+      <c r="D18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G18" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" t="s">
+        <v>317</v>
+      </c>
+      <c r="I18" t="s">
+        <v>389</v>
+      </c>
+      <c r="J18">
+        <v>1011</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09E18CF-C157-48F6-9F74-27E30075CC2D}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2" s="56">
+        <v>2</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>879</v>
+      </c>
+      <c r="E2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K2">
+        <v>1011</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B3" s="56">
+        <v>2</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>879</v>
+      </c>
+      <c r="E3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K3">
+        <v>1011</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" s="56">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B5" s="56">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B6" s="56">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A55E513-D8C0-4912-960E-868919A992BB}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1">
+        <v>1011</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I2">
+        <v>1011</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I3">
+        <v>1011</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I4">
+        <v>1011</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5">
+        <v>1011</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I6">
+        <v>1011</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>949</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" t="s">
+        <v>389</v>
+      </c>
+      <c r="I7">
+        <v>1011</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I8">
+        <v>1011</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" t="s">
+        <v>389</v>
+      </c>
+      <c r="I9">
+        <v>1011</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>949</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" t="s">
+        <v>389</v>
+      </c>
+      <c r="I10">
+        <v>1011</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>950</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I11">
+        <v>1011</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" t="s">
+        <v>389</v>
+      </c>
+      <c r="I12">
+        <v>1011</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7265,7 +8906,7 @@
         <v>276</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>277</v>
@@ -7277,7 +8918,7 @@
         <v>279</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>280</v>
@@ -7312,7 +8953,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>286</v>
@@ -7324,7 +8965,7 @@
         <v>288</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>289</v>
@@ -7359,7 +9000,7 @@
         <v>292</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>293</v>
@@ -7371,7 +9012,7 @@
         <v>295</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>296</v>
@@ -7404,7 +9045,7 @@
         <v>299</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>300</v>
@@ -7451,7 +9092,7 @@
         <v>309</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>310</v>
@@ -7498,7 +9139,7 @@
         <v>319</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>320</v>
@@ -7545,7 +9186,7 @@
         <v>328</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>329</v>
@@ -7592,7 +9233,7 @@
         <v>336</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>337</v>
@@ -7639,7 +9280,7 @@
         <v>344</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>345</v>
@@ -7686,7 +9327,7 @@
         <v>351</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>352</v>
@@ -7733,7 +9374,7 @@
         <v>359</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>360</v>
@@ -7780,7 +9421,7 @@
         <v>367</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>368</v>
@@ -7827,7 +9468,7 @@
         <v>375</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>376</v>
@@ -7874,7 +9515,7 @@
         <v>383</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>384</v>
@@ -7921,7 +9562,7 @@
         <v>392</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>393</v>
@@ -7968,7 +9609,7 @@
         <v>400</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>401</v>
@@ -8015,7 +9656,7 @@
         <v>408</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>409</v>
@@ -8062,7 +9703,7 @@
         <v>416</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>417</v>
@@ -8107,7 +9748,7 @@
         <v>423</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>424</v>
@@ -8152,7 +9793,7 @@
         <v>433</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>434</v>
@@ -8197,7 +9838,7 @@
         <v>441</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>442</v>
@@ -8242,7 +9883,7 @@
         <v>450</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>451</v>
@@ -8345,7 +9986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -8399,7 +10040,7 @@
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>276</v>
@@ -8411,7 +10052,7 @@
         <v>474</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>475</v>
@@ -8434,7 +10075,7 @@
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>285</v>
@@ -8446,7 +10087,7 @@
         <v>477</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>478</v>
@@ -8469,7 +10110,7 @@
     </row>
     <row r="4" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>292</v>
@@ -8504,7 +10145,7 @@
     </row>
     <row r="5" spans="1:11" s="21" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>299</v>
@@ -8539,7 +10180,7 @@
     </row>
     <row r="6" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>309</v>
@@ -8574,7 +10215,7 @@
     </row>
     <row r="7" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>319</v>
@@ -8609,7 +10250,7 @@
     </row>
     <row r="8" spans="1:11" s="21" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>328</v>
@@ -8644,7 +10285,7 @@
     </row>
     <row r="9" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>336</v>
@@ -8679,7 +10320,7 @@
     </row>
     <row r="10" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>344</v>
@@ -12938,13 +14579,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B2" t="s">
         <v>917</v>
       </c>
       <c r="C2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H2" t="s">
         <v>918</v>
@@ -12959,7 +14600,7 @@
         <v>921</v>
       </c>
       <c r="L2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M2" t="s">
         <v>922</v>
@@ -12988,13 +14629,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B3" t="s">
         <v>917</v>
       </c>
       <c r="C3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H3" t="s">
         <v>918</v>
@@ -13009,7 +14650,7 @@
         <v>921</v>
       </c>
       <c r="L3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M3" t="s">
         <v>922</v>
@@ -13038,13 +14679,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B4" t="s">
         <v>917</v>
       </c>
       <c r="C4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H4" t="s">
         <v>918</v>
@@ -13059,7 +14700,7 @@
         <v>921</v>
       </c>
       <c r="L4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M4" t="s">
         <v>922</v>
@@ -13088,13 +14729,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B5" t="s">
         <v>917</v>
       </c>
       <c r="C5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H5" t="s">
         <v>918</v>
@@ -13109,7 +14750,7 @@
         <v>921</v>
       </c>
       <c r="L5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M5" t="s">
         <v>922</v>
@@ -13138,13 +14779,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B6" t="s">
         <v>917</v>
       </c>
       <c r="C6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H6" t="s">
         <v>918</v>
@@ -13159,7 +14800,7 @@
         <v>921</v>
       </c>
       <c r="L6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M6" t="s">
         <v>922</v>
@@ -13188,13 +14829,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B7" t="s">
         <v>917</v>
       </c>
       <c r="C7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H7" t="s">
         <v>918</v>
@@ -13209,7 +14850,7 @@
         <v>921</v>
       </c>
       <c r="L7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M7" t="s">
         <v>922</v>
@@ -13238,13 +14879,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B8" t="s">
         <v>917</v>
       </c>
       <c r="C8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H8" t="s">
         <v>918</v>
@@ -13259,7 +14900,7 @@
         <v>921</v>
       </c>
       <c r="L8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M8" t="s">
         <v>922</v>
@@ -13288,13 +14929,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B9" t="s">
         <v>917</v>
       </c>
       <c r="C9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H9" t="s">
         <v>918</v>
@@ -13309,7 +14950,7 @@
         <v>921</v>
       </c>
       <c r="L9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M9" t="s">
         <v>922</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D3F5A-F405-4185-8D7D-1E239877A72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F35D4-A8AC-4EB6-9C6D-906CA67F2A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7026,7 +7026,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F608ED0-EE00-4181-9F26-28B0C61320FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82E8D31-7409-4E89-ADD5-F7F8FE8F9A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1785" windowWidth="21600" windowHeight="12735" tabRatio="500" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="1073">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3244,6 +3244,21 @@
   </si>
   <si>
     <t>21Buyer</t>
+  </si>
+  <si>
+    <t>noChange</t>
+  </si>
+  <si>
+    <t>Pickup 01 (Pick-up)</t>
+  </si>
+  <si>
+    <t>Delivery 01(SGD $ 15.25)</t>
+  </si>
+  <si>
+    <t>Delivery 02(SGD $ 60.25)</t>
+  </si>
+  <si>
+    <t>Delivery 02(SGD $ 20.25)</t>
   </si>
 </sst>
 </file>
@@ -6281,8 +6296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6378,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L2" s="42" t="s">
         <v>903</v>
@@ -6425,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L3" s="42" t="s">
         <v>903</v>
@@ -6472,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L4" s="42" t="s">
         <v>907</v>
@@ -6517,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>907</v>
@@ -6562,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L6" s="42" t="s">
         <v>907</v>
@@ -6607,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>907</v>
@@ -6652,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L8" s="42" t="s">
         <v>907</v>
@@ -6697,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L9" s="42" t="s">
         <v>907</v>
@@ -6742,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L10" s="42" t="s">
         <v>907</v>
@@ -6787,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L11" s="42" t="s">
         <v>907</v>
@@ -6832,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L12" s="42" t="s">
         <v>907</v>
@@ -6877,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L13" s="42" t="s">
         <v>907</v>
@@ -6922,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L14" s="42" t="s">
         <v>907</v>
@@ -6950,8 +6965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D00D795-343A-499F-9F61-61C2DA9A1658}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6959,6 +6974,7 @@
     <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7043,8 +7059,11 @@
       <c r="K2" t="s">
         <v>977</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>974</v>
+      <c r="N2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O2" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -7081,8 +7100,11 @@
       <c r="K3" t="s">
         <v>975</v>
       </c>
+      <c r="N3" t="s">
+        <v>1071</v>
+      </c>
       <c r="O3" t="s">
-        <v>976</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -7119,6 +7141,9 @@
       <c r="K4" t="s">
         <v>977</v>
       </c>
+      <c r="N4" t="s">
+        <v>1070</v>
+      </c>
       <c r="O4" t="s">
         <v>978</v>
       </c>
@@ -7155,10 +7180,13 @@
         <v>1011</v>
       </c>
       <c r="K5" t="s">
-        <v>979</v>
+        <v>980</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1072</v>
       </c>
       <c r="O5" t="s">
-        <v>974</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -7195,6 +7223,9 @@
       <c r="K6" t="s">
         <v>977</v>
       </c>
+      <c r="N6" t="s">
+        <v>1072</v>
+      </c>
       <c r="O6" t="s">
         <v>978</v>
       </c>
@@ -7233,6 +7264,9 @@
       <c r="K7" t="s">
         <v>1002</v>
       </c>
+      <c r="N7" t="s">
+        <v>1072</v>
+      </c>
       <c r="O7" t="s">
         <v>978</v>
       </c>
@@ -7271,8 +7305,11 @@
       <c r="K8" t="s">
         <v>977</v>
       </c>
+      <c r="N8" t="s">
+        <v>1072</v>
+      </c>
       <c r="O8" t="s">
-        <v>976</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7309,6 +7346,9 @@
       <c r="K9" t="s">
         <v>980</v>
       </c>
+      <c r="N9" t="s">
+        <v>1072</v>
+      </c>
       <c r="O9" t="s">
         <v>976</v>
       </c>
@@ -7347,8 +7387,11 @@
       <c r="K10" t="s">
         <v>975</v>
       </c>
+      <c r="N10" t="s">
+        <v>1070</v>
+      </c>
       <c r="O10" t="s">
-        <v>976</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -7385,6 +7428,9 @@
       <c r="K11" t="s">
         <v>1002</v>
       </c>
+      <c r="N11" t="s">
+        <v>1069</v>
+      </c>
       <c r="O11" t="s">
         <v>981</v>
       </c>
@@ -7423,6 +7469,9 @@
       <c r="K12" t="s">
         <v>980</v>
       </c>
+      <c r="N12" t="s">
+        <v>1070</v>
+      </c>
       <c r="O12" t="s">
         <v>978</v>
       </c>
@@ -7461,6 +7510,9 @@
       <c r="K13" t="s">
         <v>980</v>
       </c>
+      <c r="N13" t="s">
+        <v>1070</v>
+      </c>
       <c r="O13" t="s">
         <v>976</v>
       </c>
@@ -7499,6 +7551,9 @@
       <c r="K14" t="s">
         <v>980</v>
       </c>
+      <c r="N14" t="s">
+        <v>1070</v>
+      </c>
       <c r="O14" t="s">
         <v>978</v>
       </c>
@@ -7537,6 +7592,9 @@
       <c r="K15" t="s">
         <v>980</v>
       </c>
+      <c r="N15" t="s">
+        <v>1070</v>
+      </c>
       <c r="O15" t="s">
         <v>976</v>
       </c>
@@ -7575,6 +7633,9 @@
       <c r="K16" t="s">
         <v>980</v>
       </c>
+      <c r="N16" t="s">
+        <v>1069</v>
+      </c>
       <c r="O16" t="s">
         <v>981</v>
       </c>
@@ -7613,6 +7674,9 @@
       <c r="K17" t="s">
         <v>980</v>
       </c>
+      <c r="N17" t="s">
+        <v>1070</v>
+      </c>
       <c r="O17" t="s">
         <v>982</v>
       </c>
@@ -7650,6 +7714,9 @@
       </c>
       <c r="K18" t="s">
         <v>980</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1070</v>
       </c>
       <c r="O18" t="s">
         <v>976</v>
@@ -7666,13 +7733,14 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="37.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7751,6 +7819,9 @@
       <c r="J2" t="s">
         <v>1002</v>
       </c>
+      <c r="M2" t="s">
+        <v>1070</v>
+      </c>
       <c r="N2" s="5" t="s">
         <v>974</v>
       </c>
@@ -7786,6 +7857,9 @@
       <c r="J3" t="s">
         <v>975</v>
       </c>
+      <c r="M3" t="s">
+        <v>1070</v>
+      </c>
       <c r="N3" t="s">
         <v>976</v>
       </c>
@@ -7821,6 +7895,9 @@
       <c r="J4" t="s">
         <v>977</v>
       </c>
+      <c r="M4" t="s">
+        <v>1070</v>
+      </c>
       <c r="N4" t="s">
         <v>978</v>
       </c>
@@ -7856,6 +7933,9 @@
       <c r="J5" t="s">
         <v>979</v>
       </c>
+      <c r="M5" t="s">
+        <v>1070</v>
+      </c>
       <c r="N5" t="s">
         <v>974</v>
       </c>
@@ -7891,6 +7971,9 @@
       <c r="J6" t="s">
         <v>977</v>
       </c>
+      <c r="M6" t="s">
+        <v>1070</v>
+      </c>
       <c r="N6" t="s">
         <v>978</v>
       </c>
@@ -7926,6 +8009,9 @@
       <c r="J7" t="s">
         <v>1002</v>
       </c>
+      <c r="M7" t="s">
+        <v>1070</v>
+      </c>
       <c r="N7" t="s">
         <v>978</v>
       </c>
@@ -7961,6 +8047,9 @@
       <c r="J8" t="s">
         <v>977</v>
       </c>
+      <c r="M8" t="s">
+        <v>1070</v>
+      </c>
       <c r="N8" t="s">
         <v>976</v>
       </c>
@@ -7996,6 +8085,9 @@
       <c r="J9" t="s">
         <v>980</v>
       </c>
+      <c r="M9" t="s">
+        <v>1070</v>
+      </c>
       <c r="N9" t="s">
         <v>976</v>
       </c>
@@ -8031,6 +8123,9 @@
       <c r="J10" t="s">
         <v>975</v>
       </c>
+      <c r="M10" t="s">
+        <v>1070</v>
+      </c>
       <c r="N10" t="s">
         <v>976</v>
       </c>
@@ -8066,6 +8161,9 @@
       <c r="J11" t="s">
         <v>1002</v>
       </c>
+      <c r="M11" t="s">
+        <v>1069</v>
+      </c>
       <c r="N11" t="s">
         <v>981</v>
       </c>
@@ -8101,6 +8199,9 @@
       <c r="J12" t="s">
         <v>980</v>
       </c>
+      <c r="M12" t="s">
+        <v>1070</v>
+      </c>
       <c r="N12" t="s">
         <v>978</v>
       </c>
@@ -8136,6 +8237,9 @@
       <c r="J13" t="s">
         <v>980</v>
       </c>
+      <c r="M13" t="s">
+        <v>1070</v>
+      </c>
       <c r="N13" t="s">
         <v>976</v>
       </c>
@@ -8171,6 +8275,9 @@
       <c r="J14" t="s">
         <v>980</v>
       </c>
+      <c r="M14" t="s">
+        <v>1070</v>
+      </c>
       <c r="N14" t="s">
         <v>978</v>
       </c>
@@ -8206,6 +8313,9 @@
       <c r="J15" t="s">
         <v>980</v>
       </c>
+      <c r="M15" t="s">
+        <v>1070</v>
+      </c>
       <c r="N15" t="s">
         <v>976</v>
       </c>
@@ -8241,6 +8351,9 @@
       <c r="J16" t="s">
         <v>980</v>
       </c>
+      <c r="M16" t="s">
+        <v>1069</v>
+      </c>
       <c r="N16" t="s">
         <v>981</v>
       </c>
@@ -8276,6 +8389,9 @@
       <c r="J17" t="s">
         <v>980</v>
       </c>
+      <c r="M17" t="s">
+        <v>1070</v>
+      </c>
       <c r="N17" t="s">
         <v>982</v>
       </c>
@@ -8310,6 +8426,9 @@
       </c>
       <c r="J18" t="s">
         <v>980</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1070</v>
       </c>
       <c r="N18" t="s">
         <v>976</v>
@@ -8324,8 +8443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772860E0-987C-4E6A-A63C-53D830B51E86}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8333,6 +8452,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8417,8 +8537,11 @@
       <c r="K2" t="s">
         <v>975</v>
       </c>
+      <c r="N2" t="s">
+        <v>1070</v>
+      </c>
       <c r="O2" s="5" t="s">
-        <v>976</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -8453,10 +8576,13 @@
         <v>1011</v>
       </c>
       <c r="K3" t="s">
-        <v>979</v>
-      </c>
-      <c r="O3" t="s">
-        <v>974</v>
+        <v>980</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F608ED0-EE00-4181-9F26-28B0C61320FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542DA336-8BE3-4D1C-AAD0-D6A661C4C506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1785" windowWidth="21600" windowHeight="12735" tabRatio="500" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,16 @@
     <sheet name="Custom Fields" sheetId="7" r:id="rId8"/>
     <sheet name="AllCustomField" sheetId="8" r:id="rId9"/>
     <sheet name="Admin Onboarding" sheetId="10" r:id="rId10"/>
-    <sheet name="Item List Variants" sheetId="9" r:id="rId11"/>
-    <sheet name="Item List Country" sheetId="11" r:id="rId12"/>
-    <sheet name="Checkout Variants(Spot)" sheetId="12" r:id="rId13"/>
-    <sheet name="Checkout Country(Spot)" sheetId="14" r:id="rId14"/>
-    <sheet name="Checkout Variants(Nego)" sheetId="13" r:id="rId15"/>
-    <sheet name="Checkout Country(Nego)" sheetId="15" r:id="rId16"/>
+    <sheet name="Search Result Page" sheetId="17" r:id="rId11"/>
+    <sheet name="Item Details Page" sheetId="18" r:id="rId12"/>
+    <sheet name="Comparison" sheetId="19" r:id="rId13"/>
+    <sheet name="Cart" sheetId="20" r:id="rId14"/>
+    <sheet name="Item List Variants" sheetId="9" r:id="rId15"/>
+    <sheet name="Item List Country" sheetId="11" r:id="rId16"/>
+    <sheet name="Checkout Variants(Spot)" sheetId="12" r:id="rId17"/>
+    <sheet name="Checkout Country(Spot)" sheetId="14" r:id="rId18"/>
+    <sheet name="Checkout Variants(Nego)" sheetId="13" r:id="rId19"/>
+    <sheet name="Checkout Country(Nego)" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="1134">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3244,6 +3248,204 @@
   </si>
   <si>
     <t>21Buyer</t>
+  </si>
+  <si>
+    <t>itemResultNewest</t>
+  </si>
+  <si>
+    <t>itemResultLowest</t>
+  </si>
+  <si>
+    <t>itemResultHighest</t>
+  </si>
+  <si>
+    <t>itemResultDescending</t>
+  </si>
+  <si>
+    <t>itemResultOldestV</t>
+  </si>
+  <si>
+    <t>itemResultOldestC</t>
+  </si>
+  <si>
+    <t>itemResultAscendingC</t>
+  </si>
+  <si>
+    <t>itemResultAscendingV</t>
+  </si>
+  <si>
+    <t>itemNameCategory</t>
+  </si>
+  <si>
+    <t>itemNamePartial</t>
+  </si>
+  <si>
+    <t>itemCustomField</t>
+  </si>
+  <si>
+    <t>itemCustomFieldPartial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mndtry </t>
+  </si>
+  <si>
+    <t>Shikamaru Nara</t>
+  </si>
+  <si>
+    <t>Shikamaru</t>
+  </si>
+  <si>
+    <t>Item TBD - Seller</t>
+  </si>
+  <si>
+    <t>Item TBD - Admin</t>
+  </si>
+  <si>
+    <t>Item OFF - Seller</t>
+  </si>
+  <si>
+    <t>Item ON - Admin</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>itemNameRecent</t>
+  </si>
+  <si>
+    <t>listNameWidget</t>
+  </si>
+  <si>
+    <t>listNameList</t>
+  </si>
+  <si>
+    <t>List Name Widget 01</t>
+  </si>
+  <si>
+    <t>List Name Widget 02</t>
+  </si>
+  <si>
+    <t>List Name Widget 03</t>
+  </si>
+  <si>
+    <t>List Name Widget 04</t>
+  </si>
+  <si>
+    <t>List Name Widget 05</t>
+  </si>
+  <si>
+    <t>List Name Widget 06</t>
+  </si>
+  <si>
+    <t>List Name Widget 07</t>
+  </si>
+  <si>
+    <t>List Name Widget 08</t>
+  </si>
+  <si>
+    <t>List Name Widget 09</t>
+  </si>
+  <si>
+    <t>List Name Widget 10</t>
+  </si>
+  <si>
+    <t>List Name Widget 11</t>
+  </si>
+  <si>
+    <t>List Name Widget 12</t>
+  </si>
+  <si>
+    <t>List Name Widget 13</t>
+  </si>
+  <si>
+    <t>List Name Widget 14</t>
+  </si>
+  <si>
+    <t>List Name Widget 15</t>
+  </si>
+  <si>
+    <t>List Name Widget 16</t>
+  </si>
+  <si>
+    <t>List Name Widget 17</t>
+  </si>
+  <si>
+    <t>List Name Widget 18</t>
+  </si>
+  <si>
+    <t>List Name Widget 19</t>
+  </si>
+  <si>
+    <t>List Name Widget 20</t>
+  </si>
+  <si>
+    <t>List Name Widget 21</t>
+  </si>
+  <si>
+    <t>List Name List 01</t>
+  </si>
+  <si>
+    <t>List Name List 03</t>
+  </si>
+  <si>
+    <t>List Name List 04</t>
+  </si>
+  <si>
+    <t>List Name List 05</t>
+  </si>
+  <si>
+    <t>List Name List 06</t>
+  </si>
+  <si>
+    <t>List Name List 07</t>
+  </si>
+  <si>
+    <t>List Name List 08</t>
+  </si>
+  <si>
+    <t>List Name List 09</t>
+  </si>
+  <si>
+    <t>List Name List 10</t>
+  </si>
+  <si>
+    <t>List Name List 11</t>
+  </si>
+  <si>
+    <t>List Name List 12</t>
+  </si>
+  <si>
+    <t>List Name List 13</t>
+  </si>
+  <si>
+    <t>List Name List 14</t>
+  </si>
+  <si>
+    <t>List Name List 15</t>
+  </si>
+  <si>
+    <t>List Name List 16</t>
+  </si>
+  <si>
+    <t>List Name List 17</t>
+  </si>
+  <si>
+    <t>List Name List 18</t>
+  </si>
+  <si>
+    <t>List Name List 19</t>
+  </si>
+  <si>
+    <t>List Name List 20</t>
+  </si>
+  <si>
+    <t>List Name List 21</t>
+  </si>
+  <si>
+    <t>List Name List 02</t>
+  </si>
+  <si>
+    <t>itemQty</t>
   </si>
 </sst>
 </file>
@@ -3393,7 +3595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3521,12 +3723,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3664,6 +3877,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5768,6 +5984,411 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9E3965-A1E3-4C59-B594-46349A8C2E94}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K1" t="s">
+        <v>965</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F2" t="s">
+        <v>926</v>
+      </c>
+      <c r="H2" t="s">
+        <v>910</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" t="s">
+        <v>983</v>
+      </c>
+      <c r="K2" t="s">
+        <v>983</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587AF566-A887-4275-87B1-A30EC9783CBA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDCEB2C-FEA4-47C9-A2BA-C6F6C1D9E8C4}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312576DE-20E1-4539-A5F7-DE90B104BFEA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -6277,12 +6898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="O14" sqref="M14:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6935,6 +7556,186 @@
         <v>904</v>
       </c>
     </row>
+    <row r="15" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="43">
+        <v>50</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" s="43">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43">
+        <v>50</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>907</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="43">
+        <v>50</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16" s="43">
+        <v>1</v>
+      </c>
+      <c r="K16" s="43">
+        <v>50</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>907</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="43">
+        <v>50</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="J17" s="43">
+        <v>1</v>
+      </c>
+      <c r="K17" s="43">
+        <v>50</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>907</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="43">
+        <v>50</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="43">
+        <v>1</v>
+      </c>
+      <c r="K18" s="43">
+        <v>50</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>907</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42" t="s">
+        <v>904</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -6946,7 +7747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D00D795-343A-499F-9F61-61C2DA9A1658}">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -7661,7 +8462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7B276C-8900-43E0-9171-623741A91B2F}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -8320,11 +9121,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772860E0-987C-4E6A-A63C-53D830B51E86}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -8558,240 +9359,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58E84A1-4518-4C42-9323-DE2E78B6BC37}">
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>965</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>966</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>996</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>464</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>465</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>471</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>469</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>472</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>967</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>968</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>969</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>970</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>986</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E2" t="s">
-        <v>972</v>
-      </c>
-      <c r="F2" t="s">
-        <v>973</v>
-      </c>
-      <c r="G2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J2">
-        <v>1011</v>
-      </c>
-      <c r="K2" t="s">
-        <v>975</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>987</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>998</v>
-      </c>
-      <c r="D3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E3" t="s">
-        <v>972</v>
-      </c>
-      <c r="F3" t="s">
-        <v>973</v>
-      </c>
-      <c r="G3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I3" t="s">
-        <v>389</v>
-      </c>
-      <c r="J3">
-        <v>1011</v>
-      </c>
-      <c r="K3" t="s">
-        <v>979</v>
-      </c>
-      <c r="O3" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>988</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E4" t="s">
-        <v>972</v>
-      </c>
-      <c r="F4" t="s">
-        <v>973</v>
-      </c>
-      <c r="G4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J4">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>989</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>483</v>
-      </c>
-      <c r="E5" t="s">
-        <v>972</v>
-      </c>
-      <c r="F5" t="s">
-        <v>973</v>
-      </c>
-      <c r="G5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H5" t="s">
-        <v>317</v>
-      </c>
-      <c r="I5" t="s">
-        <v>389</v>
-      </c>
-      <c r="J5">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>990</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>483</v>
-      </c>
-      <c r="E6" t="s">
-        <v>972</v>
-      </c>
-      <c r="F6" t="s">
-        <v>973</v>
-      </c>
-      <c r="G6" t="s">
-        <v>318</v>
-      </c>
-      <c r="H6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I6" t="s">
-        <v>389</v>
-      </c>
-      <c r="J6">
-        <v>1011</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9659,6 +10226,240 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58E84A1-4518-4C42-9323-DE2E78B6BC37}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>967</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>969</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>970</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>986</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" t="s">
+        <v>972</v>
+      </c>
+      <c r="F2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2">
+        <v>1011</v>
+      </c>
+      <c r="K2" t="s">
+        <v>975</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>987</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>998</v>
+      </c>
+      <c r="D3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" t="s">
+        <v>972</v>
+      </c>
+      <c r="F3" t="s">
+        <v>973</v>
+      </c>
+      <c r="G3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J3">
+        <v>1011</v>
+      </c>
+      <c r="K3" t="s">
+        <v>979</v>
+      </c>
+      <c r="O3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>988</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" t="s">
+        <v>972</v>
+      </c>
+      <c r="F4" t="s">
+        <v>973</v>
+      </c>
+      <c r="G4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>989</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" t="s">
+        <v>972</v>
+      </c>
+      <c r="F5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H5" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J5">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>990</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E6" t="s">
+        <v>972</v>
+      </c>
+      <c r="F6" t="s">
+        <v>973</v>
+      </c>
+      <c r="G6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" t="s">
+        <v>389</v>
+      </c>
+      <c r="J6">
+        <v>1011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11118,8 +11919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,6 +1,3263 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\BespokeAPI\Data Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120CE075-9B8A-4DD3-889C-5A3F9F6B580F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="1215" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin Delivery " sheetId="2" r:id="rId2"/>
+    <sheet name="Merchant Delivery " sheetId="3" r:id="rId3"/>
+    <sheet name="Seller Name" sheetId="4" r:id="rId4"/>
+    <sheet name="Buyer Name" sheetId="5" r:id="rId5"/>
+    <sheet name="Sub Seller" sheetId="6" r:id="rId6"/>
+    <sheet name="Sub Buyer" sheetId="16" r:id="rId7"/>
+    <sheet name="Custom Fields" sheetId="7" r:id="rId8"/>
+    <sheet name="AllCustomField" sheetId="8" r:id="rId9"/>
+    <sheet name="Admin Onboarding" sheetId="10" r:id="rId10"/>
+    <sheet name="Item List Variants" sheetId="9" r:id="rId11"/>
+    <sheet name="Item List Country" sheetId="11" r:id="rId12"/>
+    <sheet name="Checkout Variants(Spot)" sheetId="12" r:id="rId13"/>
+    <sheet name="Checkout Country(Spot)" sheetId="14" r:id="rId14"/>
+    <sheet name="Checkout Variants(Nego)" sheetId="13" r:id="rId15"/>
+    <sheet name="Checkout Country(Nego)" sheetId="15" r:id="rId16"/>
+    <sheet name="MLC" sheetId="21" r:id="rId17"/>
+  </sheets>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="1070">
+  <si>
+    <t>CategoryNametext</t>
+  </si>
+  <si>
+    <t>ParentName</t>
+  </si>
+  <si>
+    <t>CategoryImageUpload</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category 01</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\1.png</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Category 02</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\2.png</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Category 2.1</t>
+  </si>
+  <si>
+    <t>Description3</t>
+  </si>
+  <si>
+    <t>Category 2.2</t>
+  </si>
+  <si>
+    <t>Description4</t>
+  </si>
+  <si>
+    <t>Category 03</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\3.png</t>
+  </si>
+  <si>
+    <t>Description5</t>
+  </si>
+  <si>
+    <t>Category 3.1</t>
+  </si>
+  <si>
+    <t>Description6</t>
+  </si>
+  <si>
+    <t>Category 3.1.1</t>
+  </si>
+  <si>
+    <t>Description7</t>
+  </si>
+  <si>
+    <t>Category 3.1.2</t>
+  </si>
+  <si>
+    <t>Description8</t>
+  </si>
+  <si>
+    <t>Category 3.2</t>
+  </si>
+  <si>
+    <t>Description9</t>
+  </si>
+  <si>
+    <t>Category 04</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png</t>
+  </si>
+  <si>
+    <t>Description10</t>
+  </si>
+  <si>
+    <t>Category 4.1</t>
+  </si>
+  <si>
+    <t>Description11</t>
+  </si>
+  <si>
+    <t>Category 4.2</t>
+  </si>
+  <si>
+    <t>Description12</t>
+  </si>
+  <si>
+    <t>Category 4.3</t>
+  </si>
+  <si>
+    <t>Description13</t>
+  </si>
+  <si>
+    <t>Category 4.4</t>
+  </si>
+  <si>
+    <t>Description14</t>
+  </si>
+  <si>
+    <t>Category 4.5</t>
+  </si>
+  <si>
+    <t>Description15</t>
+  </si>
+  <si>
+    <t>Category 4.6</t>
+  </si>
+  <si>
+    <t>Description16</t>
+  </si>
+  <si>
+    <t>Category 4.7</t>
+  </si>
+  <si>
+    <t>Description17</t>
+  </si>
+  <si>
+    <t>Category 4.8</t>
+  </si>
+  <si>
+    <t>Description18</t>
+  </si>
+  <si>
+    <t>Category 4.9</t>
+  </si>
+  <si>
+    <t>Description19</t>
+  </si>
+  <si>
+    <t>Category 4.10</t>
+  </si>
+  <si>
+    <t>Description20</t>
+  </si>
+  <si>
+    <t>Category 4.11</t>
+  </si>
+  <si>
+    <t>Description21</t>
+  </si>
+  <si>
+    <t>Category 4.12</t>
+  </si>
+  <si>
+    <t>Description22</t>
+  </si>
+  <si>
+    <t>Category 4.13</t>
+  </si>
+  <si>
+    <t>Description23</t>
+  </si>
+  <si>
+    <t>Category 4.14</t>
+  </si>
+  <si>
+    <t>Description24</t>
+  </si>
+  <si>
+    <t>Category 4.15</t>
+  </si>
+  <si>
+    <t>Description25</t>
+  </si>
+  <si>
+    <t>Category 4.16</t>
+  </si>
+  <si>
+    <t>Description26</t>
+  </si>
+  <si>
+    <t>Category 4.17</t>
+  </si>
+  <si>
+    <t>Description27</t>
+  </si>
+  <si>
+    <t>Category 4.18</t>
+  </si>
+  <si>
+    <t>Description28</t>
+  </si>
+  <si>
+    <t>Category 4.19</t>
+  </si>
+  <si>
+    <t>Description29</t>
+  </si>
+  <si>
+    <t>Category 4.20</t>
+  </si>
+  <si>
+    <t>Description30</t>
+  </si>
+  <si>
+    <t>Category 05</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png</t>
+  </si>
+  <si>
+    <t>Description31</t>
+  </si>
+  <si>
+    <t>Category 5.1</t>
+  </si>
+  <si>
+    <t>Description32</t>
+  </si>
+  <si>
+    <t>Category 5.1.1</t>
+  </si>
+  <si>
+    <t>Description33</t>
+  </si>
+  <si>
+    <t>Category 5.1.2</t>
+  </si>
+  <si>
+    <t>Description34</t>
+  </si>
+  <si>
+    <t>Category 5.1.3</t>
+  </si>
+  <si>
+    <t>Description35</t>
+  </si>
+  <si>
+    <t>Category 5.1.4</t>
+  </si>
+  <si>
+    <t>Description36</t>
+  </si>
+  <si>
+    <t>Category 5.1.5</t>
+  </si>
+  <si>
+    <t>Description37</t>
+  </si>
+  <si>
+    <t>Category 5.1.6</t>
+  </si>
+  <si>
+    <t>Description38</t>
+  </si>
+  <si>
+    <t>Category 5.1.7</t>
+  </si>
+  <si>
+    <t>Description39</t>
+  </si>
+  <si>
+    <t>Category 5.1.8</t>
+  </si>
+  <si>
+    <t>Description40</t>
+  </si>
+  <si>
+    <t>Category 5.1.9</t>
+  </si>
+  <si>
+    <t>Description41</t>
+  </si>
+  <si>
+    <t>Category 5.1.10</t>
+  </si>
+  <si>
+    <t>Description42</t>
+  </si>
+  <si>
+    <t>Category 5.1.11</t>
+  </si>
+  <si>
+    <t>Description43</t>
+  </si>
+  <si>
+    <t>Category 5.1.12</t>
+  </si>
+  <si>
+    <t>Description44</t>
+  </si>
+  <si>
+    <t>Category 5.1.13</t>
+  </si>
+  <si>
+    <t>Description45</t>
+  </si>
+  <si>
+    <t>Category 5.1.14</t>
+  </si>
+  <si>
+    <t>Description46</t>
+  </si>
+  <si>
+    <t>Category 5.1.15</t>
+  </si>
+  <si>
+    <t>Description47</t>
+  </si>
+  <si>
+    <t>Category 5.1.16</t>
+  </si>
+  <si>
+    <t>Description48</t>
+  </si>
+  <si>
+    <t>Category 5.1.17</t>
+  </si>
+  <si>
+    <t>Description49</t>
+  </si>
+  <si>
+    <t>Category 5.1.18</t>
+  </si>
+  <si>
+    <t>Description50</t>
+  </si>
+  <si>
+    <t>Category 5.1.19</t>
+  </si>
+  <si>
+    <t>Description51</t>
+  </si>
+  <si>
+    <t>Category 5.1.20</t>
+  </si>
+  <si>
+    <t>Description52</t>
+  </si>
+  <si>
+    <t>Category 5.2</t>
+  </si>
+  <si>
+    <t>Description53</t>
+  </si>
+  <si>
+    <t>Category 06</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png</t>
+  </si>
+  <si>
+    <t>Description54</t>
+  </si>
+  <si>
+    <t>Category 6.1</t>
+  </si>
+  <si>
+    <t>Description55</t>
+  </si>
+  <si>
+    <t>Category 6.1.1</t>
+  </si>
+  <si>
+    <t>Description56</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1</t>
+  </si>
+  <si>
+    <t>Description57</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description58</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description59</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description60</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description61</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description62</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\7.png</t>
+  </si>
+  <si>
+    <t>Description63</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\8.png</t>
+  </si>
+  <si>
+    <t>Description64</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\9.png</t>
+  </si>
+  <si>
+    <t>Description65</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\10.png</t>
+  </si>
+  <si>
+    <t>Description66</t>
+  </si>
+  <si>
+    <t>Category 11</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\11.png</t>
+  </si>
+  <si>
+    <t>Description67</t>
+  </si>
+  <si>
+    <t>Category 12</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\12.png</t>
+  </si>
+  <si>
+    <t>Description68</t>
+  </si>
+  <si>
+    <t>Category 13</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\13.png</t>
+  </si>
+  <si>
+    <t>Description69</t>
+  </si>
+  <si>
+    <t>Category 14</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\14.png</t>
+  </si>
+  <si>
+    <t>Description70</t>
+  </si>
+  <si>
+    <t>Category 15</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\15.png</t>
+  </si>
+  <si>
+    <t>Description71</t>
+  </si>
+  <si>
+    <t>Category 16</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\16.png</t>
+  </si>
+  <si>
+    <t>Description72</t>
+  </si>
+  <si>
+    <t>Category 17</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\17.png</t>
+  </si>
+  <si>
+    <t>Description73</t>
+  </si>
+  <si>
+    <t>Category 18</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\18.png</t>
+  </si>
+  <si>
+    <t>Description74</t>
+  </si>
+  <si>
+    <t>Category 19</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\19.png</t>
+  </si>
+  <si>
+    <t>Description75</t>
+  </si>
+  <si>
+    <t>Category 20</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\20.png</t>
+  </si>
+  <si>
+    <t>Description76</t>
+  </si>
+  <si>
+    <t>Category Name mAx 021!!@#$%^&amp;!</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\21.png</t>
+  </si>
+  <si>
+    <t>Description77</t>
+  </si>
+  <si>
+    <t>Category For Edit</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\22.png</t>
+  </si>
+  <si>
+    <t>Category For Delete</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\23.png</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>deliveryName</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>from1</t>
+  </si>
+  <si>
+    <t>to1</t>
+  </si>
+  <si>
+    <t>price1</t>
+  </si>
+  <si>
+    <t>from2</t>
+  </si>
+  <si>
+    <t>to2</t>
+  </si>
+  <si>
+    <t>price2</t>
+  </si>
+  <si>
+    <t>from3</t>
+  </si>
+  <si>
+    <t>to3</t>
+  </si>
+  <si>
+    <t>price3</t>
+  </si>
+  <si>
+    <t>from4</t>
+  </si>
+  <si>
+    <t>to4</t>
+  </si>
+  <si>
+    <t>price4</t>
+  </si>
+  <si>
+    <t>from5</t>
+  </si>
+  <si>
+    <t>to5</t>
+  </si>
+  <si>
+    <t>price5</t>
+  </si>
+  <si>
+    <t>from6</t>
+  </si>
+  <si>
+    <t>to6</t>
+  </si>
+  <si>
+    <t>price6</t>
+  </si>
+  <si>
+    <t>from7</t>
+  </si>
+  <si>
+    <t>to7</t>
+  </si>
+  <si>
+    <t>price7</t>
+  </si>
+  <si>
+    <t>from8</t>
+  </si>
+  <si>
+    <t>to8</t>
+  </si>
+  <si>
+    <t>price8</t>
+  </si>
+  <si>
+    <t>from9</t>
+  </si>
+  <si>
+    <t>to9</t>
+  </si>
+  <si>
+    <t>price9</t>
+  </si>
+  <si>
+    <t>from10</t>
+  </si>
+  <si>
+    <t>to10</t>
+  </si>
+  <si>
+    <t>price10</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Delivery 01</t>
+  </si>
+  <si>
+    <t>All Countries</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Delivery 02</t>
+  </si>
+  <si>
+    <t>All Countries (Multiple Selected)</t>
+  </si>
+  <si>
+    <t>Delivery 03</t>
+  </si>
+  <si>
+    <t>Specific Countries (PH, SG, MY)</t>
+  </si>
+  <si>
+    <t>Delivery 04</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Delivery 05</t>
+  </si>
+  <si>
+    <t>Onwards</t>
+  </si>
+  <si>
+    <t>Delivery 06</t>
+  </si>
+  <si>
+    <t>Delivery 07</t>
+  </si>
+  <si>
+    <t>Delivery 08</t>
+  </si>
+  <si>
+    <t>Delivery 09</t>
+  </si>
+  <si>
+    <t>Delivery 10</t>
+  </si>
+  <si>
+    <t>Delivery 11</t>
+  </si>
+  <si>
+    <t>Delivery 12</t>
+  </si>
+  <si>
+    <t>DeliveryMethod</t>
+  </si>
+  <si>
+    <t>Delivery Name</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>MinLeadtime</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>Merchant Delivery A</t>
+  </si>
+  <si>
+    <t>allcountries</t>
+  </si>
+  <si>
+    <t>3 - 5 days</t>
+  </si>
+  <si>
+    <t>Merchant Delivery B</t>
+  </si>
+  <si>
+    <t>Merchant Delivery C</t>
+  </si>
+  <si>
+    <t>multiplecountries</t>
+  </si>
+  <si>
+    <t>2 - 3 days</t>
+  </si>
+  <si>
+    <t>Merchant Delivery D</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>Merchant Delivery E</t>
+  </si>
+  <si>
+    <t>Merchant Delivery F</t>
+  </si>
+  <si>
+    <t>Merchant Delivery G</t>
+  </si>
+  <si>
+    <t>Merchant Delivery H</t>
+  </si>
+  <si>
+    <t>Merchant Delivery I</t>
+  </si>
+  <si>
+    <t>Merchant Delivery J</t>
+  </si>
+  <si>
+    <t>Merchant Delivery K</t>
+  </si>
+  <si>
+    <t>Merchant Delivery L</t>
+  </si>
+  <si>
+    <t>Merchant Delivery Maximum Ch@racters2!#</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>pickup</t>
+  </si>
+  <si>
+    <t>Rufino Pacific Tower</t>
+  </si>
+  <si>
+    <t>Corinthian Plaza</t>
+  </si>
+  <si>
+    <t>Chargoggagoggmanchauggagoggchaubunagungamaugg, United States</t>
+  </si>
+  <si>
+    <t>Taumatawhakatangihangakoauauotamateaturipukakapikimaungahoronukupokaiwhenuakitanatahu, New Zealand's North Island</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Email Notif</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>SellerLocation</t>
+  </si>
+  <si>
+    <t>Addressee Firstname</t>
+  </si>
+  <si>
+    <t>Addressee Lastname</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\1.png</t>
+  </si>
+  <si>
+    <t>I am the first seller.</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Ocampo</t>
+  </si>
+  <si>
+    <t>+63000001</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Serangoon North</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\2.png</t>
+  </si>
+  <si>
+    <t>I am the second seller.</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Behrensmeyer</t>
+  </si>
+  <si>
+    <t>+63000002</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>28 Aliwal Street</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\3.png</t>
+  </si>
+  <si>
+    <t>I am the third seller.</t>
+  </si>
+  <si>
+    <t>Blaise</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>+63000003</t>
+  </si>
+  <si>
+    <t>460 North East Road, Windsor Gardens SA</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\4.png</t>
+  </si>
+  <si>
+    <t>I am the fourth seller.</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Herschel</t>
+  </si>
+  <si>
+    <t>seller_carolineherchel@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000004</t>
+  </si>
+  <si>
+    <t>Makati City</t>
+  </si>
+  <si>
+    <t>Lei Thar Gone Guest House No. 1, Thit-ta-bway Quarter</t>
+  </si>
+  <si>
+    <t>Yenangyaung</t>
+  </si>
+  <si>
+    <t>Magway Region</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\5.png</t>
+  </si>
+  <si>
+    <t>I am the fifth seller.</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Gaposchkin</t>
+  </si>
+  <si>
+    <t>seller_ceciliagaposchkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000005</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>CCP Complex, Roxas Blvd, Pasay</t>
+  </si>
+  <si>
+    <t>Metro Manila</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\6.png</t>
+  </si>
+  <si>
+    <t>I am the sixth seller.</t>
+  </si>
+  <si>
+    <t>Dorothy Ann</t>
+  </si>
+  <si>
+    <t>Hodgkin</t>
+  </si>
+  <si>
+    <t>seller_dorothyannhodgkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000006</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Corner of Ayala and Makati Avenues</t>
+  </si>
+  <si>
+    <t>Makati</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\7.png</t>
+  </si>
+  <si>
+    <t>I am the seventh seller.</t>
+  </si>
+  <si>
+    <t>Edmond</t>
+  </si>
+  <si>
+    <t>Halley</t>
+  </si>
+  <si>
+    <t>seller_edmondhalley@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000007</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Makati Avenue, corner Ayala Ave</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\8.png</t>
+  </si>
+  <si>
+    <t>I am the eight seller.</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Hubble</t>
+  </si>
+  <si>
+    <t>seller_edwinhubble@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000008</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Sagittarius Building111 H.V. Dela Cost</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\9.png</t>
+  </si>
+  <si>
+    <t>I am the ninth seller.</t>
+  </si>
+  <si>
+    <t>Enrico</t>
+  </si>
+  <si>
+    <t>Fermi</t>
+  </si>
+  <si>
+    <t>seller_enricofermi@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000009</t>
+  </si>
+  <si>
+    <t>121 Paseo de Roxas, Legazpi Village</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\10.png</t>
+  </si>
+  <si>
+    <t>I am the tenth seller.</t>
+  </si>
+  <si>
+    <t>Erwin</t>
+  </si>
+  <si>
+    <t>Schroedinger</t>
+  </si>
+  <si>
+    <t>seller_erwinschroedinger@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000010</t>
+  </si>
+  <si>
+    <t>Davao City</t>
+  </si>
+  <si>
+    <t>Jurong East Street 21, 226,</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\11.png</t>
+  </si>
+  <si>
+    <t>I am the eleventh seller.</t>
+  </si>
+  <si>
+    <t>Boysen Isaac</t>
+  </si>
+  <si>
+    <t>Staal</t>
+  </si>
+  <si>
+    <t>seller_boysenisaacstaal@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000011</t>
+  </si>
+  <si>
+    <t>Taguig</t>
+  </si>
+  <si>
+    <t>Braddell, Toa Payoh</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\12.png</t>
+  </si>
+  <si>
+    <t>I am the twelveth seller.</t>
+  </si>
+  <si>
+    <t>Geraldine</t>
+  </si>
+  <si>
+    <t>Seydoux</t>
+  </si>
+  <si>
+    <t>seller_geraldineseydoux@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000012</t>
+  </si>
+  <si>
+    <t>Toa Payoh</t>
+  </si>
+  <si>
+    <t>Bugis, Victoria Street, Rochor</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\13.png</t>
+  </si>
+  <si>
+    <t>I am the thirteenth seller.</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
+    <t>seller_lordkelvin@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000013</t>
+  </si>
+  <si>
+    <t>Batanes</t>
+  </si>
+  <si>
+    <t>Valero St. corner Sedeño St., Salcedo Village</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\14.png</t>
+  </si>
+  <si>
+    <t>I am the fourteenth seller.</t>
+  </si>
+  <si>
+    <t>Ruzena</t>
+  </si>
+  <si>
+    <t>Bajcsy</t>
+  </si>
+  <si>
+    <t>seller_ruzenabajcsy@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000014</t>
+  </si>
+  <si>
+    <t>Pandacan</t>
+  </si>
+  <si>
+    <t>Residencias de Manila Jesus St. Pandacan</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\15.png</t>
+  </si>
+  <si>
+    <t>I am the fifteenth seller.</t>
+  </si>
+  <si>
+    <t>Wilhelm</t>
+  </si>
+  <si>
+    <t>Heisenberg</t>
+  </si>
+  <si>
+    <t>seller_wilhelmheisenberg@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000015</t>
+  </si>
+  <si>
+    <t>Mindoro</t>
+  </si>
+  <si>
+    <t>Rufino Pacific Tower Ayala Ave cor VA Rufino</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\16.png</t>
+  </si>
+  <si>
+    <t>I am the sixteenth seller.</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t>seller_shannonrutherford@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000016</t>
+  </si>
+  <si>
+    <t>Zambales</t>
+  </si>
+  <si>
+    <t>18 Shelford</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\17.png</t>
+  </si>
+  <si>
+    <t>I am the seventeenth seller.</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Una</t>
+  </si>
+  <si>
+    <t>seller_sallyuna@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000017</t>
+  </si>
+  <si>
+    <t>Lipa City</t>
+  </si>
+  <si>
+    <t>1st Cd Division Queensway Camp</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\18.png</t>
+  </si>
+  <si>
+    <t>I am the eighteenth seller.</t>
+  </si>
+  <si>
+    <t>April Joy</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>seller_apriljoypaulina@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000018</t>
+  </si>
+  <si>
+    <t>Ang Mo Kio</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\19.png</t>
+  </si>
+  <si>
+    <t>I am the nineteenth seller.</t>
+  </si>
+  <si>
+    <t>Edmar</t>
+  </si>
+  <si>
+    <t>Cabogos</t>
+  </si>
+  <si>
+    <t>seller_edmarcabugos@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000019</t>
+  </si>
+  <si>
+    <t>Cabog-os</t>
+  </si>
+  <si>
+    <t>Pagoda Rd, Bago</t>
+  </si>
+  <si>
+    <t>Bago</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\20.png</t>
+  </si>
+  <si>
+    <t>I am the twentieth seller.</t>
+  </si>
+  <si>
+    <t>Irha Christine</t>
+  </si>
+  <si>
+    <t>Dela Rosa</t>
+  </si>
+  <si>
+    <t>seller_irhaxtinedelarosa@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000020</t>
+  </si>
+  <si>
+    <t>66 Pyay Rd</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\21.png</t>
+  </si>
+  <si>
+    <t>I am the twenty-first seller.</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Stapleton</t>
+  </si>
+  <si>
+    <t>seller_djstapleton@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000021</t>
+  </si>
+  <si>
+    <t>No.7 - H, Thida Aye Quarter Sitapu</t>
+  </si>
+  <si>
+    <t>Myitkyinā</t>
+  </si>
+  <si>
+    <t>Kachin</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\22.png</t>
+  </si>
+  <si>
+    <t>I am the twen</t>
+  </si>
+  <si>
+    <t>Goldwyn Abcde Qwerty</t>
+  </si>
+  <si>
+    <t>Alphabet Jr.</t>
+  </si>
+  <si>
+    <t>seller_goldwyn@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000022</t>
+  </si>
+  <si>
+    <t>Bogyoke Road, Yone Gyi Quarter, Kantharyar,</t>
+  </si>
+  <si>
+    <t>Monywa</t>
+  </si>
+  <si>
+    <t>Sagaing Region</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\23.png</t>
+  </si>
+  <si>
+    <t>SellerDisable</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>seller_goldwyn1@yopmail.com</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>emailNotif</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Twain</t>
+  </si>
+  <si>
+    <t>+63000023</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>+63000024</t>
+  </si>
+  <si>
+    <t>Agatha Rose</t>
+  </si>
+  <si>
+    <t>Christie</t>
+  </si>
+  <si>
+    <t>buyer_archristie@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000025</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Austen</t>
+  </si>
+  <si>
+    <t>buyer_jnausten@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000026</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Hemingway</t>
+  </si>
+  <si>
+    <t>buyer_ethemingway@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000027</t>
+  </si>
+  <si>
+    <t>Mon Yang Main Road, Kyaing Tong</t>
+  </si>
+  <si>
+    <t>Kengtung</t>
+  </si>
+  <si>
+    <t>Shan</t>
+  </si>
+  <si>
+    <t>Ayn</t>
+  </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>buyer_anrand@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000028</t>
+  </si>
+  <si>
+    <t>Zee Phyu Gone Village, Ngapali, Thandwe</t>
+  </si>
+  <si>
+    <t>Ngapali</t>
+  </si>
+  <si>
+    <t>Rakhine</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Dickens</t>
+  </si>
+  <si>
+    <t>buyer_csdickens@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000029</t>
+  </si>
+  <si>
+    <t>Edgar Allan</t>
+  </si>
+  <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>buyer_enpoe@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000030</t>
+  </si>
+  <si>
+    <t>Osamu</t>
+  </si>
+  <si>
+    <t>Dazai</t>
+  </si>
+  <si>
+    <t>buyer_osdazai@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000031</t>
+  </si>
+  <si>
+    <t>Francis Scott Key</t>
+  </si>
+  <si>
+    <t>Fitzgerald</t>
+  </si>
+  <si>
+    <t>buyer_skfitzgerald@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000032</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>buyer_mtmitchell@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000033</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Goncharov</t>
+  </si>
+  <si>
+    <t>buyer_ingoncharov@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000034</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Pushkin</t>
+  </si>
+  <si>
+    <t>buyer_arpushkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000035</t>
+  </si>
+  <si>
+    <t>Louisa May</t>
+  </si>
+  <si>
+    <t>Alcott</t>
+  </si>
+  <si>
+    <t>buyer_lyalcott@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000036</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>buyer_nlhawthorne@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000037</t>
+  </si>
+  <si>
+    <t>Gin</t>
+  </si>
+  <si>
+    <t>Akutagawa</t>
+  </si>
+  <si>
+    <t>buyer_gnakutagawa@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000038</t>
+  </si>
+  <si>
+    <t>Natsume</t>
+  </si>
+  <si>
+    <t>Soseki</t>
+  </si>
+  <si>
+    <t>buyer_nesoseki@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000039</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Gale</t>
+  </si>
+  <si>
+    <t>buyer_dyfgale@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000040</t>
+  </si>
+  <si>
+    <t>Scarlet</t>
+  </si>
+  <si>
+    <t>O' Hara</t>
+  </si>
+  <si>
+    <t>buyer_stohara@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000041</t>
+  </si>
+  <si>
+    <t>Novena</t>
+  </si>
+  <si>
+    <t>Elle</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>buyer_elwoods@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000042</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Wilkes</t>
+  </si>
+  <si>
+    <t>buyer_anwilkes@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000043</t>
+  </si>
+  <si>
+    <t>buyer_M@xCharacter$1234567890@#$%^&amp;T3$tIng</t>
+  </si>
+  <si>
+    <t>Rose DeWitt</t>
+  </si>
+  <si>
+    <t>Bukater</t>
+  </si>
+  <si>
+    <t>buyer_rtbukater@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000044</t>
+  </si>
+  <si>
+    <t>BuyerDisable</t>
+  </si>
+  <si>
+    <t>buyer_rtbukater1@yopmail.com</t>
+  </si>
+  <si>
+    <t>allCat_Text field_NM1</t>
+  </si>
+  <si>
+    <t>All Cat</t>
+  </si>
+  <si>
+    <t>non-mandatory</t>
+  </si>
+  <si>
+    <t>SP_Text field_M1</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>SPC_Text field_NM1</t>
+  </si>
+  <si>
+    <t>Single Parent w/ child</t>
+  </si>
+  <si>
+    <t>SPG_Text field_NM1</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 !@#$%</t>
+  </si>
+  <si>
+    <t>allCat_Text field_NM2</t>
+  </si>
+  <si>
+    <t>SP_Text field_M2</t>
+  </si>
+  <si>
+    <t>SPC_Text field_NM2</t>
+  </si>
+  <si>
+    <t>SPG_Text field_NM2</t>
+  </si>
+  <si>
+    <t>allCat_Text editor_NM</t>
+  </si>
+  <si>
+    <t>SP_Text Editor_M</t>
+  </si>
+  <si>
+    <t>SPC_Text editor_NM</t>
+  </si>
+  <si>
+    <t>SPG_Text editor_NM</t>
+  </si>
+  <si>
+    <t>allCat_Hyperlink_NM</t>
+  </si>
+  <si>
+    <t>SP_Hyperlink_M</t>
+  </si>
+  <si>
+    <t>SPC_Hyperlink_NM</t>
+  </si>
+  <si>
+    <t>SPG_Hyperlink_NM</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_1</t>
+  </si>
+  <si>
+    <t>allCat_Email_NM</t>
+  </si>
+  <si>
+    <t>SP_Email_M</t>
+  </si>
+  <si>
+    <t>SPC_Email_NM</t>
+  </si>
+  <si>
+    <t>SPG_Email_NM</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_2</t>
+  </si>
+  <si>
+    <t>allCat_Number_NM1</t>
+  </si>
+  <si>
+    <t>SP_Percentage_M</t>
+  </si>
+  <si>
+    <t>SPC_Number_NM1</t>
+  </si>
+  <si>
+    <t>SPG_Number_NM1</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_3</t>
+  </si>
+  <si>
+    <t>allCat_Number_NM2</t>
+  </si>
+  <si>
+    <t>SP_Number_M1</t>
+  </si>
+  <si>
+    <t>SPC_Number_NM2</t>
+  </si>
+  <si>
+    <t>SPG_Number_NM2</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_4</t>
+  </si>
+  <si>
+    <t>allCat_Percentage_NM</t>
+  </si>
+  <si>
+    <t>SP_Number_M2</t>
+  </si>
+  <si>
+    <t>SPC_Percentage_NM</t>
+  </si>
+  <si>
+    <t>SPG_Percentage_NM</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_5</t>
+  </si>
+  <si>
+    <t>allCat_Check Box_NM1</t>
+  </si>
+  <si>
+    <t>SP_Check Box_M1</t>
+  </si>
+  <si>
+    <t>SPC_Check Box_M1</t>
+  </si>
+  <si>
+    <t>SPG_Check Box_M1</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_6</t>
+  </si>
+  <si>
+    <t>allCat_Check Box_NM2</t>
+  </si>
+  <si>
+    <t>SP_Check Box_M2</t>
+  </si>
+  <si>
+    <t>SPC_Check Box_M2</t>
+  </si>
+  <si>
+    <t>SPG_Check Box_M2</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_7</t>
+  </si>
+  <si>
+    <t>allCat_Drop Down_NM1</t>
+  </si>
+  <si>
+    <t>SP_Drop Down_M1</t>
+  </si>
+  <si>
+    <t>SPC_Drop Down_M1</t>
+  </si>
+  <si>
+    <t>SPG_Drop Down_M1</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_8</t>
+  </si>
+  <si>
+    <t>allCat_Drop Down_NM2</t>
+  </si>
+  <si>
+    <t>SP_Drop Down_M2</t>
+  </si>
+  <si>
+    <t>SPC_Drop Down_M2</t>
+  </si>
+  <si>
+    <t>SPG_Drop Down_M2</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_9</t>
+  </si>
+  <si>
+    <t>allCat_Location_NM</t>
+  </si>
+  <si>
+    <t>SP_Location_M</t>
+  </si>
+  <si>
+    <t>SPC_Location_NM</t>
+  </si>
+  <si>
+    <t>SPG_Location_NM</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_10</t>
+  </si>
+  <si>
+    <t>allCat_PDF File_NM</t>
+  </si>
+  <si>
+    <t>SP_Date / Time_Off_M1</t>
+  </si>
+  <si>
+    <t>SPC_PDF File_NM</t>
+  </si>
+  <si>
+    <t>SPG_PDF File_NM</t>
+  </si>
+  <si>
+    <t>allCat_Video_NM</t>
+  </si>
+  <si>
+    <t>SP_Date / Time_On_M2</t>
+  </si>
+  <si>
+    <t>SPC_Video_NM</t>
+  </si>
+  <si>
+    <t>SPG_Video_NM</t>
+  </si>
+  <si>
+    <t>allCat_Date / Time_On_NM</t>
+  </si>
+  <si>
+    <t>SP_PDF_M</t>
+  </si>
+  <si>
+    <t>SPC_Date / Time_On_NM</t>
+  </si>
+  <si>
+    <t>SPG_Date / Time_On_NM</t>
+  </si>
+  <si>
+    <t>allCat_Date / Time_Off_NM</t>
+  </si>
+  <si>
+    <t>SP_Video_M</t>
+  </si>
+  <si>
+    <t>SPC_Date / Time_Off_NM</t>
+  </si>
+  <si>
+    <t>SPG_Date / Time_Off_NM</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB1</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD1</t>
+  </si>
+  <si>
+    <t>SP_M1_CB1</t>
+  </si>
+  <si>
+    <t>SP_M1_DD1</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB1</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD1</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB1</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD1</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB2</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD2</t>
+  </si>
+  <si>
+    <t>SP_M1_CB2</t>
+  </si>
+  <si>
+    <t>SP_M1_DD2</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB2</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD2</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB2</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD2</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB3</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD3</t>
+  </si>
+  <si>
+    <t>SP_M1_CB3</t>
+  </si>
+  <si>
+    <t>SP_M1_DD3</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB3</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD3</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB3</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD3</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB4</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD4</t>
+  </si>
+  <si>
+    <t>SP_M1_CB4</t>
+  </si>
+  <si>
+    <t>SP_M1_DD4</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB4</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD4</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB4</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD4</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB5</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD5</t>
+  </si>
+  <si>
+    <t>SP_M1_CB5</t>
+  </si>
+  <si>
+    <t>SP_M1_DD5</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB5</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD5</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB5</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD5</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB6</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD6</t>
+  </si>
+  <si>
+    <t>SP_M1_CB6</t>
+  </si>
+  <si>
+    <t>SP_M1_DD6</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB6</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD6</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB6</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD6</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB7</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD7</t>
+  </si>
+  <si>
+    <t>SP_M1_CB7</t>
+  </si>
+  <si>
+    <t>SP_M1_DD7</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB7</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD7</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB7</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD7</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB8</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD8</t>
+  </si>
+  <si>
+    <t>SP_M1_CB8</t>
+  </si>
+  <si>
+    <t>SP_M1_DD8</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB8</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD8</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB8</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD8</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB9</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD9</t>
+  </si>
+  <si>
+    <t>SP_M1_CB9</t>
+  </si>
+  <si>
+    <t>SP_M1_DD9</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB9</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD9</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB9</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD9</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB10</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD10</t>
+  </si>
+  <si>
+    <t>SP_M1_CB10</t>
+  </si>
+  <si>
+    <t>SP_M1_DD10</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB10</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD10</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB10</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD10</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB1</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD1</t>
+  </si>
+  <si>
+    <t>SP_M2_CB1</t>
+  </si>
+  <si>
+    <t>SP_M2_DD1</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB1</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD1</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB1</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD1</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB2</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD2</t>
+  </si>
+  <si>
+    <t>SP_M2_CB2</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB2</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD2</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB2</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD2</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB3</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD3</t>
+  </si>
+  <si>
+    <t>SP_M2_CB3</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB3</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD3</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB3</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD3</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB4</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD4</t>
+  </si>
+  <si>
+    <t>SP_M2_CB4</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB4</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD4</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB4</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD4</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB5</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD5</t>
+  </si>
+  <si>
+    <t>SP_M2_CB5</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB5</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD5</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB5</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD5</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB6</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD6</t>
+  </si>
+  <si>
+    <t>SP_M2_CB6</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB6</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD6</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB6</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD6</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB7</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD7</t>
+  </si>
+  <si>
+    <t>SP_M2_CB7</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB7</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD7</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB7</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD7</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB8</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD8</t>
+  </si>
+  <si>
+    <t>SP_M2_CB8</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB8</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD8</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB8</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD8</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB9</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD9</t>
+  </si>
+  <si>
+    <t>SP_M2_CB9</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB9</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD9</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB9</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD9</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB10</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD10</t>
+  </si>
+  <si>
+    <t>SP_M2_CB10</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB10</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD10</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB10</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD10</t>
+  </si>
+  <si>
+    <t>Checkbox (Non-Mandatory)</t>
+  </si>
+  <si>
+    <t>SPC_M@XcHaract#r$30_!@#$%^&amp;123</t>
+  </si>
+  <si>
+    <t>M@X_CB1_!@#$%^&amp;*()1234567890_N0nMandaTory</t>
+  </si>
+  <si>
+    <t>M@X_CB2</t>
+  </si>
+  <si>
+    <t>M@X_CB3</t>
+  </si>
+  <si>
+    <t>M@X_CB4_!@#$%^&amp;*()1234567890_N0nMandaTory</t>
+  </si>
+  <si>
+    <t>M@X_CB5</t>
+  </si>
+  <si>
+    <t>M@X_CB6</t>
+  </si>
+  <si>
+    <t>M@X_CB7_!@#$%^&amp;*()1234567890_N0nMandaTory</t>
+  </si>
+  <si>
+    <t>M@X_CB8</t>
+  </si>
+  <si>
+    <t>M@X_CB9</t>
+  </si>
+  <si>
+    <t>M@X_CB10_!@#$%^&amp;*()1234567890_N0nMandaTory</t>
+  </si>
+  <si>
+    <t>Custom Field Name</t>
+  </si>
+  <si>
+    <t>Custom Field Type</t>
+  </si>
+  <si>
+    <t>Assigned Category</t>
+  </si>
+  <si>
+    <t>MandatoryNonMandatory</t>
+  </si>
+  <si>
+    <t>Text Field</t>
+  </si>
+  <si>
+    <t>Text Editor</t>
+  </si>
+  <si>
+    <t>Hyperlink / URL</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Drop Down</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>PDF File</t>
+  </si>
+  <si>
+    <t>Embed Video</t>
+  </si>
+  <si>
+    <t>Date / Time picker</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Custom Field For Edit</t>
+  </si>
+  <si>
+    <t>Custom Field For Delete</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ItemImage</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Delivery Method</t>
+  </si>
+  <si>
+    <t>allcategory</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item1.jpg</t>
+  </si>
+  <si>
+    <t>Description01</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SKU001</t>
+  </si>
+  <si>
+    <t>Description02</t>
+  </si>
+  <si>
+    <t>SKU002</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>Description03</t>
+  </si>
+  <si>
+    <t>SKU003</t>
+  </si>
+  <si>
+    <t>Description04</t>
+  </si>
+  <si>
+    <t>SKU004</t>
+  </si>
+  <si>
+    <t>Description05</t>
+  </si>
+  <si>
+    <t>SKU005</t>
+  </si>
+  <si>
+    <t>SKU006</t>
+  </si>
+  <si>
+    <t>Description07</t>
+  </si>
+  <si>
+    <t>SKU007</t>
+  </si>
+  <si>
+    <t>Description08</t>
+  </si>
+  <si>
+    <t>SKU008</t>
+  </si>
+  <si>
+    <t>Description09</t>
+  </si>
+  <si>
+    <t>SKU009</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Admin Username</t>
+  </si>
+  <si>
+    <t>Admin Google</t>
+  </si>
+  <si>
+    <t>Admin Facebook</t>
+  </si>
+  <si>
+    <t>Admin Google Pass</t>
+  </si>
+  <si>
+    <t>Admin Facebook Pass</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Coverimage</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Admin Fee</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Strada Statale 130</t>
+  </si>
+  <si>
+    <t>Dorzano, Biella 13881</t>
+  </si>
+  <si>
+    <t>+631234567890</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>arcadierteam@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\logo1.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\coverimage1.jpg</t>
+  </si>
+  <si>
+    <t>Bespoke</t>
+  </si>
+  <si>
+    <t>Theme 1</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>DeliversTo</t>
+  </si>
+  <si>
+    <t>MOQCount</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Bulk Pricing</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Percentage_range1</t>
+  </si>
+  <si>
+    <t>Category 0%</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>weight, price,pickup</t>
+  </si>
+  <si>
+    <t>Category 1%</t>
+  </si>
+  <si>
+    <t>Category 99%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Category 100%</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Non-Mandatory CF</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item2.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item3.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item4.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item5.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item7.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item8.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item9.jpg</t>
+  </si>
+  <si>
+    <t>Item Service</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>nego</t>
+  </si>
+  <si>
+    <t>Description82</t>
+  </si>
+  <si>
+    <t>Description83</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>Category 0% - Bulk Pricing (price)</t>
+  </si>
+  <si>
+    <t>Price_Range1</t>
+  </si>
+  <si>
+    <t>Category 1% - Bulk Pricing (%)</t>
+  </si>
+  <si>
+    <t>Staging</t>
+  </si>
+  <si>
+    <t>0601BP1</t>
+  </si>
+  <si>
+    <t>0601ST1</t>
+  </si>
+  <si>
+    <t>0601SB1</t>
+  </si>
+  <si>
+    <t>0601SB2</t>
+  </si>
+  <si>
+    <t>0601SB3</t>
+  </si>
+  <si>
+    <t>0601SB4</t>
+  </si>
+  <si>
+    <t>0601SB5</t>
+  </si>
+  <si>
+    <t>0601SB6</t>
+  </si>
+  <si>
+    <t>01Seller</t>
+  </si>
+  <si>
+    <t>02Seller</t>
+  </si>
+  <si>
+    <t>03Seller</t>
+  </si>
+  <si>
+    <t>04Seller</t>
+  </si>
+  <si>
+    <t>05Seller</t>
+  </si>
+  <si>
+    <t>06Seller</t>
+  </si>
+  <si>
+    <t>07Seller</t>
+  </si>
+  <si>
+    <t>08Seller</t>
+  </si>
+  <si>
+    <t>09Seller</t>
+  </si>
+  <si>
+    <t>10Seller</t>
+  </si>
+  <si>
+    <t>11Seller</t>
+  </si>
+  <si>
+    <t>12Seller</t>
+  </si>
+  <si>
+    <t>13Seller</t>
+  </si>
+  <si>
+    <t>14Seller</t>
+  </si>
+  <si>
+    <t>15Seller</t>
+  </si>
+  <si>
+    <t>16Seller</t>
+  </si>
+  <si>
+    <t>17Seller</t>
+  </si>
+  <si>
+    <t>18Seller</t>
+  </si>
+  <si>
+    <t>19Seller</t>
+  </si>
+  <si>
+    <t>20Seller</t>
+  </si>
+  <si>
+    <t>21Seller</t>
+  </si>
+  <si>
+    <t>22Seller</t>
+  </si>
+  <si>
+    <t>arcadier.tester1@gmail.com</t>
+  </si>
+  <si>
+    <t>arcadier.tester2@gmail.com</t>
+  </si>
+  <si>
+    <t>arcadier.tester3@gmail.com</t>
+  </si>
+  <si>
+    <t>arcadierteam1@gmail.com</t>
+  </si>
+  <si>
+    <t>arcadierteam2@gmail.com</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>RDM Bldg 2 Jesus St.</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Custom Payment</t>
+  </si>
+  <si>
+    <t>Acknowledged</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash on delivery </t>
+  </si>
+  <si>
+    <t>Cash on delivery</t>
+  </si>
+  <si>
+    <t>Ready for PickUp</t>
+  </si>
+  <si>
+    <t>Collected</t>
+  </si>
+  <si>
+    <t>Mndtry CF</t>
+  </si>
+  <si>
+    <t>Category 0% - W/surcharge (3Variant options)</t>
+  </si>
+  <si>
+    <t>Category 1% - W/ blank surcharge</t>
+  </si>
+  <si>
+    <t>NEGO - Disc Fixed &amp; Charges</t>
+  </si>
+  <si>
+    <t>NEGO - Disc % &amp; Charges</t>
+  </si>
+  <si>
+    <t>NEGO Pending</t>
+  </si>
+  <si>
+    <t>NEGO Cancelled</t>
+  </si>
+  <si>
+    <t>NEGO Rejected</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item10.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item11.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item12.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item13.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item14.jpg</t>
+  </si>
+  <si>
+    <t>nego status</t>
+  </si>
+  <si>
+    <t>AcceptedFixed</t>
+  </si>
+  <si>
+    <t>AcceptedPrcnt</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Offline Payments</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>emailNotification</t>
+  </si>
+  <si>
+    <t>emaiPassword</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>subbuyer_01</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Chui</t>
+  </si>
+  <si>
+    <t>welcome8</t>
+  </si>
+  <si>
+    <t>arcqatester01@gmail.com</t>
+  </si>
+  <si>
+    <t>20_P@s$w0rd</t>
+  </si>
+  <si>
+    <t>Invite Buyer Sub-Account</t>
+  </si>
+  <si>
+    <t>subbuyer_02</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Pendragon</t>
+  </si>
+  <si>
+    <t>arcqatester02@gmail.com</t>
+  </si>
+  <si>
+    <t>subbuyer_03</t>
+  </si>
+  <si>
+    <t>Calcifer</t>
+  </si>
+  <si>
+    <t>Nikiforov</t>
+  </si>
+  <si>
+    <t>arcqatester03@gmail.com</t>
+  </si>
+  <si>
+    <t>subbuyer_04</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Katsuki</t>
+  </si>
+  <si>
+    <t>tlouis041@gmail.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd_041</t>
+  </si>
+  <si>
+    <t>subbuyer_05</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Tomlison</t>
+  </si>
+  <si>
+    <t>ltomlinson348@gmail.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd_348</t>
+  </si>
+  <si>
+    <t>subseller_01</t>
+  </si>
+  <si>
+    <t>subseller_02</t>
+  </si>
+  <si>
+    <t>subseller_03</t>
+  </si>
+  <si>
+    <t>subseller_04</t>
+  </si>
+  <si>
+    <t>subseller_05</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>Makarov</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Bitton</t>
+  </si>
+  <si>
+    <t>Chong Quing</t>
+  </si>
+  <si>
+    <t>InviteSeller Sub-Account</t>
+  </si>
+  <si>
+    <t>01Buyer</t>
+  </si>
+  <si>
+    <t>02Buyer</t>
+  </si>
+  <si>
+    <t>03Buyer</t>
+  </si>
+  <si>
+    <t>04Buyer</t>
+  </si>
+  <si>
+    <t>05Buyer</t>
+  </si>
+  <si>
+    <t>06Buyer</t>
+  </si>
+  <si>
+    <t>20Buyer</t>
+  </si>
+  <si>
+    <t>19Buyer</t>
+  </si>
+  <si>
+    <t>18Buyer</t>
+  </si>
+  <si>
+    <t>17Buyer</t>
+  </si>
+  <si>
+    <t>16Buyer</t>
+  </si>
+  <si>
+    <t>15Buyer</t>
+  </si>
+  <si>
+    <t>14Buyer</t>
+  </si>
+  <si>
+    <t>13Buyer</t>
+  </si>
+  <si>
+    <t>12Buyer</t>
+  </si>
+  <si>
+    <t>11Buyer</t>
+  </si>
+  <si>
+    <t>10Buyer</t>
+  </si>
+  <si>
+    <t>09Buyer</t>
+  </si>
+  <si>
+    <t>08Buyer</t>
+  </si>
+  <si>
+    <t>07Buyer</t>
+  </si>
+  <si>
+    <t>21Buyer</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NEGO Pending</t>
+  </si>
+</sst>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +3534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -415,6 +3672,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,7 +3808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -596,7 +3860,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -790,14 +4054,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
@@ -1935,83 +5199,83 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Katalon\\BespokeAPI\\Images\\Category\\1.png"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C7" r:id="rId6" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C8" r:id="rId7" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C9" r:id="rId8" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C10" r:id="rId9" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C11" r:id="rId10" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C12" r:id="rId11" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C13" r:id="rId12" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C14" r:id="rId13" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C15" r:id="rId14" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C16" r:id="rId15" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C17" r:id="rId16" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C18" r:id="rId17" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C19" r:id="rId18" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C20" r:id="rId19" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C21" r:id="rId20" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C22" r:id="rId21" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C23" r:id="rId22" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C24" r:id="rId23" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C25" r:id="rId24" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C26" r:id="rId25" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C27" r:id="rId26" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C28" r:id="rId27" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C29" r:id="rId28" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C30" r:id="rId29" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C31" r:id="rId30" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C32" r:id="rId31" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C33" r:id="rId32" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C34" r:id="rId33" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C35" r:id="rId34" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C36" r:id="rId35" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C37" r:id="rId36" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C38" r:id="rId37" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C39" r:id="rId38" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C40" r:id="rId39" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C41" r:id="rId40" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C42" r:id="rId41" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C43" r:id="rId42" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C44" r:id="rId43" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C45" r:id="rId44" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C46" r:id="rId45" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C47" r:id="rId46" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C48" r:id="rId47" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C49" r:id="rId48" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C50" r:id="rId49" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C51" r:id="rId50" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C52" r:id="rId51" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C53" r:id="rId52" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C54" r:id="rId53" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C55" r:id="rId54" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C56" r:id="rId55" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C57" r:id="rId56" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C58" r:id="rId57" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C59" r:id="rId58" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C60" r:id="rId59" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C61" r:id="rId60" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C62" r:id="rId61" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C63" r:id="rId62" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C64" r:id="rId63" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C65" r:id="rId64" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C66" r:id="rId65" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C67" r:id="rId66" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C68" r:id="rId67" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C69" r:id="rId68" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C70" r:id="rId69" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C71" r:id="rId70" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C72" r:id="rId71" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C73" r:id="rId72" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C74" r:id="rId73" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C75" r:id="rId74" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C76" r:id="rId75" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C77" r:id="rId76" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C78" r:id="rId77" display="\\Katalon\\BespokeAPI\\Images\\"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Katalon\\BespokeAPI\\Images\\Category\\1.png" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId62" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId63" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId64" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId65" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId66" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId67" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId68" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId76" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2019,7 +5283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2113,13 +5377,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B2" t="s">
         <v>881</v>
       </c>
       <c r="C2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H2" t="s">
         <v>882</v>
@@ -2134,7 +5398,7 @@
         <v>885</v>
       </c>
       <c r="L2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M2" t="s">
         <v>886</v>
@@ -2163,13 +5427,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B3" t="s">
         <v>881</v>
       </c>
       <c r="C3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H3" t="s">
         <v>882</v>
@@ -2184,7 +5448,7 @@
         <v>885</v>
       </c>
       <c r="L3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M3" t="s">
         <v>886</v>
@@ -2213,13 +5477,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B4" t="s">
         <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="H4" t="s">
         <v>882</v>
@@ -2234,7 +5498,7 @@
         <v>885</v>
       </c>
       <c r="L4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="M4" t="s">
         <v>886</v>
@@ -2263,13 +5527,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B5" t="s">
         <v>881</v>
       </c>
       <c r="C5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H5" t="s">
         <v>882</v>
@@ -2284,7 +5548,7 @@
         <v>885</v>
       </c>
       <c r="L5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="M5" t="s">
         <v>886</v>
@@ -2313,13 +5577,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B6" t="s">
         <v>881</v>
       </c>
       <c r="C6" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="H6" t="s">
         <v>882</v>
@@ -2334,7 +5598,7 @@
         <v>885</v>
       </c>
       <c r="L6" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="M6" t="s">
         <v>886</v>
@@ -2363,13 +5627,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B7" t="s">
         <v>881</v>
       </c>
       <c r="C7" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H7" t="s">
         <v>882</v>
@@ -2384,7 +5648,7 @@
         <v>885</v>
       </c>
       <c r="L7" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="M7" t="s">
         <v>886</v>
@@ -2413,13 +5677,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B8" t="s">
         <v>881</v>
       </c>
       <c r="C8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H8" t="s">
         <v>882</v>
@@ -2434,7 +5698,7 @@
         <v>885</v>
       </c>
       <c r="L8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="M8" t="s">
         <v>886</v>
@@ -2463,13 +5727,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B9" t="s">
         <v>881</v>
       </c>
       <c r="C9" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H9" t="s">
         <v>882</v>
@@ -2484,7 +5748,7 @@
         <v>885</v>
       </c>
       <c r="L9" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M9" t="s">
         <v>886</v>
@@ -2519,11 +5783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +5840,7 @@
     </row>
     <row r="2" spans="1:11" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>902</v>
@@ -2605,9 +5869,9 @@
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>1066</v>
+        <v>985</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>905</v>
@@ -2778,7 +6042,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>841</v>
@@ -2848,7 +6112,7 @@
     </row>
     <row r="10" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>902</v>
@@ -2857,7 +6121,7 @@
         <v>921</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>28</v>
@@ -2883,7 +6147,7 @@
     </row>
     <row r="11" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>905</v>
@@ -2892,7 +6156,7 @@
         <v>921</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>30</v>
@@ -2918,7 +6182,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>906</v>
@@ -2927,7 +6191,7 @@
         <v>921</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>32</v>
@@ -2953,7 +6217,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>908</v>
@@ -2962,7 +6226,7 @@
         <v>921</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>34</v>
@@ -2988,7 +6252,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>906</v>
@@ -2997,7 +6261,7 @@
         <v>921</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>36</v>
@@ -3024,16 +6288,16 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,7 +6363,7 @@
     </row>
     <row r="2" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>1067</v>
+        <v>926</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>902</v>
@@ -3138,7 +6402,7 @@
         <v>242</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O2" s="42" t="s">
         <v>904</v>
@@ -3146,7 +6410,7 @@
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
-        <v>1068</v>
+        <v>928</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>905</v>
@@ -3373,7 +6637,7 @@
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>173</v>
@@ -3463,7 +6727,7 @@
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>902</v>
@@ -3472,7 +6736,7 @@
         <v>848</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>28</v>
@@ -3508,7 +6772,7 @@
     </row>
     <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>905</v>
@@ -3517,7 +6781,7 @@
         <v>848</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>30</v>
@@ -3553,7 +6817,7 @@
     </row>
     <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>906</v>
@@ -3562,7 +6826,7 @@
         <v>848</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>32</v>
@@ -3598,7 +6862,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>908</v>
@@ -3607,7 +6871,7 @@
         <v>848</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>34</v>
@@ -3643,7 +6907,7 @@
     </row>
     <row r="14" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>906</v>
@@ -3652,7 +6916,7 @@
         <v>848</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>36</v>
@@ -3698,11 +6962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D00D795-343A-499F-9F61-61C2DA9A1658}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,13 +6979,13 @@
   <sheetData>
     <row r="1" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>464</v>
@@ -3745,24 +7009,24 @@
         <v>472</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -3774,10 +7038,10 @@
         <v>483</v>
       </c>
       <c r="E2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G2" t="s">
         <v>318</v>
@@ -3792,9 +7056,9 @@
         <v>1011</v>
       </c>
       <c r="K2" t="s">
-        <v>978</v>
-      </c>
-      <c r="O2" t="s">
+        <v>980</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>974</v>
       </c>
     </row>
@@ -3812,10 +7076,10 @@
         <v>483</v>
       </c>
       <c r="E3" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G3" t="s">
         <v>318</v>
@@ -3830,15 +7094,15 @@
         <v>1011</v>
       </c>
       <c r="K3" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="O3" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3850,10 +7114,10 @@
         <v>483</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F4" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G4" t="s">
         <v>318</v>
@@ -3868,15 +7132,15 @@
         <v>1011</v>
       </c>
       <c r="K4" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="O4" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3888,10 +7152,10 @@
         <v>483</v>
       </c>
       <c r="E5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F5" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G5" t="s">
         <v>318</v>
@@ -3906,7 +7170,7 @@
         <v>1011</v>
       </c>
       <c r="K5" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="O5" t="s">
         <v>974</v>
@@ -3914,7 +7178,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3926,10 +7190,10 @@
         <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F6" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G6" t="s">
         <v>318</v>
@@ -3944,15 +7208,15 @@
         <v>1011</v>
       </c>
       <c r="K6" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="O6" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3964,10 +7228,10 @@
         <v>483</v>
       </c>
       <c r="E7" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F7" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G7" t="s">
         <v>318</v>
@@ -3982,15 +7246,15 @@
         <v>1011</v>
       </c>
       <c r="K7" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="O7" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4002,10 +7266,10 @@
         <v>483</v>
       </c>
       <c r="E8" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F8" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G8" t="s">
         <v>318</v>
@@ -4020,15 +7284,15 @@
         <v>1011</v>
       </c>
       <c r="K8" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="O8" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4040,10 +7304,10 @@
         <v>483</v>
       </c>
       <c r="E9" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F9" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G9" t="s">
         <v>318</v>
@@ -4058,15 +7322,15 @@
         <v>1011</v>
       </c>
       <c r="K9" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="O9" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -4078,10 +7342,10 @@
         <v>483</v>
       </c>
       <c r="E10" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F10" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G10" t="s">
         <v>318</v>
@@ -4096,10 +7360,10 @@
         <v>1011</v>
       </c>
       <c r="K10" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="O10" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4116,10 +7380,10 @@
         <v>483</v>
       </c>
       <c r="E11" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F11" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G11" t="s">
         <v>318</v>
@@ -4134,15 +7398,15 @@
         <v>1011</v>
       </c>
       <c r="K11" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="O11" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4154,10 +7418,10 @@
         <v>483</v>
       </c>
       <c r="E12" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F12" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G12" t="s">
         <v>318</v>
@@ -4172,15 +7436,15 @@
         <v>1011</v>
       </c>
       <c r="K12" t="s">
+        <v>980</v>
+      </c>
+      <c r="O12" t="s">
         <v>978</v>
-      </c>
-      <c r="O12" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -4192,10 +7456,10 @@
         <v>483</v>
       </c>
       <c r="E13" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F13" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G13" t="s">
         <v>318</v>
@@ -4210,10 +7474,10 @@
         <v>1011</v>
       </c>
       <c r="K13" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="O13" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4230,10 +7494,10 @@
         <v>483</v>
       </c>
       <c r="E14" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F14" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G14" t="s">
         <v>318</v>
@@ -4248,15 +7512,15 @@
         <v>1011</v>
       </c>
       <c r="K14" t="s">
+        <v>980</v>
+      </c>
+      <c r="O14" t="s">
         <v>978</v>
-      </c>
-      <c r="O14" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4268,10 +7532,10 @@
         <v>483</v>
       </c>
       <c r="E15" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F15" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G15" t="s">
         <v>318</v>
@@ -4286,15 +7550,15 @@
         <v>1011</v>
       </c>
       <c r="K15" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="O15" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -4306,10 +7570,10 @@
         <v>483</v>
       </c>
       <c r="E16" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F16" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G16" t="s">
         <v>318</v>
@@ -4324,10 +7588,10 @@
         <v>1011</v>
       </c>
       <c r="K16" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="O16" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4344,10 +7608,10 @@
         <v>483</v>
       </c>
       <c r="E17" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F17" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G17" t="s">
         <v>318</v>
@@ -4362,15 +7626,15 @@
         <v>1011</v>
       </c>
       <c r="K17" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="O17" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -4382,10 +7646,10 @@
         <v>483</v>
       </c>
       <c r="E18" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F18" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G18" t="s">
         <v>318</v>
@@ -4400,24 +7664,24 @@
         <v>1011</v>
       </c>
       <c r="K18" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="O18" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7B276C-8900-43E0-9171-623741A91B2F}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4429,10 +7693,10 @@
   <sheetData>
     <row r="1" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C1" s="53" t="s">
         <v>464</v>
@@ -4456,24 +7720,24 @@
         <v>472</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -4482,10 +7746,10 @@
         <v>483</v>
       </c>
       <c r="D2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F2" t="s">
         <v>318</v>
@@ -4500,10 +7764,10 @@
         <v>1011</v>
       </c>
       <c r="J2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4517,10 +7781,10 @@
         <v>483</v>
       </c>
       <c r="D3" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F3" t="s">
         <v>318</v>
@@ -4535,15 +7799,15 @@
         <v>1011</v>
       </c>
       <c r="J3" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="N3" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -4552,10 +7816,10 @@
         <v>483</v>
       </c>
       <c r="D4" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E4" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F4" t="s">
         <v>318</v>
@@ -4570,15 +7834,15 @@
         <v>1011</v>
       </c>
       <c r="J4" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="N4" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -4587,10 +7851,10 @@
         <v>483</v>
       </c>
       <c r="D5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F5" t="s">
         <v>318</v>
@@ -4605,15 +7869,15 @@
         <v>1011</v>
       </c>
       <c r="J5" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="N5" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -4622,10 +7886,10 @@
         <v>483</v>
       </c>
       <c r="D6" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E6" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F6" t="s">
         <v>318</v>
@@ -4640,15 +7904,15 @@
         <v>1011</v>
       </c>
       <c r="J6" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="N6" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -4657,10 +7921,10 @@
         <v>483</v>
       </c>
       <c r="D7" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E7" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F7" t="s">
         <v>318</v>
@@ -4675,15 +7939,15 @@
         <v>1011</v>
       </c>
       <c r="J7" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="N7" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -4692,10 +7956,10 @@
         <v>483</v>
       </c>
       <c r="D8" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E8" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F8" t="s">
         <v>318</v>
@@ -4710,15 +7974,15 @@
         <v>1011</v>
       </c>
       <c r="J8" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="N8" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -4727,10 +7991,10 @@
         <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E9" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F9" t="s">
         <v>318</v>
@@ -4745,15 +8009,15 @@
         <v>1011</v>
       </c>
       <c r="J9" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="N9" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -4762,10 +8026,10 @@
         <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E10" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F10" t="s">
         <v>318</v>
@@ -4780,10 +8044,10 @@
         <v>1011</v>
       </c>
       <c r="J10" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="N10" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -4797,10 +8061,10 @@
         <v>483</v>
       </c>
       <c r="D11" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E11" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F11" t="s">
         <v>318</v>
@@ -4815,15 +8079,15 @@
         <v>1011</v>
       </c>
       <c r="J11" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="N11" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -4832,10 +8096,10 @@
         <v>483</v>
       </c>
       <c r="D12" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E12" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F12" t="s">
         <v>318</v>
@@ -4850,15 +8114,15 @@
         <v>1011</v>
       </c>
       <c r="J12" t="s">
+        <v>980</v>
+      </c>
+      <c r="N12" t="s">
         <v>978</v>
-      </c>
-      <c r="N12" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -4867,10 +8131,10 @@
         <v>483</v>
       </c>
       <c r="D13" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E13" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F13" t="s">
         <v>318</v>
@@ -4885,10 +8149,10 @@
         <v>1011</v>
       </c>
       <c r="J13" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="N13" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -4902,10 +8166,10 @@
         <v>483</v>
       </c>
       <c r="D14" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E14" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F14" t="s">
         <v>318</v>
@@ -4920,15 +8184,15 @@
         <v>1011</v>
       </c>
       <c r="J14" t="s">
+        <v>980</v>
+      </c>
+      <c r="N14" t="s">
         <v>978</v>
-      </c>
-      <c r="N14" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -4937,10 +8201,10 @@
         <v>483</v>
       </c>
       <c r="D15" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E15" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F15" t="s">
         <v>318</v>
@@ -4955,15 +8219,15 @@
         <v>1011</v>
       </c>
       <c r="J15" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="N15" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -4972,10 +8236,10 @@
         <v>483</v>
       </c>
       <c r="D16" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E16" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F16" t="s">
         <v>318</v>
@@ -4990,10 +8254,10 @@
         <v>1011</v>
       </c>
       <c r="J16" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="N16" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -5007,10 +8271,10 @@
         <v>483</v>
       </c>
       <c r="D17" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E17" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F17" t="s">
         <v>318</v>
@@ -5025,15 +8289,15 @@
         <v>1011</v>
       </c>
       <c r="J17" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="N17" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -5042,10 +8306,10 @@
         <v>483</v>
       </c>
       <c r="D18" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E18" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F18" t="s">
         <v>318</v>
@@ -5060,10 +8324,10 @@
         <v>1011</v>
       </c>
       <c r="J18" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="N18" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -5072,11 +8336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772860E0-987C-4E6A-A63C-53D830B51E86}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5089,13 +8353,13 @@
   <sheetData>
     <row r="1" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>464</v>
@@ -5119,39 +8383,39 @@
         <v>472</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D2" t="s">
         <v>483</v>
       </c>
       <c r="E2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G2" t="s">
         <v>318</v>
@@ -5166,30 +8430,30 @@
         <v>1011</v>
       </c>
       <c r="K2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D3" t="s">
         <v>483</v>
       </c>
       <c r="E3" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G3" t="s">
         <v>318</v>
@@ -5204,30 +8468,30 @@
         <v>1011</v>
       </c>
       <c r="K3" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="O3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D4" t="s">
         <v>483</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F4" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G4" t="s">
         <v>318</v>
@@ -5244,22 +8508,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
         <v>483</v>
       </c>
       <c r="E5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F5" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G5" t="s">
         <v>318</v>
@@ -5276,22 +8540,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D6" t="s">
         <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F6" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G6" t="s">
         <v>318</v>
@@ -5308,12 +8572,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58E84A1-4518-4C42-9323-DE2E78B6BC37}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5324,13 +8588,13 @@
   <sheetData>
     <row r="1" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>464</v>
@@ -5354,39 +8618,39 @@
         <v>472</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D2" t="s">
         <v>483</v>
       </c>
       <c r="E2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G2" t="s">
         <v>318</v>
@@ -5401,30 +8665,30 @@
         <v>1011</v>
       </c>
       <c r="K2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D3" t="s">
         <v>483</v>
       </c>
       <c r="E3" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G3" t="s">
         <v>318</v>
@@ -5439,30 +8703,30 @@
         <v>1011</v>
       </c>
       <c r="K3" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="O3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D4" t="s">
         <v>483</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F4" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G4" t="s">
         <v>318</v>
@@ -5479,22 +8743,22 @@
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
         <v>483</v>
       </c>
       <c r="E5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F5" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G5" t="s">
         <v>318</v>
@@ -5511,22 +8775,22 @@
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D6" t="s">
         <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F6" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G6" t="s">
         <v>318</v>
@@ -5546,8 +8810,2671 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1852D31-E97A-4185-A1D2-0A38320741DB}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>967</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>969</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>970</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>908</v>
+      </c>
+      <c r="B2" s="59">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I2" s="59">
+        <v>1011</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="N2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>908</v>
+      </c>
+      <c r="B3" s="59">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I3" s="59">
+        <v>1011</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B4" s="59">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I4" s="59">
+        <v>1011</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>979</v>
+      </c>
+      <c r="N4" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B5" s="59">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>844</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" s="59">
+        <v>1011</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>975</v>
+      </c>
+      <c r="N5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="B6" s="59">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>862</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I6" s="59">
+        <v>1011</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>979</v>
+      </c>
+      <c r="N6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="B7" s="59">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>862</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I7" s="59">
+        <v>1011</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="B8" s="59">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>862</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I8" s="59">
+        <v>1011</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>979</v>
+      </c>
+      <c r="N8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>862</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I9" s="59">
+        <v>1011</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>975</v>
+      </c>
+      <c r="N9" t="s">
+        <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="5" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20.75</v>
+      </c>
+      <c r="F2" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20.76</v>
+      </c>
+      <c r="H2" s="5">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>40.01</v>
+      </c>
+      <c r="K2" s="5">
+        <v>60.75</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45.25</v>
+      </c>
+      <c r="M2" s="5">
+        <v>60.76</v>
+      </c>
+      <c r="N2" s="5">
+        <v>80</v>
+      </c>
+      <c r="O2" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="P2" s="5">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>100.75</v>
+      </c>
+      <c r="R2" s="5">
+        <v>75.25</v>
+      </c>
+      <c r="S2" s="5">
+        <v>100.76</v>
+      </c>
+      <c r="T2" s="5">
+        <v>120</v>
+      </c>
+      <c r="U2" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="V2" s="5">
+        <v>120.01</v>
+      </c>
+      <c r="W2" s="5">
+        <v>140.75</v>
+      </c>
+      <c r="X2" s="5">
+        <v>105.25</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>140.76</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>160</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>160.01</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>180.75</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>135.25</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>180.76</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>200</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>150.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20.25</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="5">
+        <v>40.25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L3" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3001</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O3" s="5">
+        <v>80.25</v>
+      </c>
+      <c r="P3" s="5">
+        <v>4001</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="R3" s="5">
+        <v>100.25</v>
+      </c>
+      <c r="S3" s="5">
+        <v>5001</v>
+      </c>
+      <c r="T3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="U3" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="V3" s="5">
+        <v>6001</v>
+      </c>
+      <c r="W3" s="5">
+        <v>7000</v>
+      </c>
+      <c r="X3" s="5">
+        <v>140.25</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>7001</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>8000</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>160.25</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>8001</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>9000</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>180.25</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>9001</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>200.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20.75</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15.25</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20.76</v>
+      </c>
+      <c r="H4" s="6">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6">
+        <v>30.25</v>
+      </c>
+      <c r="J4" s="6">
+        <v>40.01</v>
+      </c>
+      <c r="K4" s="6">
+        <v>60.75</v>
+      </c>
+      <c r="L4" s="6">
+        <v>45.25</v>
+      </c>
+      <c r="M4" s="6">
+        <v>60.76</v>
+      </c>
+      <c r="N4" s="6">
+        <v>80</v>
+      </c>
+      <c r="O4" s="6">
+        <v>60.25</v>
+      </c>
+      <c r="P4" s="6">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>100.75</v>
+      </c>
+      <c r="R4" s="6">
+        <v>75.25</v>
+      </c>
+      <c r="S4" s="6">
+        <v>100.76</v>
+      </c>
+      <c r="T4" s="6">
+        <v>120</v>
+      </c>
+      <c r="U4" s="6">
+        <v>90.25</v>
+      </c>
+      <c r="V4" s="6">
+        <v>120.01</v>
+      </c>
+      <c r="W4" s="6">
+        <v>140.75</v>
+      </c>
+      <c r="X4" s="6">
+        <v>105.25</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>140.76</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>160</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>120.25</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>160.01</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>180.75</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>135.25</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>180.76</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>200</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>150.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20.25</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="5">
+        <v>40.25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3001</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O5" s="5">
+        <v>80.25</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4001</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="R5" s="5">
+        <v>100.25</v>
+      </c>
+      <c r="S5" s="5">
+        <v>5001</v>
+      </c>
+      <c r="T5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="U5" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="V5" s="5">
+        <v>6001</v>
+      </c>
+      <c r="W5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="X5" s="5">
+        <v>140.25</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>7001</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>8000</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>160.25</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>8001</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>9000</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>180.25</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>9001</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>200.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="5">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="5">
+        <v>150.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20.75</v>
+      </c>
+      <c r="F10" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="G10" s="5">
+        <v>20.76</v>
+      </c>
+      <c r="H10" s="5">
+        <v>40</v>
+      </c>
+      <c r="I10" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="J10" s="5">
+        <v>40.01</v>
+      </c>
+      <c r="K10" s="5">
+        <v>60.75</v>
+      </c>
+      <c r="L10" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="M10" s="5">
+        <v>60.76</v>
+      </c>
+      <c r="N10" s="5">
+        <v>80</v>
+      </c>
+      <c r="O10" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="P10" s="5">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>100.75</v>
+      </c>
+      <c r="R10" s="5">
+        <v>150.25</v>
+      </c>
+      <c r="S10" s="5">
+        <v>100.76</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U10" s="5">
+        <v>175.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L11" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3001</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O11" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="P11" s="5">
+        <v>4001</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>5000</v>
+      </c>
+      <c r="R11" s="5">
+        <v>175.25</v>
+      </c>
+      <c r="S11" s="5">
+        <v>5001</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U11" s="5">
+        <v>175.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20.75</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="G12" s="5">
+        <v>20.76</v>
+      </c>
+      <c r="H12" s="5">
+        <v>40</v>
+      </c>
+      <c r="I12" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="J12" s="5">
+        <v>40.01</v>
+      </c>
+      <c r="K12" s="5">
+        <v>60.75</v>
+      </c>
+      <c r="L12" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="M12" s="5">
+        <v>60.76</v>
+      </c>
+      <c r="N12" s="5">
+        <v>80</v>
+      </c>
+      <c r="O12" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="P12" s="5">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>100.75</v>
+      </c>
+      <c r="R12" s="5">
+        <v>150.25</v>
+      </c>
+      <c r="S12" s="5">
+        <v>100.76</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U12" s="5">
+        <v>175.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3001</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O13" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="P13" s="5">
+        <v>4001</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>5000</v>
+      </c>
+      <c r="R13" s="5">
+        <v>175.25</v>
+      </c>
+      <c r="S13" s="5">
+        <v>5001</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U13" s="5">
+        <v>175.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="7" customWidth="1"/>
+    <col min="6" max="1025" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" s="15">
+        <v>956425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>939</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>961</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O3" s="15">
+        <v>666656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>940</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>962</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O4" s="15">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>941</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O5" s="15">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>942</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>943</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>944</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O8" s="15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>945</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>946</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O10" s="15">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O11" s="15">
+        <v>600226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>948</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O12" s="15">
+        <v>856954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>949</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O13" s="15">
+        <v>544587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>950</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>951</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>952</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O16" s="15">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>953</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O17" s="15">
+        <v>468484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O18" s="15">
+        <v>546465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O19" s="15">
+        <v>656656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>956</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O20" s="15">
+        <v>11081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O21" s="15">
+        <v>11191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O22" s="15">
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O23" s="15">
+        <v>11121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O24" s="15">
+        <v>11121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{83AC0CF3-DBC3-4135-8C73-83246C0D8BAB}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{52C5CAB4-7C0D-4E8C-B7A0-828BF9983A69}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{7F4FC6AC-621C-4036-8257-B91E1E01BC28}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -5604,7 +11531,7 @@
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>276</v>
@@ -5616,7 +11543,7 @@
         <v>474</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>475</v>
@@ -5639,7 +11566,7 @@
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>285</v>
@@ -5651,7 +11578,7 @@
         <v>477</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>478</v>
@@ -5674,7 +11601,7 @@
     </row>
     <row r="4" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>292</v>
@@ -5709,7 +11636,7 @@
     </row>
     <row r="5" spans="1:11" s="21" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>299</v>
@@ -5744,7 +11671,7 @@
     </row>
     <row r="6" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>309</v>
@@ -5779,7 +11706,7 @@
     </row>
     <row r="7" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>319</v>
@@ -5814,7 +11741,7 @@
     </row>
     <row r="8" spans="1:11" s="21" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>328</v>
@@ -5849,7 +11776,7 @@
     </row>
     <row r="9" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>336</v>
@@ -5884,7 +11811,7 @@
     </row>
     <row r="10" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>344</v>
@@ -5919,7 +11846,7 @@
     </row>
     <row r="11" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>351</v>
@@ -5954,7 +11881,7 @@
     </row>
     <row r="12" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>359</v>
@@ -5989,7 +11916,7 @@
     </row>
     <row r="13" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>367</v>
@@ -6024,7 +11951,7 @@
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>375</v>
@@ -6059,7 +11986,7 @@
     </row>
     <row r="15" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>383</v>
@@ -6094,7 +12021,7 @@
     </row>
     <row r="16" spans="1:11" s="21" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>392</v>
@@ -6129,7 +12056,7 @@
     </row>
     <row r="17" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>400</v>
@@ -6164,7 +12091,7 @@
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>408</v>
@@ -6199,7 +12126,7 @@
     </row>
     <row r="19" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>416</v>
@@ -6234,7 +12161,7 @@
     </row>
     <row r="20" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>423</v>
@@ -6269,7 +12196,7 @@
     </row>
     <row r="21" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>433</v>
@@ -6304,7 +12231,7 @@
     </row>
     <row r="22" spans="1:11" s="21" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>441</v>
@@ -6410,9 +12337,9 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{DB7078A1-E190-4D05-A09C-670919D793B0}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{A424FD25-8A0F-469F-81D1-77B952CB5590}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -6420,7 +12347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6439,7 +12366,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B1" t="s">
         <v>464</v>
@@ -6448,145 +12375,145 @@
         <v>465</v>
       </c>
       <c r="D1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C2" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G2" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B3" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D3" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G3" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B4" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C4" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G4" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B5" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C5" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D5" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="G5" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B6" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C6" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D6" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G6" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="F3:F4" r:id="rId5" display="20_P@s$w0rd"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B10D00F2-9946-476F-BB80-0A4788D27ACD}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4338B5C1-CBDF-4A76-AD3F-2733324386F3}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{0E94468F-AC61-42B7-9C83-B527E993C819}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{C43C4FEF-5CAA-4BE7-AA83-1EBFE6D74537}"/>
+    <hyperlink ref="F3:F4" r:id="rId5" display="20_P@s$w0rd" xr:uid="{D257E6BA-292C-4B7B-A140-8358E0D5C9AE}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{D676F283-81F3-4ABC-A0A8-70541D5715CF}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{3AF4A3BE-D20D-4ED2-AA2C-ECF70195BBF2}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{C8B59CBE-DB47-48D8-AA01-D820CCB62289}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{9DED047A-A240-45BD-B4B5-E342A9AE8DAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6594,7 +12521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF73CFBE-DD50-472F-9ACD-6503C1B8F355}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6612,7 +12539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B1" t="s">
         <v>464</v>
@@ -6621,151 +12548,151 @@
         <v>465</v>
       </c>
       <c r="D1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>1015</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>1016</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C4" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G4" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C5" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D5" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="G5" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B6" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C6" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D6" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G6" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="F3:F4" r:id="rId5" display="20_P@s$w0rd"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DCF89373-E9C5-4CA8-AE76-32CFF11840F6}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{29455C94-8306-4B79-92C1-4A1167471FC5}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{1BFB9012-A457-4AB2-8ED7-A873D28AE80B}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{2F2B0901-3175-4EA8-A3B8-818ABB6A38CB}"/>
+    <hyperlink ref="F3:F4" r:id="rId5" display="20_P@s$w0rd" xr:uid="{55F99453-2678-4B60-8361-AD3A1FEA7711}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{E4387658-30A0-4779-BA61-AA45A3DCF72F}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{0AC2E8F6-9F64-47D2-8AB7-D4938D882C5A}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{DD330E3B-6B36-4DEE-92BE-F4E337A6C651}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{0982A8C7-8AB9-40F0-9EB6-CA5C20DC221A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Z59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9226,7 +15153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,6 +1,3258 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\OneDrive\Documents\Files\BPAPI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A84E45-F94B-4F5D-A108-399BDCE0D73C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin Delivery " sheetId="2" r:id="rId2"/>
+    <sheet name="Merchant Delivery " sheetId="3" r:id="rId3"/>
+    <sheet name="Seller Name" sheetId="4" r:id="rId4"/>
+    <sheet name="Buyer Name" sheetId="5" r:id="rId5"/>
+    <sheet name="Sub Seller" sheetId="6" r:id="rId6"/>
+    <sheet name="Sub Buyer" sheetId="16" r:id="rId7"/>
+    <sheet name="Custom Fields" sheetId="7" r:id="rId8"/>
+    <sheet name="AllCustomField" sheetId="8" r:id="rId9"/>
+    <sheet name="Admin Onboarding" sheetId="10" r:id="rId10"/>
+    <sheet name="Item List Variants" sheetId="9" r:id="rId11"/>
+    <sheet name="Item List Country" sheetId="11" r:id="rId12"/>
+    <sheet name="Checkout Variants(Spot)" sheetId="12" r:id="rId13"/>
+    <sheet name="Checkout Country(Spot)" sheetId="14" r:id="rId14"/>
+    <sheet name="Checkout Variants(Nego)" sheetId="13" r:id="rId15"/>
+    <sheet name="Checkout Country(Nego)" sheetId="15" r:id="rId16"/>
+  </sheets>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1069">
+  <si>
+    <t>CategoryNametext</t>
+  </si>
+  <si>
+    <t>ParentName</t>
+  </si>
+  <si>
+    <t>CategoryImageUpload</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category 01</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\1.png</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Category 02</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\2.png</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Category 2.1</t>
+  </si>
+  <si>
+    <t>Description3</t>
+  </si>
+  <si>
+    <t>Category 2.2</t>
+  </si>
+  <si>
+    <t>Description4</t>
+  </si>
+  <si>
+    <t>Category 03</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\3.png</t>
+  </si>
+  <si>
+    <t>Description5</t>
+  </si>
+  <si>
+    <t>Category 3.1</t>
+  </si>
+  <si>
+    <t>Description6</t>
+  </si>
+  <si>
+    <t>Category 3.1.1</t>
+  </si>
+  <si>
+    <t>Description7</t>
+  </si>
+  <si>
+    <t>Category 3.1.2</t>
+  </si>
+  <si>
+    <t>Description8</t>
+  </si>
+  <si>
+    <t>Category 3.2</t>
+  </si>
+  <si>
+    <t>Description9</t>
+  </si>
+  <si>
+    <t>Category 04</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\4.png</t>
+  </si>
+  <si>
+    <t>Description10</t>
+  </si>
+  <si>
+    <t>Category 4.1</t>
+  </si>
+  <si>
+    <t>Description11</t>
+  </si>
+  <si>
+    <t>Category 4.2</t>
+  </si>
+  <si>
+    <t>Description12</t>
+  </si>
+  <si>
+    <t>Category 4.3</t>
+  </si>
+  <si>
+    <t>Description13</t>
+  </si>
+  <si>
+    <t>Category 4.4</t>
+  </si>
+  <si>
+    <t>Description14</t>
+  </si>
+  <si>
+    <t>Category 4.5</t>
+  </si>
+  <si>
+    <t>Description15</t>
+  </si>
+  <si>
+    <t>Category 4.6</t>
+  </si>
+  <si>
+    <t>Description16</t>
+  </si>
+  <si>
+    <t>Category 4.7</t>
+  </si>
+  <si>
+    <t>Description17</t>
+  </si>
+  <si>
+    <t>Category 4.8</t>
+  </si>
+  <si>
+    <t>Description18</t>
+  </si>
+  <si>
+    <t>Category 4.9</t>
+  </si>
+  <si>
+    <t>Description19</t>
+  </si>
+  <si>
+    <t>Category 4.10</t>
+  </si>
+  <si>
+    <t>Description20</t>
+  </si>
+  <si>
+    <t>Category 4.11</t>
+  </si>
+  <si>
+    <t>Description21</t>
+  </si>
+  <si>
+    <t>Category 4.12</t>
+  </si>
+  <si>
+    <t>Description22</t>
+  </si>
+  <si>
+    <t>Category 4.13</t>
+  </si>
+  <si>
+    <t>Description23</t>
+  </si>
+  <si>
+    <t>Category 4.14</t>
+  </si>
+  <si>
+    <t>Description24</t>
+  </si>
+  <si>
+    <t>Category 4.15</t>
+  </si>
+  <si>
+    <t>Description25</t>
+  </si>
+  <si>
+    <t>Category 4.16</t>
+  </si>
+  <si>
+    <t>Description26</t>
+  </si>
+  <si>
+    <t>Category 4.17</t>
+  </si>
+  <si>
+    <t>Description27</t>
+  </si>
+  <si>
+    <t>Category 4.18</t>
+  </si>
+  <si>
+    <t>Description28</t>
+  </si>
+  <si>
+    <t>Category 4.19</t>
+  </si>
+  <si>
+    <t>Description29</t>
+  </si>
+  <si>
+    <t>Category 4.20</t>
+  </si>
+  <si>
+    <t>Description30</t>
+  </si>
+  <si>
+    <t>Category 05</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\5.png</t>
+  </si>
+  <si>
+    <t>Description31</t>
+  </si>
+  <si>
+    <t>Category 5.1</t>
+  </si>
+  <si>
+    <t>Description32</t>
+  </si>
+  <si>
+    <t>Category 5.1.1</t>
+  </si>
+  <si>
+    <t>Description33</t>
+  </si>
+  <si>
+    <t>Category 5.1.2</t>
+  </si>
+  <si>
+    <t>Description34</t>
+  </si>
+  <si>
+    <t>Category 5.1.3</t>
+  </si>
+  <si>
+    <t>Description35</t>
+  </si>
+  <si>
+    <t>Category 5.1.4</t>
+  </si>
+  <si>
+    <t>Description36</t>
+  </si>
+  <si>
+    <t>Category 5.1.5</t>
+  </si>
+  <si>
+    <t>Description37</t>
+  </si>
+  <si>
+    <t>Category 5.1.6</t>
+  </si>
+  <si>
+    <t>Description38</t>
+  </si>
+  <si>
+    <t>Category 5.1.7</t>
+  </si>
+  <si>
+    <t>Description39</t>
+  </si>
+  <si>
+    <t>Category 5.1.8</t>
+  </si>
+  <si>
+    <t>Description40</t>
+  </si>
+  <si>
+    <t>Category 5.1.9</t>
+  </si>
+  <si>
+    <t>Description41</t>
+  </si>
+  <si>
+    <t>Category 5.1.10</t>
+  </si>
+  <si>
+    <t>Description42</t>
+  </si>
+  <si>
+    <t>Category 5.1.11</t>
+  </si>
+  <si>
+    <t>Description43</t>
+  </si>
+  <si>
+    <t>Category 5.1.12</t>
+  </si>
+  <si>
+    <t>Description44</t>
+  </si>
+  <si>
+    <t>Category 5.1.13</t>
+  </si>
+  <si>
+    <t>Description45</t>
+  </si>
+  <si>
+    <t>Category 5.1.14</t>
+  </si>
+  <si>
+    <t>Description46</t>
+  </si>
+  <si>
+    <t>Category 5.1.15</t>
+  </si>
+  <si>
+    <t>Description47</t>
+  </si>
+  <si>
+    <t>Category 5.1.16</t>
+  </si>
+  <si>
+    <t>Description48</t>
+  </si>
+  <si>
+    <t>Category 5.1.17</t>
+  </si>
+  <si>
+    <t>Description49</t>
+  </si>
+  <si>
+    <t>Category 5.1.18</t>
+  </si>
+  <si>
+    <t>Description50</t>
+  </si>
+  <si>
+    <t>Category 5.1.19</t>
+  </si>
+  <si>
+    <t>Description51</t>
+  </si>
+  <si>
+    <t>Category 5.1.20</t>
+  </si>
+  <si>
+    <t>Description52</t>
+  </si>
+  <si>
+    <t>Category 5.2</t>
+  </si>
+  <si>
+    <t>Description53</t>
+  </si>
+  <si>
+    <t>Category 06</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\6.png</t>
+  </si>
+  <si>
+    <t>Description54</t>
+  </si>
+  <si>
+    <t>Category 6.1</t>
+  </si>
+  <si>
+    <t>Description55</t>
+  </si>
+  <si>
+    <t>Category 6.1.1</t>
+  </si>
+  <si>
+    <t>Description56</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1</t>
+  </si>
+  <si>
+    <t>Description57</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description58</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description59</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description60</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description61</t>
+  </si>
+  <si>
+    <t>Category 6.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Description62</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\7.png</t>
+  </si>
+  <si>
+    <t>Description63</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\8.png</t>
+  </si>
+  <si>
+    <t>Description64</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\9.png</t>
+  </si>
+  <si>
+    <t>Description65</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\10.png</t>
+  </si>
+  <si>
+    <t>Description66</t>
+  </si>
+  <si>
+    <t>Category 11</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\11.png</t>
+  </si>
+  <si>
+    <t>Description67</t>
+  </si>
+  <si>
+    <t>Category 12</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\12.png</t>
+  </si>
+  <si>
+    <t>Description68</t>
+  </si>
+  <si>
+    <t>Category 13</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\13.png</t>
+  </si>
+  <si>
+    <t>Description69</t>
+  </si>
+  <si>
+    <t>Category 14</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\14.png</t>
+  </si>
+  <si>
+    <t>Description70</t>
+  </si>
+  <si>
+    <t>Category 15</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\15.png</t>
+  </si>
+  <si>
+    <t>Description71</t>
+  </si>
+  <si>
+    <t>Category 16</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\16.png</t>
+  </si>
+  <si>
+    <t>Description72</t>
+  </si>
+  <si>
+    <t>Category 17</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\17.png</t>
+  </si>
+  <si>
+    <t>Description73</t>
+  </si>
+  <si>
+    <t>Category 18</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\18.png</t>
+  </si>
+  <si>
+    <t>Description74</t>
+  </si>
+  <si>
+    <t>Category 19</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\19.png</t>
+  </si>
+  <si>
+    <t>Description75</t>
+  </si>
+  <si>
+    <t>Category 20</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\20.png</t>
+  </si>
+  <si>
+    <t>Description76</t>
+  </si>
+  <si>
+    <t>Category Name mAx 021!!@#$%^&amp;!</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\21.png</t>
+  </si>
+  <si>
+    <t>Description77</t>
+  </si>
+  <si>
+    <t>Category For Edit</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\22.png</t>
+  </si>
+  <si>
+    <t>Category For Delete</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\Category\\23.png</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>deliveryName</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>from1</t>
+  </si>
+  <si>
+    <t>to1</t>
+  </si>
+  <si>
+    <t>price1</t>
+  </si>
+  <si>
+    <t>from2</t>
+  </si>
+  <si>
+    <t>to2</t>
+  </si>
+  <si>
+    <t>price2</t>
+  </si>
+  <si>
+    <t>from3</t>
+  </si>
+  <si>
+    <t>to3</t>
+  </si>
+  <si>
+    <t>price3</t>
+  </si>
+  <si>
+    <t>from4</t>
+  </si>
+  <si>
+    <t>to4</t>
+  </si>
+  <si>
+    <t>price4</t>
+  </si>
+  <si>
+    <t>from5</t>
+  </si>
+  <si>
+    <t>to5</t>
+  </si>
+  <si>
+    <t>price5</t>
+  </si>
+  <si>
+    <t>from6</t>
+  </si>
+  <si>
+    <t>to6</t>
+  </si>
+  <si>
+    <t>price6</t>
+  </si>
+  <si>
+    <t>from7</t>
+  </si>
+  <si>
+    <t>to7</t>
+  </si>
+  <si>
+    <t>price7</t>
+  </si>
+  <si>
+    <t>from8</t>
+  </si>
+  <si>
+    <t>to8</t>
+  </si>
+  <si>
+    <t>price8</t>
+  </si>
+  <si>
+    <t>from9</t>
+  </si>
+  <si>
+    <t>to9</t>
+  </si>
+  <si>
+    <t>price9</t>
+  </si>
+  <si>
+    <t>from10</t>
+  </si>
+  <si>
+    <t>to10</t>
+  </si>
+  <si>
+    <t>price10</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Delivery 01</t>
+  </si>
+  <si>
+    <t>All Countries</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Delivery 02</t>
+  </si>
+  <si>
+    <t>All Countries (Multiple Selected)</t>
+  </si>
+  <si>
+    <t>Delivery 03</t>
+  </si>
+  <si>
+    <t>Specific Countries (PH, SG, MY)</t>
+  </si>
+  <si>
+    <t>Delivery 04</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Delivery 05</t>
+  </si>
+  <si>
+    <t>Onwards</t>
+  </si>
+  <si>
+    <t>Delivery 06</t>
+  </si>
+  <si>
+    <t>Delivery 07</t>
+  </si>
+  <si>
+    <t>Delivery 08</t>
+  </si>
+  <si>
+    <t>Delivery 09</t>
+  </si>
+  <si>
+    <t>Delivery 10</t>
+  </si>
+  <si>
+    <t>Delivery 11</t>
+  </si>
+  <si>
+    <t>Delivery 12</t>
+  </si>
+  <si>
+    <t>DeliveryMethod</t>
+  </si>
+  <si>
+    <t>Delivery Name</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>MinLeadtime</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>Merchant Delivery A</t>
+  </si>
+  <si>
+    <t>allcountries</t>
+  </si>
+  <si>
+    <t>3 - 5 days</t>
+  </si>
+  <si>
+    <t>Merchant Delivery B</t>
+  </si>
+  <si>
+    <t>Merchant Delivery C</t>
+  </si>
+  <si>
+    <t>multiplecountries</t>
+  </si>
+  <si>
+    <t>2 - 3 days</t>
+  </si>
+  <si>
+    <t>Merchant Delivery D</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>Merchant Delivery E</t>
+  </si>
+  <si>
+    <t>Merchant Delivery F</t>
+  </si>
+  <si>
+    <t>Merchant Delivery G</t>
+  </si>
+  <si>
+    <t>Merchant Delivery H</t>
+  </si>
+  <si>
+    <t>Merchant Delivery I</t>
+  </si>
+  <si>
+    <t>Merchant Delivery J</t>
+  </si>
+  <si>
+    <t>Merchant Delivery K</t>
+  </si>
+  <si>
+    <t>Merchant Delivery L</t>
+  </si>
+  <si>
+    <t>Merchant Delivery Maximum Ch@racters2!#</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>pickup</t>
+  </si>
+  <si>
+    <t>Rufino Pacific Tower</t>
+  </si>
+  <si>
+    <t>Corinthian Plaza</t>
+  </si>
+  <si>
+    <t>Chargoggagoggmanchauggagoggchaubunagungamaugg, United States</t>
+  </si>
+  <si>
+    <t>Taumatawhakatangihangakoauauotamateaturipukakapikimaungahoronukupokaiwhenuakitanatahu, New Zealand's North Island</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Email Notif</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>SellerLocation</t>
+  </si>
+  <si>
+    <t>Addressee Firstname</t>
+  </si>
+  <si>
+    <t>Addressee Lastname</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\1.png</t>
+  </si>
+  <si>
+    <t>I am the first seller.</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Ocampo</t>
+  </si>
+  <si>
+    <t>+63000001</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Serangoon North</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\2.png</t>
+  </si>
+  <si>
+    <t>I am the second seller.</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Behrensmeyer</t>
+  </si>
+  <si>
+    <t>+63000002</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>28 Aliwal Street</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\3.png</t>
+  </si>
+  <si>
+    <t>I am the third seller.</t>
+  </si>
+  <si>
+    <t>Blaise</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>+63000003</t>
+  </si>
+  <si>
+    <t>460 North East Road, Windsor Gardens SA</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\4.png</t>
+  </si>
+  <si>
+    <t>I am the fourth seller.</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Herschel</t>
+  </si>
+  <si>
+    <t>seller_carolineherchel@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000004</t>
+  </si>
+  <si>
+    <t>Makati City</t>
+  </si>
+  <si>
+    <t>Lei Thar Gone Guest House No. 1, Thit-ta-bway Quarter</t>
+  </si>
+  <si>
+    <t>Yenangyaung</t>
+  </si>
+  <si>
+    <t>Magway Region</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\5.png</t>
+  </si>
+  <si>
+    <t>I am the fifth seller.</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Gaposchkin</t>
+  </si>
+  <si>
+    <t>seller_ceciliagaposchkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000005</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>CCP Complex, Roxas Blvd, Pasay</t>
+  </si>
+  <si>
+    <t>Metro Manila</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\6.png</t>
+  </si>
+  <si>
+    <t>I am the sixth seller.</t>
+  </si>
+  <si>
+    <t>Dorothy Ann</t>
+  </si>
+  <si>
+    <t>Hodgkin</t>
+  </si>
+  <si>
+    <t>seller_dorothyannhodgkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000006</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Corner of Ayala and Makati Avenues</t>
+  </si>
+  <si>
+    <t>Makati</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\7.png</t>
+  </si>
+  <si>
+    <t>I am the seventh seller.</t>
+  </si>
+  <si>
+    <t>Edmond</t>
+  </si>
+  <si>
+    <t>Halley</t>
+  </si>
+  <si>
+    <t>seller_edmondhalley@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000007</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Makati Avenue, corner Ayala Ave</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\8.png</t>
+  </si>
+  <si>
+    <t>I am the eight seller.</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Hubble</t>
+  </si>
+  <si>
+    <t>seller_edwinhubble@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000008</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Sagittarius Building111 H.V. Dela Cost</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\9.png</t>
+  </si>
+  <si>
+    <t>I am the ninth seller.</t>
+  </si>
+  <si>
+    <t>Enrico</t>
+  </si>
+  <si>
+    <t>Fermi</t>
+  </si>
+  <si>
+    <t>seller_enricofermi@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000009</t>
+  </si>
+  <si>
+    <t>121 Paseo de Roxas, Legazpi Village</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\10.png</t>
+  </si>
+  <si>
+    <t>I am the tenth seller.</t>
+  </si>
+  <si>
+    <t>Erwin</t>
+  </si>
+  <si>
+    <t>Schroedinger</t>
+  </si>
+  <si>
+    <t>seller_erwinschroedinger@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000010</t>
+  </si>
+  <si>
+    <t>Davao City</t>
+  </si>
+  <si>
+    <t>Jurong East Street 21, 226,</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\11.png</t>
+  </si>
+  <si>
+    <t>I am the eleventh seller.</t>
+  </si>
+  <si>
+    <t>Boysen Isaac</t>
+  </si>
+  <si>
+    <t>Staal</t>
+  </si>
+  <si>
+    <t>seller_boysenisaacstaal@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000011</t>
+  </si>
+  <si>
+    <t>Taguig</t>
+  </si>
+  <si>
+    <t>Braddell, Toa Payoh</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\12.png</t>
+  </si>
+  <si>
+    <t>I am the twelveth seller.</t>
+  </si>
+  <si>
+    <t>Geraldine</t>
+  </si>
+  <si>
+    <t>Seydoux</t>
+  </si>
+  <si>
+    <t>seller_geraldineseydoux@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000012</t>
+  </si>
+  <si>
+    <t>Toa Payoh</t>
+  </si>
+  <si>
+    <t>Bugis, Victoria Street, Rochor</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\13.png</t>
+  </si>
+  <si>
+    <t>I am the thirteenth seller.</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
+    <t>seller_lordkelvin@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000013</t>
+  </si>
+  <si>
+    <t>Batanes</t>
+  </si>
+  <si>
+    <t>Valero St. corner Sedeño St., Salcedo Village</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\14.png</t>
+  </si>
+  <si>
+    <t>I am the fourteenth seller.</t>
+  </si>
+  <si>
+    <t>Ruzena</t>
+  </si>
+  <si>
+    <t>Bajcsy</t>
+  </si>
+  <si>
+    <t>seller_ruzenabajcsy@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000014</t>
+  </si>
+  <si>
+    <t>Pandacan</t>
+  </si>
+  <si>
+    <t>Residencias de Manila Jesus St. Pandacan</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\15.png</t>
+  </si>
+  <si>
+    <t>I am the fifteenth seller.</t>
+  </si>
+  <si>
+    <t>Wilhelm</t>
+  </si>
+  <si>
+    <t>Heisenberg</t>
+  </si>
+  <si>
+    <t>seller_wilhelmheisenberg@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000015</t>
+  </si>
+  <si>
+    <t>Mindoro</t>
+  </si>
+  <si>
+    <t>Rufino Pacific Tower Ayala Ave cor VA Rufino</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\16.png</t>
+  </si>
+  <si>
+    <t>I am the sixteenth seller.</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t>seller_shannonrutherford@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000016</t>
+  </si>
+  <si>
+    <t>Zambales</t>
+  </si>
+  <si>
+    <t>18 Shelford</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\17.png</t>
+  </si>
+  <si>
+    <t>I am the seventeenth seller.</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Una</t>
+  </si>
+  <si>
+    <t>seller_sallyuna@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000017</t>
+  </si>
+  <si>
+    <t>Lipa City</t>
+  </si>
+  <si>
+    <t>1st Cd Division Queensway Camp</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\18.png</t>
+  </si>
+  <si>
+    <t>I am the eighteenth seller.</t>
+  </si>
+  <si>
+    <t>April Joy</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>seller_apriljoypaulina@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000018</t>
+  </si>
+  <si>
+    <t>Ang Mo Kio</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\19.png</t>
+  </si>
+  <si>
+    <t>I am the nineteenth seller.</t>
+  </si>
+  <si>
+    <t>Edmar</t>
+  </si>
+  <si>
+    <t>Cabogos</t>
+  </si>
+  <si>
+    <t>seller_edmarcabugos@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000019</t>
+  </si>
+  <si>
+    <t>Cabog-os</t>
+  </si>
+  <si>
+    <t>Pagoda Rd, Bago</t>
+  </si>
+  <si>
+    <t>Bago</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\20.png</t>
+  </si>
+  <si>
+    <t>I am the twentieth seller.</t>
+  </si>
+  <si>
+    <t>Irha Christine</t>
+  </si>
+  <si>
+    <t>Dela Rosa</t>
+  </si>
+  <si>
+    <t>seller_irhaxtinedelarosa@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000020</t>
+  </si>
+  <si>
+    <t>66 Pyay Rd</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\21.png</t>
+  </si>
+  <si>
+    <t>I am the twenty-first seller.</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Stapleton</t>
+  </si>
+  <si>
+    <t>seller_djstapleton@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000021</t>
+  </si>
+  <si>
+    <t>No.7 - H, Thida Aye Quarter Sitapu</t>
+  </si>
+  <si>
+    <t>Myitkyinā</t>
+  </si>
+  <si>
+    <t>Kachin</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\22.png</t>
+  </si>
+  <si>
+    <t>I am the twen</t>
+  </si>
+  <si>
+    <t>Goldwyn Abcde Qwerty</t>
+  </si>
+  <si>
+    <t>Alphabet Jr.</t>
+  </si>
+  <si>
+    <t>seller_goldwyn@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000022</t>
+  </si>
+  <si>
+    <t>Bogyoke Road, Yone Gyi Quarter, Kantharyar,</t>
+  </si>
+  <si>
+    <t>Monywa</t>
+  </si>
+  <si>
+    <t>Sagaing Region</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\SellerPhoto\\23.png</t>
+  </si>
+  <si>
+    <t>SellerDisable</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>seller_goldwyn1@yopmail.com</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>emailNotif</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Twain</t>
+  </si>
+  <si>
+    <t>+63000023</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>+63000024</t>
+  </si>
+  <si>
+    <t>Agatha Rose</t>
+  </si>
+  <si>
+    <t>Christie</t>
+  </si>
+  <si>
+    <t>buyer_archristie@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000025</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Austen</t>
+  </si>
+  <si>
+    <t>buyer_jnausten@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000026</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Hemingway</t>
+  </si>
+  <si>
+    <t>buyer_ethemingway@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000027</t>
+  </si>
+  <si>
+    <t>Mon Yang Main Road, Kyaing Tong</t>
+  </si>
+  <si>
+    <t>Kengtung</t>
+  </si>
+  <si>
+    <t>Shan</t>
+  </si>
+  <si>
+    <t>Ayn</t>
+  </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>buyer_anrand@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000028</t>
+  </si>
+  <si>
+    <t>Zee Phyu Gone Village, Ngapali, Thandwe</t>
+  </si>
+  <si>
+    <t>Ngapali</t>
+  </si>
+  <si>
+    <t>Rakhine</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Dickens</t>
+  </si>
+  <si>
+    <t>buyer_csdickens@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000029</t>
+  </si>
+  <si>
+    <t>Edgar Allan</t>
+  </si>
+  <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>buyer_enpoe@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000030</t>
+  </si>
+  <si>
+    <t>Osamu</t>
+  </si>
+  <si>
+    <t>Dazai</t>
+  </si>
+  <si>
+    <t>buyer_osdazai@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000031</t>
+  </si>
+  <si>
+    <t>Francis Scott Key</t>
+  </si>
+  <si>
+    <t>Fitzgerald</t>
+  </si>
+  <si>
+    <t>buyer_skfitzgerald@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000032</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>buyer_mtmitchell@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000033</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Goncharov</t>
+  </si>
+  <si>
+    <t>buyer_ingoncharov@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000034</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Pushkin</t>
+  </si>
+  <si>
+    <t>buyer_arpushkin@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000035</t>
+  </si>
+  <si>
+    <t>Louisa May</t>
+  </si>
+  <si>
+    <t>Alcott</t>
+  </si>
+  <si>
+    <t>buyer_lyalcott@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000036</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>buyer_nlhawthorne@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000037</t>
+  </si>
+  <si>
+    <t>Gin</t>
+  </si>
+  <si>
+    <t>Akutagawa</t>
+  </si>
+  <si>
+    <t>buyer_gnakutagawa@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000038</t>
+  </si>
+  <si>
+    <t>Natsume</t>
+  </si>
+  <si>
+    <t>Soseki</t>
+  </si>
+  <si>
+    <t>buyer_nesoseki@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000039</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Gale</t>
+  </si>
+  <si>
+    <t>buyer_dyfgale@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000040</t>
+  </si>
+  <si>
+    <t>Scarlet</t>
+  </si>
+  <si>
+    <t>O' Hara</t>
+  </si>
+  <si>
+    <t>buyer_stohara@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000041</t>
+  </si>
+  <si>
+    <t>Novena</t>
+  </si>
+  <si>
+    <t>Elle</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>buyer_elwoods@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000042</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Wilkes</t>
+  </si>
+  <si>
+    <t>buyer_anwilkes@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000043</t>
+  </si>
+  <si>
+    <t>buyer_M@xCharacter$1234567890@#$%^&amp;T3$tIng</t>
+  </si>
+  <si>
+    <t>Rose DeWitt</t>
+  </si>
+  <si>
+    <t>Bukater</t>
+  </si>
+  <si>
+    <t>buyer_rtbukater@yopmail.com</t>
+  </si>
+  <si>
+    <t>+63000044</t>
+  </si>
+  <si>
+    <t>BuyerDisable</t>
+  </si>
+  <si>
+    <t>buyer_rtbukater1@yopmail.com</t>
+  </si>
+  <si>
+    <t>allCat_Text field_NM1</t>
+  </si>
+  <si>
+    <t>All Cat</t>
+  </si>
+  <si>
+    <t>non-mandatory</t>
+  </si>
+  <si>
+    <t>SP_Text field_M1</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>SPC_Text field_NM1</t>
+  </si>
+  <si>
+    <t>Single Parent w/ child</t>
+  </si>
+  <si>
+    <t>SPG_Text field_NM1</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 !@#$%</t>
+  </si>
+  <si>
+    <t>allCat_Text field_NM2</t>
+  </si>
+  <si>
+    <t>SP_Text field_M2</t>
+  </si>
+  <si>
+    <t>SPC_Text field_NM2</t>
+  </si>
+  <si>
+    <t>SPG_Text field_NM2</t>
+  </si>
+  <si>
+    <t>allCat_Text editor_NM</t>
+  </si>
+  <si>
+    <t>SP_Text Editor_M</t>
+  </si>
+  <si>
+    <t>SPC_Text editor_NM</t>
+  </si>
+  <si>
+    <t>SPG_Text editor_NM</t>
+  </si>
+  <si>
+    <t>allCat_Hyperlink_NM</t>
+  </si>
+  <si>
+    <t>SP_Hyperlink_M</t>
+  </si>
+  <si>
+    <t>SPC_Hyperlink_NM</t>
+  </si>
+  <si>
+    <t>SPG_Hyperlink_NM</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_1</t>
+  </si>
+  <si>
+    <t>allCat_Email_NM</t>
+  </si>
+  <si>
+    <t>SP_Email_M</t>
+  </si>
+  <si>
+    <t>SPC_Email_NM</t>
+  </si>
+  <si>
+    <t>SPG_Email_NM</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_2</t>
+  </si>
+  <si>
+    <t>allCat_Number_NM1</t>
+  </si>
+  <si>
+    <t>SP_Percentage_M</t>
+  </si>
+  <si>
+    <t>SPC_Number_NM1</t>
+  </si>
+  <si>
+    <t>SPG_Number_NM1</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_3</t>
+  </si>
+  <si>
+    <t>allCat_Number_NM2</t>
+  </si>
+  <si>
+    <t>SP_Number_M1</t>
+  </si>
+  <si>
+    <t>SPC_Number_NM2</t>
+  </si>
+  <si>
+    <t>SPG_Number_NM2</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_4</t>
+  </si>
+  <si>
+    <t>allCat_Percentage_NM</t>
+  </si>
+  <si>
+    <t>SP_Number_M2</t>
+  </si>
+  <si>
+    <t>SPC_Percentage_NM</t>
+  </si>
+  <si>
+    <t>SPG_Percentage_NM</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_5</t>
+  </si>
+  <si>
+    <t>allCat_Check Box_NM1</t>
+  </si>
+  <si>
+    <t>SP_Check Box_M1</t>
+  </si>
+  <si>
+    <t>SPC_Check Box_M1</t>
+  </si>
+  <si>
+    <t>SPG_Check Box_M1</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_6</t>
+  </si>
+  <si>
+    <t>allCat_Check Box_NM2</t>
+  </si>
+  <si>
+    <t>SP_Check Box_M2</t>
+  </si>
+  <si>
+    <t>SPC_Check Box_M2</t>
+  </si>
+  <si>
+    <t>SPG_Check Box_M2</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_7</t>
+  </si>
+  <si>
+    <t>allCat_Drop Down_NM1</t>
+  </si>
+  <si>
+    <t>SP_Drop Down_M1</t>
+  </si>
+  <si>
+    <t>SPC_Drop Down_M1</t>
+  </si>
+  <si>
+    <t>SPG_Drop Down_M1</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_8</t>
+  </si>
+  <si>
+    <t>allCat_Drop Down_NM2</t>
+  </si>
+  <si>
+    <t>SP_Drop Down_M2</t>
+  </si>
+  <si>
+    <t>SPC_Drop Down_M2</t>
+  </si>
+  <si>
+    <t>SPG_Drop Down_M2</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_9</t>
+  </si>
+  <si>
+    <t>allCat_Location_NM</t>
+  </si>
+  <si>
+    <t>SP_Location_M</t>
+  </si>
+  <si>
+    <t>SPC_Location_NM</t>
+  </si>
+  <si>
+    <t>SPG_Location_NM</t>
+  </si>
+  <si>
+    <t>Maxout_Char Checkbox_NM1 _Opt!0ñ_10</t>
+  </si>
+  <si>
+    <t>allCat_PDF File_NM</t>
+  </si>
+  <si>
+    <t>SP_Date / Time_Off_M1</t>
+  </si>
+  <si>
+    <t>SPC_PDF File_NM</t>
+  </si>
+  <si>
+    <t>SPG_PDF File_NM</t>
+  </si>
+  <si>
+    <t>allCat_Video_NM</t>
+  </si>
+  <si>
+    <t>SP_Date / Time_On_M2</t>
+  </si>
+  <si>
+    <t>SPC_Video_NM</t>
+  </si>
+  <si>
+    <t>SPG_Video_NM</t>
+  </si>
+  <si>
+    <t>allCat_Date / Time_On_NM</t>
+  </si>
+  <si>
+    <t>SP_PDF_M</t>
+  </si>
+  <si>
+    <t>SPC_Date / Time_On_NM</t>
+  </si>
+  <si>
+    <t>SPG_Date / Time_On_NM</t>
+  </si>
+  <si>
+    <t>allCat_Date / Time_Off_NM</t>
+  </si>
+  <si>
+    <t>SP_Video_M</t>
+  </si>
+  <si>
+    <t>SPC_Date / Time_Off_NM</t>
+  </si>
+  <si>
+    <t>SPG_Date / Time_Off_NM</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB1</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD1</t>
+  </si>
+  <si>
+    <t>SP_M1_CB1</t>
+  </si>
+  <si>
+    <t>SP_M1_DD1</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB1</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD1</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB1</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD1</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB2</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD2</t>
+  </si>
+  <si>
+    <t>SP_M1_CB2</t>
+  </si>
+  <si>
+    <t>SP_M1_DD2</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB2</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD2</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB2</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD2</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB3</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD3</t>
+  </si>
+  <si>
+    <t>SP_M1_CB3</t>
+  </si>
+  <si>
+    <t>SP_M1_DD3</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB3</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD3</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB3</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD3</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB4</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD4</t>
+  </si>
+  <si>
+    <t>SP_M1_CB4</t>
+  </si>
+  <si>
+    <t>SP_M1_DD4</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB4</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD4</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB4</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD4</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB5</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD5</t>
+  </si>
+  <si>
+    <t>SP_M1_CB5</t>
+  </si>
+  <si>
+    <t>SP_M1_DD5</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB5</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD5</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB5</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD5</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB6</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD6</t>
+  </si>
+  <si>
+    <t>SP_M1_CB6</t>
+  </si>
+  <si>
+    <t>SP_M1_DD6</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB6</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD6</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB6</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD6</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB7</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD7</t>
+  </si>
+  <si>
+    <t>SP_M1_CB7</t>
+  </si>
+  <si>
+    <t>SP_M1_DD7</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB7</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD7</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB7</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD7</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB8</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD8</t>
+  </si>
+  <si>
+    <t>SP_M1_CB8</t>
+  </si>
+  <si>
+    <t>SP_M1_DD8</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB8</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD8</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB8</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD8</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB9</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD9</t>
+  </si>
+  <si>
+    <t>SP_M1_CB9</t>
+  </si>
+  <si>
+    <t>SP_M1_DD9</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB9</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD9</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB9</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD9</t>
+  </si>
+  <si>
+    <t>allCat_NM1_CB10</t>
+  </si>
+  <si>
+    <t>allCat_NM1_DD10</t>
+  </si>
+  <si>
+    <t>SP_M1_CB10</t>
+  </si>
+  <si>
+    <t>SP_M1_DD10</t>
+  </si>
+  <si>
+    <t>SPC_M1_CB10</t>
+  </si>
+  <si>
+    <t>SPC_M1_DD10</t>
+  </si>
+  <si>
+    <t>SPG_M1_CB10</t>
+  </si>
+  <si>
+    <t>SPG_M1_DD10</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB1</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD1</t>
+  </si>
+  <si>
+    <t>SP_M2_CB1</t>
+  </si>
+  <si>
+    <t>SP_M2_DD1</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB1</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD1</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB1</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD1</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB2</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD2</t>
+  </si>
+  <si>
+    <t>SP_M2_CB2</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB2</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD2</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB2</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD2</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB3</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD3</t>
+  </si>
+  <si>
+    <t>SP_M2_CB3</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB3</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD3</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB3</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD3</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB4</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD4</t>
+  </si>
+  <si>
+    <t>SP_M2_CB4</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB4</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD4</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB4</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD4</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB5</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD5</t>
+  </si>
+  <si>
+    <t>SP_M2_CB5</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB5</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD5</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB5</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD5</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB6</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD6</t>
+  </si>
+  <si>
+    <t>SP_M2_CB6</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB6</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD6</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB6</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD6</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB7</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD7</t>
+  </si>
+  <si>
+    <t>SP_M2_CB7</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB7</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD7</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB7</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD7</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB8</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD8</t>
+  </si>
+  <si>
+    <t>SP_M2_CB8</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB8</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD8</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB8</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD8</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB9</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD9</t>
+  </si>
+  <si>
+    <t>SP_M2_CB9</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB9</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD9</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB9</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD9</t>
+  </si>
+  <si>
+    <t>allCat_NM2_CB10</t>
+  </si>
+  <si>
+    <t>allCat_NM2_DD10</t>
+  </si>
+  <si>
+    <t>SP_M2_CB10</t>
+  </si>
+  <si>
+    <t>SPC_M2_CB10</t>
+  </si>
+  <si>
+    <t>SPC_M2_DD10</t>
+  </si>
+  <si>
+    <t>SPG_M2_CB10</t>
+  </si>
+  <si>
+    <t>SPG_M2_DD10</t>
+  </si>
+  <si>
+    <t>Checkbox (Non-Mandatory)</t>
+  </si>
+  <si>
+    <t>SPC_M@XcHaract#r$30_!@#$%^&amp;123</t>
+  </si>
+  <si>
+    <t>M@X_CB1_!@#$%^&amp;*()1234567890_N0nMandaTory</t>
+  </si>
+  <si>
+    <t>M@X_CB2</t>
+  </si>
+  <si>
+    <t>M@X_CB3</t>
+  </si>
+  <si>
+    <t>M@X_CB4_!@#$%^&amp;*()1234567890_N0nMandaTory</t>
+  </si>
+  <si>
+    <t>M@X_CB5</t>
+  </si>
+  <si>
+    <t>M@X_CB6</t>
+  </si>
+  <si>
+    <t>M@X_CB7_!@#$%^&amp;*()1234567890_N0nMandaTory</t>
+  </si>
+  <si>
+    <t>M@X_CB8</t>
+  </si>
+  <si>
+    <t>M@X_CB9</t>
+  </si>
+  <si>
+    <t>M@X_CB10_!@#$%^&amp;*()1234567890_N0nMandaTory</t>
+  </si>
+  <si>
+    <t>Custom Field Name</t>
+  </si>
+  <si>
+    <t>Custom Field Type</t>
+  </si>
+  <si>
+    <t>Assigned Category</t>
+  </si>
+  <si>
+    <t>MandatoryNonMandatory</t>
+  </si>
+  <si>
+    <t>Text Field</t>
+  </si>
+  <si>
+    <t>Text Editor</t>
+  </si>
+  <si>
+    <t>Hyperlink / URL</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Drop Down</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>PDF File</t>
+  </si>
+  <si>
+    <t>Embed Video</t>
+  </si>
+  <si>
+    <t>Date / Time picker</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Custom Field For Edit</t>
+  </si>
+  <si>
+    <t>Custom Field For Delete</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ItemImage</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Delivery Method</t>
+  </si>
+  <si>
+    <t>allcategory</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item1.jpg</t>
+  </si>
+  <si>
+    <t>Description01</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SKU001</t>
+  </si>
+  <si>
+    <t>Description02</t>
+  </si>
+  <si>
+    <t>SKU002</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>Description03</t>
+  </si>
+  <si>
+    <t>SKU003</t>
+  </si>
+  <si>
+    <t>Description04</t>
+  </si>
+  <si>
+    <t>SKU004</t>
+  </si>
+  <si>
+    <t>Description05</t>
+  </si>
+  <si>
+    <t>SKU005</t>
+  </si>
+  <si>
+    <t>SKU006</t>
+  </si>
+  <si>
+    <t>Description07</t>
+  </si>
+  <si>
+    <t>SKU007</t>
+  </si>
+  <si>
+    <t>Description08</t>
+  </si>
+  <si>
+    <t>SKU008</t>
+  </si>
+  <si>
+    <t>Description09</t>
+  </si>
+  <si>
+    <t>SKU009</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Admin Username</t>
+  </si>
+  <si>
+    <t>Admin Google</t>
+  </si>
+  <si>
+    <t>Admin Facebook</t>
+  </si>
+  <si>
+    <t>Admin Google Pass</t>
+  </si>
+  <si>
+    <t>Admin Facebook Pass</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Coverimage</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Admin Fee</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Strada Statale 130</t>
+  </si>
+  <si>
+    <t>Dorzano, Biella 13881</t>
+  </si>
+  <si>
+    <t>+631234567890</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>arcadierteam@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\logo1.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\coverimage1.jpg</t>
+  </si>
+  <si>
+    <t>Bespoke</t>
+  </si>
+  <si>
+    <t>Theme 1</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>DeliversTo</t>
+  </si>
+  <si>
+    <t>MOQCount</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Bulk Pricing</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Percentage_range1</t>
+  </si>
+  <si>
+    <t>Category 0%</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>weight, price,pickup</t>
+  </si>
+  <si>
+    <t>Category 1%</t>
+  </si>
+  <si>
+    <t>Category 99%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Category 100%</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Non-Mandatory CF</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item2.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item3.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item4.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item5.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item7.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item8.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item9.jpg</t>
+  </si>
+  <si>
+    <t>Item Service</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>nego</t>
+  </si>
+  <si>
+    <t>Description82</t>
+  </si>
+  <si>
+    <t>Description83</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>Price_Range1</t>
+  </si>
+  <si>
+    <t>Staging</t>
+  </si>
+  <si>
+    <t>0601BP1</t>
+  </si>
+  <si>
+    <t>0601ST1</t>
+  </si>
+  <si>
+    <t>0601SB1</t>
+  </si>
+  <si>
+    <t>0601SB2</t>
+  </si>
+  <si>
+    <t>0601SB3</t>
+  </si>
+  <si>
+    <t>0601SB4</t>
+  </si>
+  <si>
+    <t>0601SB5</t>
+  </si>
+  <si>
+    <t>0601SB6</t>
+  </si>
+  <si>
+    <t>01Seller</t>
+  </si>
+  <si>
+    <t>02Seller</t>
+  </si>
+  <si>
+    <t>03Seller</t>
+  </si>
+  <si>
+    <t>04Seller</t>
+  </si>
+  <si>
+    <t>05Seller</t>
+  </si>
+  <si>
+    <t>06Seller</t>
+  </si>
+  <si>
+    <t>07Seller</t>
+  </si>
+  <si>
+    <t>08Seller</t>
+  </si>
+  <si>
+    <t>09Seller</t>
+  </si>
+  <si>
+    <t>10Seller</t>
+  </si>
+  <si>
+    <t>11Seller</t>
+  </si>
+  <si>
+    <t>12Seller</t>
+  </si>
+  <si>
+    <t>13Seller</t>
+  </si>
+  <si>
+    <t>14Seller</t>
+  </si>
+  <si>
+    <t>15Seller</t>
+  </si>
+  <si>
+    <t>16Seller</t>
+  </si>
+  <si>
+    <t>17Seller</t>
+  </si>
+  <si>
+    <t>18Seller</t>
+  </si>
+  <si>
+    <t>19Seller</t>
+  </si>
+  <si>
+    <t>20Seller</t>
+  </si>
+  <si>
+    <t>21Seller</t>
+  </si>
+  <si>
+    <t>22Seller</t>
+  </si>
+  <si>
+    <t>arcadier.tester1@gmail.com</t>
+  </si>
+  <si>
+    <t>arcadier.tester2@gmail.com</t>
+  </si>
+  <si>
+    <t>arcadier.tester3@gmail.com</t>
+  </si>
+  <si>
+    <t>arcadierteam1@gmail.com</t>
+  </si>
+  <si>
+    <t>arcadierteam2@gmail.com</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>RDM Bldg 2 Jesus St.</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Custom Payment</t>
+  </si>
+  <si>
+    <t>Acknowledged</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash on delivery </t>
+  </si>
+  <si>
+    <t>Cash on delivery</t>
+  </si>
+  <si>
+    <t>Ready for PickUp</t>
+  </si>
+  <si>
+    <t>Collected</t>
+  </si>
+  <si>
+    <t>Mndtry CF</t>
+  </si>
+  <si>
+    <t>Category 0% - W/surcharge (3Variant options)</t>
+  </si>
+  <si>
+    <t>Category 1% - W/ blank surcharge</t>
+  </si>
+  <si>
+    <t>NEGO - Disc Fixed &amp; Charges</t>
+  </si>
+  <si>
+    <t>NEGO - Disc % &amp; Charges</t>
+  </si>
+  <si>
+    <t>NEGO Pending</t>
+  </si>
+  <si>
+    <t>NEGO Cancelled</t>
+  </si>
+  <si>
+    <t>NEGO Rejected</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item10.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item11.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item12.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item13.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\BespokeAPI\\Images\\UN Items\\item14.jpg</t>
+  </si>
+  <si>
+    <t>nego status</t>
+  </si>
+  <si>
+    <t>AcceptedFixed</t>
+  </si>
+  <si>
+    <t>AcceptedPrcnt</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Offline Payments</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>emailNotification</t>
+  </si>
+  <si>
+    <t>emaiPassword</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>subbuyer_01</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Chui</t>
+  </si>
+  <si>
+    <t>welcome8</t>
+  </si>
+  <si>
+    <t>arcqatester01@gmail.com</t>
+  </si>
+  <si>
+    <t>20_P@s$w0rd</t>
+  </si>
+  <si>
+    <t>Invite Buyer Sub-Account</t>
+  </si>
+  <si>
+    <t>subbuyer_02</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Pendragon</t>
+  </si>
+  <si>
+    <t>arcqatester02@gmail.com</t>
+  </si>
+  <si>
+    <t>subbuyer_03</t>
+  </si>
+  <si>
+    <t>Calcifer</t>
+  </si>
+  <si>
+    <t>Nikiforov</t>
+  </si>
+  <si>
+    <t>arcqatester03@gmail.com</t>
+  </si>
+  <si>
+    <t>subbuyer_04</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Katsuki</t>
+  </si>
+  <si>
+    <t>tlouis041@gmail.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd_041</t>
+  </si>
+  <si>
+    <t>subbuyer_05</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Tomlison</t>
+  </si>
+  <si>
+    <t>ltomlinson348@gmail.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd_348</t>
+  </si>
+  <si>
+    <t>subseller_01</t>
+  </si>
+  <si>
+    <t>subseller_02</t>
+  </si>
+  <si>
+    <t>subseller_03</t>
+  </si>
+  <si>
+    <t>subseller_04</t>
+  </si>
+  <si>
+    <t>subseller_05</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>Makarov</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Bitton</t>
+  </si>
+  <si>
+    <t>Chong Quing</t>
+  </si>
+  <si>
+    <t>InviteSeller Sub-Account</t>
+  </si>
+  <si>
+    <t>01Buyer</t>
+  </si>
+  <si>
+    <t>02Buyer</t>
+  </si>
+  <si>
+    <t>03Buyer</t>
+  </si>
+  <si>
+    <t>04Buyer</t>
+  </si>
+  <si>
+    <t>05Buyer</t>
+  </si>
+  <si>
+    <t>06Buyer</t>
+  </si>
+  <si>
+    <t>20Buyer</t>
+  </si>
+  <si>
+    <t>19Buyer</t>
+  </si>
+  <si>
+    <t>18Buyer</t>
+  </si>
+  <si>
+    <t>17Buyer</t>
+  </si>
+  <si>
+    <t>16Buyer</t>
+  </si>
+  <si>
+    <t>15Buyer</t>
+  </si>
+  <si>
+    <t>14Buyer</t>
+  </si>
+  <si>
+    <t>13Buyer</t>
+  </si>
+  <si>
+    <t>12Buyer</t>
+  </si>
+  <si>
+    <t>11Buyer</t>
+  </si>
+  <si>
+    <t>10Buyer</t>
+  </si>
+  <si>
+    <t>09Buyer</t>
+  </si>
+  <si>
+    <t>08Buyer</t>
+  </si>
+  <si>
+    <t>07Buyer</t>
+  </si>
+  <si>
+    <t>21Buyer</t>
+  </si>
+  <si>
+    <t>Category 1% - W/ blank surcharge (3Variant options)</t>
+  </si>
+  <si>
+    <t>Category 0% - Bulk Pricing (price) (3Variant options)</t>
+  </si>
+  <si>
+    <t>Category 1% - Bulk Pricing (%) (3Variant options)</t>
+  </si>
+</sst>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,7 +3796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -596,7 +3848,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -790,14 +4042,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
@@ -1935,83 +5187,83 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Katalon\\BespokeAPI\\Images\\Category\\1.png"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C7" r:id="rId6" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C8" r:id="rId7" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C9" r:id="rId8" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C10" r:id="rId9" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C11" r:id="rId10" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C12" r:id="rId11" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C13" r:id="rId12" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C14" r:id="rId13" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C15" r:id="rId14" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C16" r:id="rId15" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C17" r:id="rId16" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C18" r:id="rId17" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C19" r:id="rId18" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C20" r:id="rId19" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C21" r:id="rId20" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C22" r:id="rId21" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C23" r:id="rId22" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C24" r:id="rId23" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C25" r:id="rId24" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C26" r:id="rId25" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C27" r:id="rId26" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C28" r:id="rId27" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C29" r:id="rId28" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C30" r:id="rId29" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C31" r:id="rId30" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C32" r:id="rId31" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C33" r:id="rId32" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C34" r:id="rId33" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C35" r:id="rId34" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C36" r:id="rId35" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C37" r:id="rId36" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C38" r:id="rId37" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C39" r:id="rId38" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C40" r:id="rId39" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C41" r:id="rId40" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C42" r:id="rId41" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C43" r:id="rId42" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C44" r:id="rId43" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C45" r:id="rId44" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C46" r:id="rId45" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C47" r:id="rId46" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C48" r:id="rId47" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C49" r:id="rId48" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C50" r:id="rId49" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C51" r:id="rId50" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C52" r:id="rId51" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C53" r:id="rId52" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C54" r:id="rId53" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C55" r:id="rId54" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C56" r:id="rId55" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C57" r:id="rId56" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C58" r:id="rId57" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C59" r:id="rId58" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C60" r:id="rId59" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C61" r:id="rId60" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C62" r:id="rId61" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C63" r:id="rId62" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C64" r:id="rId63" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C65" r:id="rId64" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C66" r:id="rId65" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C67" r:id="rId66" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C68" r:id="rId67" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C69" r:id="rId68" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C70" r:id="rId69" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C71" r:id="rId70" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C72" r:id="rId71" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C73" r:id="rId72" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C74" r:id="rId73" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C75" r:id="rId74" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C76" r:id="rId75" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C77" r:id="rId76" display="\\Katalon\\BespokeAPI\\Images\\"/>
-    <hyperlink ref="C78" r:id="rId77" display="\\Katalon\\BespokeAPI\\Images\\"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Katalon\\BespokeAPI\\Images\\Category\\1.png" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId62" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId63" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId64" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId65" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId66" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId67" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId68" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId76" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" display="\\Katalon\\BespokeAPI\\Images\\" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2019,7 +5271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2519,7 +5771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3029,10 +6281,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3698,7 +6950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D00D795-343A-499F-9F61-61C2DA9A1658}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4413,7 +7665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7B276C-8900-43E0-9171-623741A91B2F}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5072,7 +8324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772860E0-987C-4E6A-A63C-53D830B51E86}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5313,7 +8565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58E84A1-4518-4C42-9323-DE2E78B6BC37}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5546,8 +8798,2327 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="5" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20.75</v>
+      </c>
+      <c r="F2" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20.76</v>
+      </c>
+      <c r="H2" s="5">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>40.01</v>
+      </c>
+      <c r="K2" s="5">
+        <v>60.75</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45.25</v>
+      </c>
+      <c r="M2" s="5">
+        <v>60.76</v>
+      </c>
+      <c r="N2" s="5">
+        <v>80</v>
+      </c>
+      <c r="O2" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="P2" s="5">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>100.75</v>
+      </c>
+      <c r="R2" s="5">
+        <v>75.25</v>
+      </c>
+      <c r="S2" s="5">
+        <v>100.76</v>
+      </c>
+      <c r="T2" s="5">
+        <v>120</v>
+      </c>
+      <c r="U2" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="V2" s="5">
+        <v>120.01</v>
+      </c>
+      <c r="W2" s="5">
+        <v>140.75</v>
+      </c>
+      <c r="X2" s="5">
+        <v>105.25</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>140.76</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>160</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>160.01</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>180.75</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>135.25</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>180.76</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>200</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>150.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20.25</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="5">
+        <v>40.25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L3" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3001</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O3" s="5">
+        <v>80.25</v>
+      </c>
+      <c r="P3" s="5">
+        <v>4001</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="R3" s="5">
+        <v>100.25</v>
+      </c>
+      <c r="S3" s="5">
+        <v>5001</v>
+      </c>
+      <c r="T3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="U3" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="V3" s="5">
+        <v>6001</v>
+      </c>
+      <c r="W3" s="5">
+        <v>7000</v>
+      </c>
+      <c r="X3" s="5">
+        <v>140.25</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>7001</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>8000</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>160.25</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>8001</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>9000</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>180.25</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>9001</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>200.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20.75</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15.25</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20.76</v>
+      </c>
+      <c r="H4" s="6">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6">
+        <v>30.25</v>
+      </c>
+      <c r="J4" s="6">
+        <v>40.01</v>
+      </c>
+      <c r="K4" s="6">
+        <v>60.75</v>
+      </c>
+      <c r="L4" s="6">
+        <v>45.25</v>
+      </c>
+      <c r="M4" s="6">
+        <v>60.76</v>
+      </c>
+      <c r="N4" s="6">
+        <v>80</v>
+      </c>
+      <c r="O4" s="6">
+        <v>60.25</v>
+      </c>
+      <c r="P4" s="6">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>100.75</v>
+      </c>
+      <c r="R4" s="6">
+        <v>75.25</v>
+      </c>
+      <c r="S4" s="6">
+        <v>100.76</v>
+      </c>
+      <c r="T4" s="6">
+        <v>120</v>
+      </c>
+      <c r="U4" s="6">
+        <v>90.25</v>
+      </c>
+      <c r="V4" s="6">
+        <v>120.01</v>
+      </c>
+      <c r="W4" s="6">
+        <v>140.75</v>
+      </c>
+      <c r="X4" s="6">
+        <v>105.25</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>140.76</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>160</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>120.25</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>160.01</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>180.75</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>135.25</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>180.76</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>200</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>150.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20.25</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="5">
+        <v>40.25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3001</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O5" s="5">
+        <v>80.25</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4001</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="R5" s="5">
+        <v>100.25</v>
+      </c>
+      <c r="S5" s="5">
+        <v>5001</v>
+      </c>
+      <c r="T5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="U5" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="V5" s="5">
+        <v>6001</v>
+      </c>
+      <c r="W5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="X5" s="5">
+        <v>140.25</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>7001</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>8000</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>160.25</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>8001</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>9000</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>180.25</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>9001</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>200.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="5">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="5">
+        <v>150.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20.75</v>
+      </c>
+      <c r="F10" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="G10" s="5">
+        <v>20.76</v>
+      </c>
+      <c r="H10" s="5">
+        <v>40</v>
+      </c>
+      <c r="I10" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="J10" s="5">
+        <v>40.01</v>
+      </c>
+      <c r="K10" s="5">
+        <v>60.75</v>
+      </c>
+      <c r="L10" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="M10" s="5">
+        <v>60.76</v>
+      </c>
+      <c r="N10" s="5">
+        <v>80</v>
+      </c>
+      <c r="O10" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="P10" s="5">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>100.75</v>
+      </c>
+      <c r="R10" s="5">
+        <v>150.25</v>
+      </c>
+      <c r="S10" s="5">
+        <v>100.76</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U10" s="5">
+        <v>175.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L11" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3001</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O11" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="P11" s="5">
+        <v>4001</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>5000</v>
+      </c>
+      <c r="R11" s="5">
+        <v>175.25</v>
+      </c>
+      <c r="S11" s="5">
+        <v>5001</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U11" s="5">
+        <v>175.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20.75</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="G12" s="5">
+        <v>20.76</v>
+      </c>
+      <c r="H12" s="5">
+        <v>40</v>
+      </c>
+      <c r="I12" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="J12" s="5">
+        <v>40.01</v>
+      </c>
+      <c r="K12" s="5">
+        <v>60.75</v>
+      </c>
+      <c r="L12" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="M12" s="5">
+        <v>60.76</v>
+      </c>
+      <c r="N12" s="5">
+        <v>80</v>
+      </c>
+      <c r="O12" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="P12" s="5">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>100.75</v>
+      </c>
+      <c r="R12" s="5">
+        <v>150.25</v>
+      </c>
+      <c r="S12" s="5">
+        <v>100.76</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U12" s="5">
+        <v>175.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>90.25</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3001</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O13" s="5">
+        <v>120.25</v>
+      </c>
+      <c r="P13" s="5">
+        <v>4001</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>5000</v>
+      </c>
+      <c r="R13" s="5">
+        <v>175.25</v>
+      </c>
+      <c r="S13" s="5">
+        <v>5001</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U13" s="5">
+        <v>175.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="7" customWidth="1"/>
+    <col min="6" max="1025" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>958</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" s="15">
+        <v>956425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>937</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>959</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O3" s="15">
+        <v>666656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O4" s="15">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>939</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O5" s="15">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>940</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>941</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>942</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O8" s="15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>943</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>944</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O10" s="15">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>945</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O11" s="15">
+        <v>600226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>946</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O12" s="15">
+        <v>856954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O13" s="15">
+        <v>544587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>948</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>949</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>950</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O16" s="15">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>951</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O17" s="15">
+        <v>468484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>952</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O18" s="15">
+        <v>546465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>953</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O19" s="15">
+        <v>656656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O20" s="15">
+        <v>11081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O21" s="15">
+        <v>11191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>956</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O22" s="15">
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O23" s="15">
+        <v>11121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O24" s="15">
+        <v>11121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{83AC0CF3-DBC3-4135-8C73-83246C0D8BAB}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{52C5CAB4-7C0D-4E8C-B7A0-828BF9983A69}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{7F4FC6AC-621C-4036-8257-B91E1E01BC28}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -6410,9 +11981,9 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{DB7078A1-E190-4D05-A09C-670919D793B0}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{A424FD25-8A0F-469F-81D1-77B952CB5590}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -6420,7 +11991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6578,15 +12149,15 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="F3:F4" r:id="rId5" display="20_P@s$w0rd"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B10D00F2-9946-476F-BB80-0A4788D27ACD}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4338B5C1-CBDF-4A76-AD3F-2733324386F3}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{0E94468F-AC61-42B7-9C83-B527E993C819}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{C43C4FEF-5CAA-4BE7-AA83-1EBFE6D74537}"/>
+    <hyperlink ref="F3:F4" r:id="rId5" display="20_P@s$w0rd" xr:uid="{D257E6BA-292C-4B7B-A140-8358E0D5C9AE}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{D676F283-81F3-4ABC-A0A8-70541D5715CF}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{3AF4A3BE-D20D-4ED2-AA2C-ECF70195BBF2}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{C8B59CBE-DB47-48D8-AA01-D820CCB62289}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{9DED047A-A240-45BD-B4B5-E342A9AE8DAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6594,7 +12165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF73CFBE-DD50-472F-9ACD-6503C1B8F355}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6750,22 +12321,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="F3:F4" r:id="rId5" display="20_P@s$w0rd"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DCF89373-E9C5-4CA8-AE76-32CFF11840F6}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{29455C94-8306-4B79-92C1-4A1167471FC5}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{1BFB9012-A457-4AB2-8ED7-A873D28AE80B}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{2F2B0901-3175-4EA8-A3B8-818ABB6A38CB}"/>
+    <hyperlink ref="F3:F4" r:id="rId5" display="20_P@s$w0rd" xr:uid="{55F99453-2678-4B60-8361-AD3A1FEA7711}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{E4387658-30A0-4779-BA61-AA45A3DCF72F}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{0AC2E8F6-9F64-47D2-8AB7-D4938D882C5A}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{DD330E3B-6B36-4DEE-92BE-F4E337A6C651}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{0982A8C7-8AB9-40F0-9EB6-CA5C20DC221A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Z59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9226,7 +14797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
